--- a/source_data/oecd_vat_gst_annual_turnover_concessions_ctt_trends.xlsx
+++ b/source_data/oecd_vat_gst_annual_turnover_concessions_ctt_trends.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\international-tax-competitiveness-index\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8011C362-1491-45DA-B148-B67FDA623930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106DE485-3F3C-45E8-B6D4-5497642820A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5537,36 +5537,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="86"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="85" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="85" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="85" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="85" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="85" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="85" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="85" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="85" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="19" xfId="85" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="19" xfId="85" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="20" xfId="85" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5621,28 +5591,37 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="85" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="33" xfId="85" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="85" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="85" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="84" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="85" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="19" xfId="85" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="19" xfId="85" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="85" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="85" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="85" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="85" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="85" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="33" xfId="85" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5699,19 +5678,31 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="84" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5720,20 +5711,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="73" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="73" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5764,6 +5755,15 @@
     </xf>
     <xf numFmtId="166" fontId="52" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="73" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="73" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -5844,7 +5844,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5866,6 +5865,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="113">
     <cellStyle name="20 % - Akzent1 2" xfId="87" xr:uid="{738607D7-7B3B-42C5-B947-B6A58EAEE713}"/>
@@ -7181,71 +7181,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AE8BD4-A370-4F91-8125-D8B113DF7A6E}">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:12" ht="14.25">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="177" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="189"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="179"/>
       <c r="K1" s="147"/>
     </row>
     <row r="2" spans="1:12" ht="13.15">
-      <c r="A2" s="190"/>
+      <c r="A2" s="180"/>
       <c r="B2" s="148"/>
-      <c r="C2" s="193" t="s">
+      <c r="C2" s="183" t="s">
         <v>327</v>
       </c>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="196" t="s">
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="186" t="s">
         <v>328</v>
       </c>
-      <c r="I2" s="196" t="s">
+      <c r="I2" s="186" t="s">
         <v>329</v>
       </c>
-      <c r="J2" s="199" t="s">
+      <c r="J2" s="189" t="s">
         <v>335</v>
       </c>
       <c r="K2" s="147"/>
     </row>
     <row r="3" spans="1:12" ht="34.9">
-      <c r="A3" s="191"/>
+      <c r="A3" s="181"/>
       <c r="B3" s="149" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="150" t="s">
         <v>359</v>
       </c>
-      <c r="D3" s="202" t="s">
+      <c r="D3" s="192" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="203"/>
-      <c r="F3" s="196" t="s">
+      <c r="E3" s="193"/>
+      <c r="F3" s="186" t="s">
         <v>291</v>
       </c>
-      <c r="G3" s="204"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="200"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="190"/>
       <c r="K3" s="147"/>
     </row>
     <row r="4" spans="1:12" ht="41.25">
-      <c r="A4" s="192"/>
+      <c r="A4" s="182"/>
       <c r="B4" s="152"/>
       <c r="C4" s="153"/>
       <c r="D4" s="151" t="s">
@@ -7260,9 +7260,9 @@
       <c r="G4" s="151" t="s">
         <v>333</v>
       </c>
-      <c r="H4" s="198"/>
-      <c r="I4" s="198"/>
-      <c r="J4" s="201"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="191"/>
       <c r="K4" s="147"/>
       <c r="L4" s="154" t="s">
         <v>441</v>
@@ -7317,11 +7317,11 @@
         <v>277</v>
       </c>
       <c r="D6" s="166">
-        <v>35000</v>
+        <v>55000</v>
       </c>
       <c r="E6" s="167">
         <f>D6/L6</f>
-        <v>47738.36104658855</v>
+        <v>75017.424501782007</v>
       </c>
       <c r="F6" s="168"/>
       <c r="G6" s="159">
@@ -8623,498 +8623,498 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="13.15">
-      <c r="A45" s="183" t="s">
+      <c r="A45" s="196" t="s">
         <v>442</v>
       </c>
-      <c r="B45" s="183"/>
-      <c r="C45" s="183"/>
-      <c r="D45" s="183"/>
-      <c r="E45" s="183"/>
-      <c r="F45" s="183"/>
-      <c r="G45" s="183"/>
-      <c r="H45" s="183"/>
-      <c r="I45" s="183"/>
-      <c r="J45" s="183"/>
-      <c r="K45" s="183"/>
+      <c r="B45" s="196"/>
+      <c r="C45" s="196"/>
+      <c r="D45" s="196"/>
+      <c r="E45" s="196"/>
+      <c r="F45" s="196"/>
+      <c r="G45" s="196"/>
+      <c r="H45" s="196"/>
+      <c r="I45" s="196"/>
+      <c r="J45" s="196"/>
+      <c r="K45" s="196"/>
     </row>
     <row r="46" spans="1:12" ht="13.15">
-      <c r="A46" s="184" t="s">
+      <c r="A46" s="197" t="s">
         <v>366</v>
       </c>
-      <c r="B46" s="183"/>
-      <c r="C46" s="183"/>
-      <c r="D46" s="183"/>
-      <c r="E46" s="183"/>
-      <c r="F46" s="183"/>
-      <c r="G46" s="183"/>
-      <c r="H46" s="183"/>
-      <c r="I46" s="183"/>
-      <c r="J46" s="183"/>
-      <c r="K46" s="183"/>
+      <c r="B46" s="196"/>
+      <c r="C46" s="196"/>
+      <c r="D46" s="196"/>
+      <c r="E46" s="196"/>
+      <c r="F46" s="196"/>
+      <c r="G46" s="196"/>
+      <c r="H46" s="196"/>
+      <c r="I46" s="196"/>
+      <c r="J46" s="196"/>
+      <c r="K46" s="196"/>
     </row>
     <row r="47" spans="1:12" ht="13.15">
-      <c r="A47" s="185" t="s">
+      <c r="A47" s="198" t="s">
         <v>409</v>
       </c>
-      <c r="B47" s="186"/>
-      <c r="C47" s="186"/>
-      <c r="D47" s="186"/>
-      <c r="E47" s="186"/>
-      <c r="F47" s="186"/>
-      <c r="G47" s="186"/>
-      <c r="H47" s="186"/>
-      <c r="I47" s="186"/>
-      <c r="J47" s="186"/>
+      <c r="B47" s="199"/>
+      <c r="C47" s="199"/>
+      <c r="D47" s="199"/>
+      <c r="E47" s="199"/>
+      <c r="F47" s="199"/>
+      <c r="G47" s="199"/>
+      <c r="H47" s="199"/>
+      <c r="I47" s="199"/>
+      <c r="J47" s="199"/>
       <c r="K47" s="147"/>
     </row>
     <row r="48" spans="1:12" ht="13.15">
-      <c r="A48" s="180" t="s">
+      <c r="A48" s="200" t="s">
         <v>410</v>
       </c>
-      <c r="B48" s="180"/>
-      <c r="C48" s="180"/>
-      <c r="D48" s="180"/>
-      <c r="E48" s="180"/>
-      <c r="F48" s="180"/>
-      <c r="G48" s="180"/>
-      <c r="H48" s="180"/>
-      <c r="I48" s="180"/>
-      <c r="J48" s="180"/>
+      <c r="B48" s="200"/>
+      <c r="C48" s="200"/>
+      <c r="D48" s="200"/>
+      <c r="E48" s="200"/>
+      <c r="F48" s="200"/>
+      <c r="G48" s="200"/>
+      <c r="H48" s="200"/>
+      <c r="I48" s="200"/>
+      <c r="J48" s="200"/>
       <c r="K48" s="147"/>
     </row>
     <row r="49" spans="1:11" ht="13.15">
-      <c r="A49" s="180" t="s">
+      <c r="A49" s="200" t="s">
         <v>411</v>
       </c>
-      <c r="B49" s="180"/>
-      <c r="C49" s="180"/>
-      <c r="D49" s="180"/>
-      <c r="E49" s="180"/>
-      <c r="F49" s="180"/>
-      <c r="G49" s="180"/>
-      <c r="H49" s="180"/>
-      <c r="I49" s="180"/>
-      <c r="J49" s="180"/>
+      <c r="B49" s="200"/>
+      <c r="C49" s="200"/>
+      <c r="D49" s="200"/>
+      <c r="E49" s="200"/>
+      <c r="F49" s="200"/>
+      <c r="G49" s="200"/>
+      <c r="H49" s="200"/>
+      <c r="I49" s="200"/>
+      <c r="J49" s="200"/>
       <c r="K49" s="147"/>
     </row>
     <row r="50" spans="1:11" ht="13.15">
-      <c r="A50" s="180" t="s">
+      <c r="A50" s="200" t="s">
         <v>412</v>
       </c>
-      <c r="B50" s="180"/>
-      <c r="C50" s="180"/>
-      <c r="D50" s="180"/>
-      <c r="E50" s="180"/>
-      <c r="F50" s="180"/>
-      <c r="G50" s="180"/>
-      <c r="H50" s="180"/>
-      <c r="I50" s="180"/>
-      <c r="J50" s="180"/>
+      <c r="B50" s="200"/>
+      <c r="C50" s="200"/>
+      <c r="D50" s="200"/>
+      <c r="E50" s="200"/>
+      <c r="F50" s="200"/>
+      <c r="G50" s="200"/>
+      <c r="H50" s="200"/>
+      <c r="I50" s="200"/>
+      <c r="J50" s="200"/>
       <c r="K50" s="147"/>
     </row>
     <row r="51" spans="1:11" ht="13.15">
-      <c r="A51" s="180" t="s">
+      <c r="A51" s="200" t="s">
         <v>336</v>
       </c>
-      <c r="B51" s="180"/>
-      <c r="C51" s="180"/>
-      <c r="D51" s="180"/>
-      <c r="E51" s="180"/>
-      <c r="F51" s="180"/>
-      <c r="G51" s="180"/>
-      <c r="H51" s="180"/>
-      <c r="I51" s="180"/>
-      <c r="J51" s="180"/>
+      <c r="B51" s="200"/>
+      <c r="C51" s="200"/>
+      <c r="D51" s="200"/>
+      <c r="E51" s="200"/>
+      <c r="F51" s="200"/>
+      <c r="G51" s="200"/>
+      <c r="H51" s="200"/>
+      <c r="I51" s="200"/>
+      <c r="J51" s="200"/>
       <c r="K51" s="147"/>
     </row>
     <row r="52" spans="1:11" ht="13.15">
-      <c r="A52" s="180" t="s">
+      <c r="A52" s="200" t="s">
         <v>413</v>
       </c>
-      <c r="B52" s="180"/>
-      <c r="C52" s="180"/>
-      <c r="D52" s="180"/>
-      <c r="E52" s="180"/>
-      <c r="F52" s="180"/>
-      <c r="G52" s="180"/>
-      <c r="H52" s="180"/>
-      <c r="I52" s="180"/>
-      <c r="J52" s="180"/>
+      <c r="B52" s="200"/>
+      <c r="C52" s="200"/>
+      <c r="D52" s="200"/>
+      <c r="E52" s="200"/>
+      <c r="F52" s="200"/>
+      <c r="G52" s="200"/>
+      <c r="H52" s="200"/>
+      <c r="I52" s="200"/>
+      <c r="J52" s="200"/>
       <c r="K52" s="147"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="181" t="s">
+      <c r="A53" s="201" t="s">
         <v>383</v>
       </c>
-      <c r="B53" s="182"/>
-      <c r="C53" s="182"/>
-      <c r="D53" s="182"/>
-      <c r="E53" s="182"/>
-      <c r="F53" s="182"/>
-      <c r="G53" s="182"/>
-      <c r="H53" s="182"/>
-      <c r="I53" s="182"/>
-      <c r="J53" s="182"/>
+      <c r="B53" s="202"/>
+      <c r="C53" s="202"/>
+      <c r="D53" s="202"/>
+      <c r="E53" s="202"/>
+      <c r="F53" s="202"/>
+      <c r="G53" s="202"/>
+      <c r="H53" s="202"/>
+      <c r="I53" s="202"/>
+      <c r="J53" s="202"/>
       <c r="K53" s="147"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="178" t="s">
+      <c r="A54" s="195" t="s">
         <v>414</v>
       </c>
-      <c r="B54" s="178"/>
-      <c r="C54" s="178"/>
-      <c r="D54" s="178"/>
-      <c r="E54" s="178"/>
-      <c r="F54" s="178"/>
-      <c r="G54" s="178"/>
-      <c r="H54" s="178"/>
-      <c r="I54" s="178"/>
-      <c r="J54" s="178"/>
+      <c r="B54" s="195"/>
+      <c r="C54" s="195"/>
+      <c r="D54" s="195"/>
+      <c r="E54" s="195"/>
+      <c r="F54" s="195"/>
+      <c r="G54" s="195"/>
+      <c r="H54" s="195"/>
+      <c r="I54" s="195"/>
+      <c r="J54" s="195"/>
       <c r="K54" s="147"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="178" t="s">
+      <c r="A55" s="195" t="s">
         <v>415</v>
       </c>
-      <c r="B55" s="178"/>
-      <c r="C55" s="178"/>
-      <c r="D55" s="178"/>
-      <c r="E55" s="178"/>
-      <c r="F55" s="178"/>
-      <c r="G55" s="178"/>
-      <c r="H55" s="178"/>
-      <c r="I55" s="178"/>
-      <c r="J55" s="178"/>
+      <c r="B55" s="195"/>
+      <c r="C55" s="195"/>
+      <c r="D55" s="195"/>
+      <c r="E55" s="195"/>
+      <c r="F55" s="195"/>
+      <c r="G55" s="195"/>
+      <c r="H55" s="195"/>
+      <c r="I55" s="195"/>
+      <c r="J55" s="195"/>
       <c r="K55" s="147"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="178" t="s">
+      <c r="A56" s="195" t="s">
         <v>416</v>
       </c>
-      <c r="B56" s="178"/>
-      <c r="C56" s="178"/>
-      <c r="D56" s="178"/>
-      <c r="E56" s="178"/>
-      <c r="F56" s="178"/>
-      <c r="G56" s="178"/>
-      <c r="H56" s="178"/>
-      <c r="I56" s="178"/>
-      <c r="J56" s="178"/>
+      <c r="B56" s="195"/>
+      <c r="C56" s="195"/>
+      <c r="D56" s="195"/>
+      <c r="E56" s="195"/>
+      <c r="F56" s="195"/>
+      <c r="G56" s="195"/>
+      <c r="H56" s="195"/>
+      <c r="I56" s="195"/>
+      <c r="J56" s="195"/>
       <c r="K56" s="147"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="177" t="s">
+      <c r="A57" s="203" t="s">
         <v>417</v>
       </c>
-      <c r="B57" s="178"/>
-      <c r="C57" s="178"/>
-      <c r="D57" s="178"/>
-      <c r="E57" s="178"/>
-      <c r="F57" s="178"/>
-      <c r="G57" s="178"/>
-      <c r="H57" s="178"/>
-      <c r="I57" s="178"/>
-      <c r="J57" s="178"/>
+      <c r="B57" s="195"/>
+      <c r="C57" s="195"/>
+      <c r="D57" s="195"/>
+      <c r="E57" s="195"/>
+      <c r="F57" s="195"/>
+      <c r="G57" s="195"/>
+      <c r="H57" s="195"/>
+      <c r="I57" s="195"/>
+      <c r="J57" s="195"/>
       <c r="K57" s="147"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="177" t="s">
+      <c r="A58" s="203" t="s">
         <v>418</v>
       </c>
-      <c r="B58" s="178"/>
-      <c r="C58" s="178"/>
-      <c r="D58" s="178"/>
-      <c r="E58" s="178"/>
-      <c r="F58" s="178"/>
-      <c r="G58" s="178"/>
-      <c r="H58" s="178"/>
-      <c r="I58" s="178"/>
-      <c r="J58" s="178"/>
+      <c r="B58" s="195"/>
+      <c r="C58" s="195"/>
+      <c r="D58" s="195"/>
+      <c r="E58" s="195"/>
+      <c r="F58" s="195"/>
+      <c r="G58" s="195"/>
+      <c r="H58" s="195"/>
+      <c r="I58" s="195"/>
+      <c r="J58" s="195"/>
       <c r="K58" s="147"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="177" t="s">
+      <c r="A59" s="203" t="s">
         <v>419</v>
       </c>
-      <c r="B59" s="178"/>
-      <c r="C59" s="178"/>
-      <c r="D59" s="178"/>
-      <c r="E59" s="178"/>
-      <c r="F59" s="178"/>
-      <c r="G59" s="178"/>
-      <c r="H59" s="178"/>
-      <c r="I59" s="178"/>
-      <c r="J59" s="178"/>
+      <c r="B59" s="195"/>
+      <c r="C59" s="195"/>
+      <c r="D59" s="195"/>
+      <c r="E59" s="195"/>
+      <c r="F59" s="195"/>
+      <c r="G59" s="195"/>
+      <c r="H59" s="195"/>
+      <c r="I59" s="195"/>
+      <c r="J59" s="195"/>
       <c r="K59" s="147"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="177" t="s">
+      <c r="A60" s="203" t="s">
         <v>420</v>
       </c>
-      <c r="B60" s="178"/>
-      <c r="C60" s="178"/>
-      <c r="D60" s="178"/>
-      <c r="E60" s="178"/>
-      <c r="F60" s="178"/>
-      <c r="G60" s="178"/>
-      <c r="H60" s="178"/>
-      <c r="I60" s="178"/>
-      <c r="J60" s="178"/>
+      <c r="B60" s="195"/>
+      <c r="C60" s="195"/>
+      <c r="D60" s="195"/>
+      <c r="E60" s="195"/>
+      <c r="F60" s="195"/>
+      <c r="G60" s="195"/>
+      <c r="H60" s="195"/>
+      <c r="I60" s="195"/>
+      <c r="J60" s="195"/>
       <c r="K60" s="147"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="177" t="s">
+      <c r="A61" s="203" t="s">
         <v>421</v>
       </c>
-      <c r="B61" s="178"/>
-      <c r="C61" s="178"/>
-      <c r="D61" s="178"/>
-      <c r="E61" s="178"/>
-      <c r="F61" s="178"/>
-      <c r="G61" s="178"/>
-      <c r="H61" s="178"/>
-      <c r="I61" s="178"/>
-      <c r="J61" s="178"/>
+      <c r="B61" s="195"/>
+      <c r="C61" s="195"/>
+      <c r="D61" s="195"/>
+      <c r="E61" s="195"/>
+      <c r="F61" s="195"/>
+      <c r="G61" s="195"/>
+      <c r="H61" s="195"/>
+      <c r="I61" s="195"/>
+      <c r="J61" s="195"/>
       <c r="K61" s="147"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="177" t="s">
+      <c r="A62" s="203" t="s">
         <v>422</v>
       </c>
-      <c r="B62" s="178"/>
-      <c r="C62" s="178"/>
-      <c r="D62" s="178"/>
-      <c r="E62" s="178"/>
-      <c r="F62" s="178"/>
-      <c r="G62" s="178"/>
-      <c r="H62" s="178"/>
-      <c r="I62" s="178"/>
-      <c r="J62" s="178"/>
+      <c r="B62" s="195"/>
+      <c r="C62" s="195"/>
+      <c r="D62" s="195"/>
+      <c r="E62" s="195"/>
+      <c r="F62" s="195"/>
+      <c r="G62" s="195"/>
+      <c r="H62" s="195"/>
+      <c r="I62" s="195"/>
+      <c r="J62" s="195"/>
       <c r="K62" s="147"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="177" t="s">
+      <c r="A63" s="203" t="s">
         <v>423</v>
       </c>
-      <c r="B63" s="178"/>
-      <c r="C63" s="178"/>
-      <c r="D63" s="178"/>
-      <c r="E63" s="178"/>
-      <c r="F63" s="178"/>
-      <c r="G63" s="178"/>
-      <c r="H63" s="178"/>
-      <c r="I63" s="178"/>
-      <c r="J63" s="178"/>
+      <c r="B63" s="195"/>
+      <c r="C63" s="195"/>
+      <c r="D63" s="195"/>
+      <c r="E63" s="195"/>
+      <c r="F63" s="195"/>
+      <c r="G63" s="195"/>
+      <c r="H63" s="195"/>
+      <c r="I63" s="195"/>
+      <c r="J63" s="195"/>
       <c r="K63" s="147"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="177" t="s">
+      <c r="A64" s="203" t="s">
         <v>424</v>
       </c>
-      <c r="B64" s="178"/>
-      <c r="C64" s="178"/>
-      <c r="D64" s="178"/>
-      <c r="E64" s="178"/>
-      <c r="F64" s="178"/>
-      <c r="G64" s="178"/>
-      <c r="H64" s="178"/>
-      <c r="I64" s="178"/>
-      <c r="J64" s="178"/>
+      <c r="B64" s="195"/>
+      <c r="C64" s="195"/>
+      <c r="D64" s="195"/>
+      <c r="E64" s="195"/>
+      <c r="F64" s="195"/>
+      <c r="G64" s="195"/>
+      <c r="H64" s="195"/>
+      <c r="I64" s="195"/>
+      <c r="J64" s="195"/>
       <c r="K64" s="147"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="177" t="s">
+      <c r="A65" s="203" t="s">
         <v>425</v>
       </c>
-      <c r="B65" s="178"/>
-      <c r="C65" s="178"/>
-      <c r="D65" s="178"/>
-      <c r="E65" s="178"/>
-      <c r="F65" s="178"/>
-      <c r="G65" s="178"/>
-      <c r="H65" s="178"/>
-      <c r="I65" s="178"/>
-      <c r="J65" s="178"/>
+      <c r="B65" s="195"/>
+      <c r="C65" s="195"/>
+      <c r="D65" s="195"/>
+      <c r="E65" s="195"/>
+      <c r="F65" s="195"/>
+      <c r="G65" s="195"/>
+      <c r="H65" s="195"/>
+      <c r="I65" s="195"/>
+      <c r="J65" s="195"/>
       <c r="K65" s="147"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="177" t="s">
+      <c r="A66" s="203" t="s">
         <v>426</v>
       </c>
-      <c r="B66" s="178"/>
-      <c r="C66" s="178"/>
-      <c r="D66" s="178"/>
-      <c r="E66" s="178"/>
-      <c r="F66" s="178"/>
-      <c r="G66" s="178"/>
-      <c r="H66" s="178"/>
-      <c r="I66" s="178"/>
-      <c r="J66" s="178"/>
+      <c r="B66" s="195"/>
+      <c r="C66" s="195"/>
+      <c r="D66" s="195"/>
+      <c r="E66" s="195"/>
+      <c r="F66" s="195"/>
+      <c r="G66" s="195"/>
+      <c r="H66" s="195"/>
+      <c r="I66" s="195"/>
+      <c r="J66" s="195"/>
       <c r="K66" s="147"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="177" t="s">
+      <c r="A67" s="203" t="s">
         <v>427</v>
       </c>
-      <c r="B67" s="178"/>
-      <c r="C67" s="178"/>
-      <c r="D67" s="178"/>
-      <c r="E67" s="178"/>
-      <c r="F67" s="178"/>
-      <c r="G67" s="178"/>
-      <c r="H67" s="178"/>
-      <c r="I67" s="178"/>
-      <c r="J67" s="178"/>
+      <c r="B67" s="195"/>
+      <c r="C67" s="195"/>
+      <c r="D67" s="195"/>
+      <c r="E67" s="195"/>
+      <c r="F67" s="195"/>
+      <c r="G67" s="195"/>
+      <c r="H67" s="195"/>
+      <c r="I67" s="195"/>
+      <c r="J67" s="195"/>
       <c r="K67" s="147"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="177" t="s">
+      <c r="A68" s="203" t="s">
         <v>428</v>
       </c>
-      <c r="B68" s="178"/>
-      <c r="C68" s="178"/>
-      <c r="D68" s="178"/>
-      <c r="E68" s="178"/>
-      <c r="F68" s="178"/>
-      <c r="G68" s="178"/>
-      <c r="H68" s="178"/>
-      <c r="I68" s="178"/>
-      <c r="J68" s="178"/>
+      <c r="B68" s="195"/>
+      <c r="C68" s="195"/>
+      <c r="D68" s="195"/>
+      <c r="E68" s="195"/>
+      <c r="F68" s="195"/>
+      <c r="G68" s="195"/>
+      <c r="H68" s="195"/>
+      <c r="I68" s="195"/>
+      <c r="J68" s="195"/>
       <c r="K68" s="147"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="177" t="s">
+      <c r="A69" s="203" t="s">
         <v>429</v>
       </c>
-      <c r="B69" s="178"/>
-      <c r="C69" s="178"/>
-      <c r="D69" s="178"/>
-      <c r="E69" s="178"/>
-      <c r="F69" s="178"/>
-      <c r="G69" s="178"/>
-      <c r="H69" s="178"/>
-      <c r="I69" s="178"/>
-      <c r="J69" s="178"/>
+      <c r="B69" s="195"/>
+      <c r="C69" s="195"/>
+      <c r="D69" s="195"/>
+      <c r="E69" s="195"/>
+      <c r="F69" s="195"/>
+      <c r="G69" s="195"/>
+      <c r="H69" s="195"/>
+      <c r="I69" s="195"/>
+      <c r="J69" s="195"/>
       <c r="K69" s="147"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="177" t="s">
+      <c r="A70" s="203" t="s">
         <v>430</v>
       </c>
-      <c r="B70" s="178"/>
-      <c r="C70" s="178"/>
-      <c r="D70" s="178"/>
-      <c r="E70" s="178"/>
-      <c r="F70" s="178"/>
-      <c r="G70" s="178"/>
-      <c r="H70" s="178"/>
-      <c r="I70" s="178"/>
-      <c r="J70" s="178"/>
+      <c r="B70" s="195"/>
+      <c r="C70" s="195"/>
+      <c r="D70" s="195"/>
+      <c r="E70" s="195"/>
+      <c r="F70" s="195"/>
+      <c r="G70" s="195"/>
+      <c r="H70" s="195"/>
+      <c r="I70" s="195"/>
+      <c r="J70" s="195"/>
       <c r="K70" s="147"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="177" t="s">
+      <c r="A71" s="203" t="s">
         <v>431</v>
       </c>
-      <c r="B71" s="178"/>
-      <c r="C71" s="178"/>
-      <c r="D71" s="178"/>
-      <c r="E71" s="178"/>
-      <c r="F71" s="178"/>
-      <c r="G71" s="178"/>
-      <c r="H71" s="178"/>
-      <c r="I71" s="178"/>
-      <c r="J71" s="178"/>
+      <c r="B71" s="195"/>
+      <c r="C71" s="195"/>
+      <c r="D71" s="195"/>
+      <c r="E71" s="195"/>
+      <c r="F71" s="195"/>
+      <c r="G71" s="195"/>
+      <c r="H71" s="195"/>
+      <c r="I71" s="195"/>
+      <c r="J71" s="195"/>
       <c r="K71" s="147"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="179" t="s">
+      <c r="A72" s="204" t="s">
         <v>432</v>
       </c>
-      <c r="B72" s="178"/>
-      <c r="C72" s="178"/>
-      <c r="D72" s="178"/>
-      <c r="E72" s="178"/>
-      <c r="F72" s="178"/>
-      <c r="G72" s="178"/>
-      <c r="H72" s="178"/>
-      <c r="I72" s="178"/>
-      <c r="J72" s="178"/>
+      <c r="B72" s="195"/>
+      <c r="C72" s="195"/>
+      <c r="D72" s="195"/>
+      <c r="E72" s="195"/>
+      <c r="F72" s="195"/>
+      <c r="G72" s="195"/>
+      <c r="H72" s="195"/>
+      <c r="I72" s="195"/>
+      <c r="J72" s="195"/>
       <c r="K72" s="147"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="177" t="s">
+      <c r="A73" s="203" t="s">
         <v>433</v>
       </c>
-      <c r="B73" s="178"/>
-      <c r="C73" s="178"/>
-      <c r="D73" s="178"/>
-      <c r="E73" s="178"/>
-      <c r="F73" s="178"/>
-      <c r="G73" s="178"/>
-      <c r="H73" s="178"/>
-      <c r="I73" s="178"/>
-      <c r="J73" s="178"/>
+      <c r="B73" s="195"/>
+      <c r="C73" s="195"/>
+      <c r="D73" s="195"/>
+      <c r="E73" s="195"/>
+      <c r="F73" s="195"/>
+      <c r="G73" s="195"/>
+      <c r="H73" s="195"/>
+      <c r="I73" s="195"/>
+      <c r="J73" s="195"/>
       <c r="K73" s="147"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="177" t="s">
+      <c r="A74" s="203" t="s">
         <v>434</v>
       </c>
-      <c r="B74" s="178"/>
-      <c r="C74" s="178"/>
-      <c r="D74" s="178"/>
-      <c r="E74" s="178"/>
-      <c r="F74" s="178"/>
-      <c r="G74" s="178"/>
-      <c r="H74" s="178"/>
-      <c r="I74" s="178"/>
-      <c r="J74" s="178"/>
+      <c r="B74" s="195"/>
+      <c r="C74" s="195"/>
+      <c r="D74" s="195"/>
+      <c r="E74" s="195"/>
+      <c r="F74" s="195"/>
+      <c r="G74" s="195"/>
+      <c r="H74" s="195"/>
+      <c r="I74" s="195"/>
+      <c r="J74" s="195"/>
       <c r="K74" s="147"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="177" t="s">
+      <c r="A75" s="203" t="s">
         <v>435</v>
       </c>
-      <c r="B75" s="178"/>
-      <c r="C75" s="178"/>
-      <c r="D75" s="178"/>
-      <c r="E75" s="178"/>
-      <c r="F75" s="178"/>
-      <c r="G75" s="178"/>
-      <c r="H75" s="178"/>
-      <c r="I75" s="178"/>
-      <c r="J75" s="178"/>
+      <c r="B75" s="195"/>
+      <c r="C75" s="195"/>
+      <c r="D75" s="195"/>
+      <c r="E75" s="195"/>
+      <c r="F75" s="195"/>
+      <c r="G75" s="195"/>
+      <c r="H75" s="195"/>
+      <c r="I75" s="195"/>
+      <c r="J75" s="195"/>
       <c r="K75" s="147"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="177" t="s">
+      <c r="A76" s="203" t="s">
         <v>436</v>
       </c>
-      <c r="B76" s="178"/>
-      <c r="C76" s="178"/>
-      <c r="D76" s="178"/>
-      <c r="E76" s="178"/>
-      <c r="F76" s="178"/>
-      <c r="G76" s="178"/>
-      <c r="H76" s="178"/>
-      <c r="I76" s="178"/>
-      <c r="J76" s="178"/>
+      <c r="B76" s="195"/>
+      <c r="C76" s="195"/>
+      <c r="D76" s="195"/>
+      <c r="E76" s="195"/>
+      <c r="F76" s="195"/>
+      <c r="G76" s="195"/>
+      <c r="H76" s="195"/>
+      <c r="I76" s="195"/>
+      <c r="J76" s="195"/>
       <c r="K76" s="147"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="177" t="s">
+      <c r="A77" s="203" t="s">
         <v>437</v>
       </c>
-      <c r="B77" s="178"/>
-      <c r="C77" s="178"/>
-      <c r="D77" s="178"/>
-      <c r="E77" s="178"/>
-      <c r="F77" s="178"/>
-      <c r="G77" s="178"/>
-      <c r="H77" s="178"/>
-      <c r="I77" s="178"/>
-      <c r="J77" s="178"/>
+      <c r="B77" s="195"/>
+      <c r="C77" s="195"/>
+      <c r="D77" s="195"/>
+      <c r="E77" s="195"/>
+      <c r="F77" s="195"/>
+      <c r="G77" s="195"/>
+      <c r="H77" s="195"/>
+      <c r="I77" s="195"/>
+      <c r="J77" s="195"/>
       <c r="K77" s="147"/>
     </row>
     <row r="78" spans="1:11" ht="13.15">
@@ -9124,14 +9124,27 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A76:J76"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A74:J74"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A67:J67"/>
     <mergeCell ref="A56:J56"/>
     <mergeCell ref="A45:K45"/>
     <mergeCell ref="A46:K46"/>
@@ -9144,27 +9157,14 @@
     <mergeCell ref="A53:J53"/>
     <mergeCell ref="A54:J54"/>
     <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A68:J68"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="A75:J75"/>
-    <mergeCell ref="A76:J76"/>
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A72:J72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A74:J74"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9199,59 +9199,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="247"/>
-      <c r="J1" s="247"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="243"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="244"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="A2" s="216"/>
+      <c r="A2" s="209"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="219" t="s">
+      <c r="C2" s="212" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="222" t="s">
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="215" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="248" t="s">
+      <c r="J2" s="245" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A3" s="217"/>
+      <c r="A3" s="210"/>
       <c r="B3" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="228" t="s">
+      <c r="C3" s="221" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="229"/>
-      <c r="E3" s="251" t="s">
+      <c r="D3" s="222"/>
+      <c r="E3" s="248" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="252"/>
-      <c r="G3" s="222" t="s">
+      <c r="F3" s="249"/>
+      <c r="G3" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="248"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="249"/>
+      <c r="H3" s="245"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="246"/>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="218"/>
+      <c r="A4" s="211"/>
       <c r="B4" s="23"/>
       <c r="C4" s="5" t="s">
         <v>34</v>
@@ -9271,8 +9271,8 @@
       <c r="H4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="224"/>
-      <c r="J4" s="250"/>
+      <c r="I4" s="217"/>
+      <c r="J4" s="247"/>
     </row>
     <row r="5" spans="1:10" ht="13.15">
       <c r="A5" s="8" t="s">
@@ -10202,60 +10202,60 @@
       <c r="J39" s="13"/>
     </row>
     <row r="40" spans="1:10" ht="107.25" customHeight="1">
-      <c r="A40" s="233" t="s">
+      <c r="A40" s="237" t="s">
         <v>218</v>
       </c>
-      <c r="B40" s="242"/>
-      <c r="C40" s="242"/>
-      <c r="D40" s="242"/>
-      <c r="E40" s="242"/>
-      <c r="F40" s="242"/>
-      <c r="G40" s="242"/>
-      <c r="H40" s="242"/>
-      <c r="I40" s="242"/>
-      <c r="J40" s="242"/>
+      <c r="B40" s="250"/>
+      <c r="C40" s="250"/>
+      <c r="D40" s="250"/>
+      <c r="E40" s="250"/>
+      <c r="F40" s="250"/>
+      <c r="G40" s="250"/>
+      <c r="H40" s="250"/>
+      <c r="I40" s="250"/>
+      <c r="J40" s="250"/>
     </row>
     <row r="41" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A41" s="232" t="s">
+      <c r="A41" s="235" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="232"/>
-      <c r="C41" s="232"/>
-      <c r="D41" s="232"/>
-      <c r="E41" s="232"/>
-      <c r="F41" s="232"/>
-      <c r="G41" s="232"/>
-      <c r="H41" s="232"/>
-      <c r="I41" s="232"/>
-      <c r="J41" s="232"/>
+      <c r="B41" s="235"/>
+      <c r="C41" s="235"/>
+      <c r="D41" s="235"/>
+      <c r="E41" s="235"/>
+      <c r="F41" s="235"/>
+      <c r="G41" s="235"/>
+      <c r="H41" s="235"/>
+      <c r="I41" s="235"/>
+      <c r="J41" s="235"/>
     </row>
     <row r="42" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A42" s="232" t="s">
+      <c r="A42" s="235" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="232"/>
-      <c r="C42" s="232"/>
-      <c r="D42" s="232"/>
-      <c r="E42" s="232"/>
-      <c r="F42" s="232"/>
-      <c r="G42" s="232"/>
-      <c r="H42" s="232"/>
-      <c r="I42" s="232"/>
-      <c r="J42" s="232"/>
+      <c r="B42" s="235"/>
+      <c r="C42" s="235"/>
+      <c r="D42" s="235"/>
+      <c r="E42" s="235"/>
+      <c r="F42" s="235"/>
+      <c r="G42" s="235"/>
+      <c r="H42" s="235"/>
+      <c r="I42" s="235"/>
+      <c r="J42" s="235"/>
     </row>
     <row r="43" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A43" s="232" t="s">
+      <c r="A43" s="235" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="232"/>
-      <c r="C43" s="232"/>
-      <c r="D43" s="232"/>
-      <c r="E43" s="232"/>
-      <c r="F43" s="232"/>
-      <c r="G43" s="232"/>
-      <c r="H43" s="232"/>
-      <c r="I43" s="232"/>
-      <c r="J43" s="232"/>
+      <c r="B43" s="235"/>
+      <c r="C43" s="235"/>
+      <c r="D43" s="235"/>
+      <c r="E43" s="235"/>
+      <c r="F43" s="235"/>
+      <c r="G43" s="235"/>
+      <c r="H43" s="235"/>
+      <c r="I43" s="235"/>
+      <c r="J43" s="235"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1">
       <c r="A44" s="15" t="s">
@@ -10272,231 +10272,243 @@
       <c r="J44" s="14"/>
     </row>
     <row r="45" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A45" s="234" t="s">
+      <c r="A45" s="231" t="s">
         <v>223</v>
       </c>
-      <c r="B45" s="234"/>
-      <c r="C45" s="234"/>
-      <c r="D45" s="234"/>
-      <c r="E45" s="234"/>
-      <c r="F45" s="234"/>
-      <c r="G45" s="234"/>
-      <c r="H45" s="234"/>
-      <c r="I45" s="234"/>
-      <c r="J45" s="234"/>
+      <c r="B45" s="231"/>
+      <c r="C45" s="231"/>
+      <c r="D45" s="231"/>
+      <c r="E45" s="231"/>
+      <c r="F45" s="231"/>
+      <c r="G45" s="231"/>
+      <c r="H45" s="231"/>
+      <c r="I45" s="231"/>
+      <c r="J45" s="231"/>
     </row>
     <row r="46" spans="1:10" ht="62.25" customHeight="1">
-      <c r="A46" s="234" t="s">
+      <c r="A46" s="231" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="234"/>
-      <c r="C46" s="234"/>
-      <c r="D46" s="234"/>
-      <c r="E46" s="234"/>
-      <c r="F46" s="234"/>
-      <c r="G46" s="234"/>
-      <c r="H46" s="234"/>
-      <c r="I46" s="234"/>
-      <c r="J46" s="234"/>
+      <c r="B46" s="231"/>
+      <c r="C46" s="231"/>
+      <c r="D46" s="231"/>
+      <c r="E46" s="231"/>
+      <c r="F46" s="231"/>
+      <c r="G46" s="231"/>
+      <c r="H46" s="231"/>
+      <c r="I46" s="231"/>
+      <c r="J46" s="231"/>
     </row>
     <row r="47" spans="1:10" ht="43.5" customHeight="1">
-      <c r="A47" s="234" t="s">
+      <c r="A47" s="231" t="s">
         <v>222</v>
       </c>
-      <c r="B47" s="234"/>
-      <c r="C47" s="234"/>
-      <c r="D47" s="234"/>
-      <c r="E47" s="234"/>
-      <c r="F47" s="234"/>
-      <c r="G47" s="234"/>
-      <c r="H47" s="234"/>
-      <c r="I47" s="234"/>
-      <c r="J47" s="234"/>
+      <c r="B47" s="231"/>
+      <c r="C47" s="231"/>
+      <c r="D47" s="231"/>
+      <c r="E47" s="231"/>
+      <c r="F47" s="231"/>
+      <c r="G47" s="231"/>
+      <c r="H47" s="231"/>
+      <c r="I47" s="231"/>
+      <c r="J47" s="231"/>
     </row>
     <row r="48" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A48" s="234" t="s">
+      <c r="A48" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="234"/>
-      <c r="C48" s="234"/>
-      <c r="D48" s="234"/>
-      <c r="E48" s="234"/>
-      <c r="F48" s="234"/>
-      <c r="G48" s="234"/>
-      <c r="H48" s="234"/>
-      <c r="I48" s="234"/>
-      <c r="J48" s="234"/>
+      <c r="B48" s="231"/>
+      <c r="C48" s="231"/>
+      <c r="D48" s="231"/>
+      <c r="E48" s="231"/>
+      <c r="F48" s="231"/>
+      <c r="G48" s="231"/>
+      <c r="H48" s="231"/>
+      <c r="I48" s="231"/>
+      <c r="J48" s="231"/>
     </row>
     <row r="49" spans="1:10" ht="37.5" customHeight="1">
-      <c r="A49" s="234" t="s">
+      <c r="A49" s="231" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="234"/>
-      <c r="C49" s="234"/>
-      <c r="D49" s="234"/>
-      <c r="E49" s="234"/>
-      <c r="F49" s="234"/>
-      <c r="G49" s="234"/>
-      <c r="H49" s="234"/>
-      <c r="I49" s="234"/>
-      <c r="J49" s="234"/>
+      <c r="B49" s="231"/>
+      <c r="C49" s="231"/>
+      <c r="D49" s="231"/>
+      <c r="E49" s="231"/>
+      <c r="F49" s="231"/>
+      <c r="G49" s="231"/>
+      <c r="H49" s="231"/>
+      <c r="I49" s="231"/>
+      <c r="J49" s="231"/>
     </row>
     <row r="50" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A50" s="234" t="s">
+      <c r="A50" s="231" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="234"/>
-      <c r="C50" s="234"/>
-      <c r="D50" s="234"/>
-      <c r="E50" s="234"/>
-      <c r="F50" s="234"/>
-      <c r="G50" s="234"/>
-      <c r="H50" s="234"/>
-      <c r="I50" s="234"/>
-      <c r="J50" s="234"/>
+      <c r="B50" s="231"/>
+      <c r="C50" s="231"/>
+      <c r="D50" s="231"/>
+      <c r="E50" s="231"/>
+      <c r="F50" s="231"/>
+      <c r="G50" s="231"/>
+      <c r="H50" s="231"/>
+      <c r="I50" s="231"/>
+      <c r="J50" s="231"/>
     </row>
     <row r="51" spans="1:10" ht="43.5" customHeight="1">
-      <c r="A51" s="234" t="s">
+      <c r="A51" s="231" t="s">
         <v>82</v>
       </c>
-      <c r="B51" s="234"/>
-      <c r="C51" s="234"/>
-      <c r="D51" s="234"/>
-      <c r="E51" s="234"/>
-      <c r="F51" s="234"/>
-      <c r="G51" s="234"/>
-      <c r="H51" s="234"/>
-      <c r="I51" s="234"/>
-      <c r="J51" s="234"/>
+      <c r="B51" s="231"/>
+      <c r="C51" s="231"/>
+      <c r="D51" s="231"/>
+      <c r="E51" s="231"/>
+      <c r="F51" s="231"/>
+      <c r="G51" s="231"/>
+      <c r="H51" s="231"/>
+      <c r="I51" s="231"/>
+      <c r="J51" s="231"/>
     </row>
     <row r="52" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A52" s="232" t="s">
+      <c r="A52" s="235" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="232"/>
-      <c r="C52" s="232"/>
-      <c r="D52" s="232"/>
-      <c r="E52" s="232"/>
-      <c r="F52" s="232"/>
-      <c r="G52" s="232"/>
-      <c r="H52" s="232"/>
-      <c r="I52" s="232"/>
-      <c r="J52" s="232"/>
+      <c r="B52" s="235"/>
+      <c r="C52" s="235"/>
+      <c r="D52" s="235"/>
+      <c r="E52" s="235"/>
+      <c r="F52" s="235"/>
+      <c r="G52" s="235"/>
+      <c r="H52" s="235"/>
+      <c r="I52" s="235"/>
+      <c r="J52" s="235"/>
     </row>
     <row r="53" spans="1:10" ht="52.5" customHeight="1">
-      <c r="A53" s="234" t="s">
+      <c r="A53" s="231" t="s">
         <v>224</v>
       </c>
-      <c r="B53" s="207"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="207"/>
-      <c r="E53" s="207"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="207"/>
-      <c r="H53" s="207"/>
-      <c r="I53" s="207"/>
-      <c r="J53" s="207"/>
+      <c r="B53" s="225"/>
+      <c r="C53" s="225"/>
+      <c r="D53" s="225"/>
+      <c r="E53" s="225"/>
+      <c r="F53" s="225"/>
+      <c r="G53" s="225"/>
+      <c r="H53" s="225"/>
+      <c r="I53" s="225"/>
+      <c r="J53" s="225"/>
     </row>
     <row r="54" spans="1:10" ht="77.25" customHeight="1">
-      <c r="A54" s="234" t="s">
+      <c r="A54" s="231" t="s">
         <v>220</v>
       </c>
-      <c r="B54" s="234"/>
-      <c r="C54" s="234"/>
-      <c r="D54" s="234"/>
-      <c r="E54" s="234"/>
-      <c r="F54" s="234"/>
-      <c r="G54" s="234"/>
-      <c r="H54" s="234"/>
-      <c r="I54" s="234"/>
-      <c r="J54" s="234"/>
+      <c r="B54" s="231"/>
+      <c r="C54" s="231"/>
+      <c r="D54" s="231"/>
+      <c r="E54" s="231"/>
+      <c r="F54" s="231"/>
+      <c r="G54" s="231"/>
+      <c r="H54" s="231"/>
+      <c r="I54" s="231"/>
+      <c r="J54" s="231"/>
     </row>
     <row r="55" spans="1:10" ht="63" customHeight="1">
-      <c r="A55" s="234" t="s">
+      <c r="A55" s="231" t="s">
         <v>71</v>
       </c>
-      <c r="B55" s="234"/>
-      <c r="C55" s="234"/>
-      <c r="D55" s="234"/>
-      <c r="E55" s="234"/>
-      <c r="F55" s="234"/>
-      <c r="G55" s="234"/>
-      <c r="H55" s="234"/>
-      <c r="I55" s="234"/>
-      <c r="J55" s="234"/>
+      <c r="B55" s="231"/>
+      <c r="C55" s="231"/>
+      <c r="D55" s="231"/>
+      <c r="E55" s="231"/>
+      <c r="F55" s="231"/>
+      <c r="G55" s="231"/>
+      <c r="H55" s="231"/>
+      <c r="I55" s="231"/>
+      <c r="J55" s="231"/>
     </row>
     <row r="56" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A56" s="234" t="s">
+      <c r="A56" s="231" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="234"/>
-      <c r="C56" s="234"/>
-      <c r="D56" s="234"/>
-      <c r="E56" s="234"/>
-      <c r="F56" s="234"/>
-      <c r="G56" s="234"/>
-      <c r="H56" s="234"/>
-      <c r="I56" s="234"/>
-      <c r="J56" s="234"/>
+      <c r="B56" s="231"/>
+      <c r="C56" s="231"/>
+      <c r="D56" s="231"/>
+      <c r="E56" s="231"/>
+      <c r="F56" s="231"/>
+      <c r="G56" s="231"/>
+      <c r="H56" s="231"/>
+      <c r="I56" s="231"/>
+      <c r="J56" s="231"/>
     </row>
     <row r="57" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A57" s="231" t="s">
+      <c r="A57" s="232" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="232"/>
-      <c r="C57" s="232"/>
-      <c r="D57" s="232"/>
-      <c r="E57" s="232"/>
-      <c r="F57" s="232"/>
-      <c r="G57" s="232"/>
-      <c r="H57" s="232"/>
-      <c r="I57" s="232"/>
-      <c r="J57" s="232"/>
+      <c r="B57" s="235"/>
+      <c r="C57" s="235"/>
+      <c r="D57" s="235"/>
+      <c r="E57" s="235"/>
+      <c r="F57" s="235"/>
+      <c r="G57" s="235"/>
+      <c r="H57" s="235"/>
+      <c r="I57" s="235"/>
+      <c r="J57" s="235"/>
     </row>
     <row r="58" spans="1:10" ht="18" customHeight="1">
-      <c r="A58" s="231" t="s">
+      <c r="A58" s="232" t="s">
         <v>219</v>
       </c>
-      <c r="B58" s="231"/>
-      <c r="C58" s="231"/>
-      <c r="D58" s="231"/>
-      <c r="E58" s="231"/>
-      <c r="F58" s="231"/>
-      <c r="G58" s="231"/>
-      <c r="H58" s="231"/>
-      <c r="I58" s="231"/>
-      <c r="J58" s="231"/>
+      <c r="B58" s="232"/>
+      <c r="C58" s="232"/>
+      <c r="D58" s="232"/>
+      <c r="E58" s="232"/>
+      <c r="F58" s="232"/>
+      <c r="G58" s="232"/>
+      <c r="H58" s="232"/>
+      <c r="I58" s="232"/>
+      <c r="J58" s="232"/>
     </row>
     <row r="59" spans="1:10" ht="18" customHeight="1">
-      <c r="A59" s="231" t="s">
+      <c r="A59" s="232" t="s">
         <v>221</v>
       </c>
-      <c r="B59" s="231"/>
-      <c r="C59" s="231"/>
-      <c r="D59" s="231"/>
-      <c r="E59" s="231"/>
-      <c r="F59" s="231"/>
-      <c r="G59" s="231"/>
-      <c r="H59" s="231"/>
-      <c r="I59" s="231"/>
-      <c r="J59" s="231"/>
+      <c r="B59" s="232"/>
+      <c r="C59" s="232"/>
+      <c r="D59" s="232"/>
+      <c r="E59" s="232"/>
+      <c r="F59" s="232"/>
+      <c r="G59" s="232"/>
+      <c r="H59" s="232"/>
+      <c r="I59" s="232"/>
+      <c r="J59" s="232"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="231" t="s">
+      <c r="A60" s="232" t="s">
         <v>213</v>
       </c>
-      <c r="B60" s="240"/>
-      <c r="C60" s="240"/>
-      <c r="D60" s="240"/>
-      <c r="E60" s="240"/>
-      <c r="F60" s="240"/>
-      <c r="G60" s="240"/>
-      <c r="H60" s="240"/>
-      <c r="I60" s="240"/>
-      <c r="J60" s="240"/>
+      <c r="B60" s="251"/>
+      <c r="C60" s="251"/>
+      <c r="D60" s="251"/>
+      <c r="E60" s="251"/>
+      <c r="F60" s="251"/>
+      <c r="G60" s="251"/>
+      <c r="H60" s="251"/>
+      <c r="I60" s="251"/>
+      <c r="J60" s="251"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="A50:J50"/>
     <mergeCell ref="A45:J45"/>
     <mergeCell ref="A60:J60"/>
@@ -10513,18 +10525,6 @@
     <mergeCell ref="A49:J49"/>
     <mergeCell ref="A53:J53"/>
     <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
@@ -10560,59 +10560,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="247"/>
-      <c r="J1" s="247"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="243"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="244"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="A2" s="216"/>
+      <c r="A2" s="209"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="219" t="s">
+      <c r="C2" s="212" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="222" t="s">
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="215" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="248" t="s">
+      <c r="J2" s="245" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A3" s="217"/>
+      <c r="A3" s="210"/>
       <c r="B3" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="228" t="s">
+      <c r="C3" s="221" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="229"/>
-      <c r="E3" s="251" t="s">
+      <c r="D3" s="222"/>
+      <c r="E3" s="248" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="252"/>
-      <c r="G3" s="222" t="s">
+      <c r="F3" s="249"/>
+      <c r="G3" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="248"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="249"/>
+      <c r="H3" s="245"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="246"/>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="218"/>
+      <c r="A4" s="211"/>
       <c r="B4" s="23"/>
       <c r="C4" s="5" t="s">
         <v>34</v>
@@ -10632,8 +10632,8 @@
       <c r="H4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="224"/>
-      <c r="J4" s="250"/>
+      <c r="I4" s="217"/>
+      <c r="J4" s="247"/>
     </row>
     <row r="5" spans="1:10" ht="13.15">
       <c r="A5" s="8" t="s">
@@ -11547,60 +11547,60 @@
       <c r="J39" s="13"/>
     </row>
     <row r="40" spans="1:10" ht="107.25" customHeight="1">
-      <c r="A40" s="233" t="s">
+      <c r="A40" s="237" t="s">
         <v>194</v>
       </c>
-      <c r="B40" s="242"/>
-      <c r="C40" s="242"/>
-      <c r="D40" s="242"/>
-      <c r="E40" s="242"/>
-      <c r="F40" s="242"/>
-      <c r="G40" s="242"/>
-      <c r="H40" s="242"/>
-      <c r="I40" s="242"/>
-      <c r="J40" s="242"/>
+      <c r="B40" s="250"/>
+      <c r="C40" s="250"/>
+      <c r="D40" s="250"/>
+      <c r="E40" s="250"/>
+      <c r="F40" s="250"/>
+      <c r="G40" s="250"/>
+      <c r="H40" s="250"/>
+      <c r="I40" s="250"/>
+      <c r="J40" s="250"/>
     </row>
     <row r="41" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A41" s="232" t="s">
+      <c r="A41" s="235" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="232"/>
-      <c r="C41" s="232"/>
-      <c r="D41" s="232"/>
-      <c r="E41" s="232"/>
-      <c r="F41" s="232"/>
-      <c r="G41" s="232"/>
-      <c r="H41" s="232"/>
-      <c r="I41" s="232"/>
-      <c r="J41" s="232"/>
+      <c r="B41" s="235"/>
+      <c r="C41" s="235"/>
+      <c r="D41" s="235"/>
+      <c r="E41" s="235"/>
+      <c r="F41" s="235"/>
+      <c r="G41" s="235"/>
+      <c r="H41" s="235"/>
+      <c r="I41" s="235"/>
+      <c r="J41" s="235"/>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A42" s="232" t="s">
+      <c r="A42" s="235" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="232"/>
-      <c r="C42" s="232"/>
-      <c r="D42" s="232"/>
-      <c r="E42" s="232"/>
-      <c r="F42" s="232"/>
-      <c r="G42" s="232"/>
-      <c r="H42" s="232"/>
-      <c r="I42" s="232"/>
-      <c r="J42" s="232"/>
+      <c r="B42" s="235"/>
+      <c r="C42" s="235"/>
+      <c r="D42" s="235"/>
+      <c r="E42" s="235"/>
+      <c r="F42" s="235"/>
+      <c r="G42" s="235"/>
+      <c r="H42" s="235"/>
+      <c r="I42" s="235"/>
+      <c r="J42" s="235"/>
     </row>
     <row r="43" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A43" s="232" t="s">
+      <c r="A43" s="235" t="s">
         <v>193</v>
       </c>
-      <c r="B43" s="232"/>
-      <c r="C43" s="232"/>
-      <c r="D43" s="232"/>
-      <c r="E43" s="232"/>
-      <c r="F43" s="232"/>
-      <c r="G43" s="232"/>
-      <c r="H43" s="232"/>
-      <c r="I43" s="232"/>
-      <c r="J43" s="232"/>
+      <c r="B43" s="235"/>
+      <c r="C43" s="235"/>
+      <c r="D43" s="235"/>
+      <c r="E43" s="235"/>
+      <c r="F43" s="235"/>
+      <c r="G43" s="235"/>
+      <c r="H43" s="235"/>
+      <c r="I43" s="235"/>
+      <c r="J43" s="235"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1">
       <c r="A44" s="15" t="s">
@@ -11617,160 +11617,147 @@
       <c r="J44" s="14"/>
     </row>
     <row r="45" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A45" s="234" t="s">
+      <c r="A45" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="234"/>
-      <c r="C45" s="234"/>
-      <c r="D45" s="234"/>
-      <c r="E45" s="234"/>
-      <c r="F45" s="234"/>
-      <c r="G45" s="234"/>
-      <c r="H45" s="234"/>
-      <c r="I45" s="234"/>
-      <c r="J45" s="234"/>
+      <c r="B45" s="231"/>
+      <c r="C45" s="231"/>
+      <c r="D45" s="231"/>
+      <c r="E45" s="231"/>
+      <c r="F45" s="231"/>
+      <c r="G45" s="231"/>
+      <c r="H45" s="231"/>
+      <c r="I45" s="231"/>
+      <c r="J45" s="231"/>
     </row>
     <row r="46" spans="1:10" ht="37.5" customHeight="1">
-      <c r="A46" s="234" t="s">
+      <c r="A46" s="231" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="234"/>
-      <c r="C46" s="234"/>
-      <c r="D46" s="234"/>
-      <c r="E46" s="234"/>
-      <c r="F46" s="234"/>
-      <c r="G46" s="234"/>
-      <c r="H46" s="234"/>
-      <c r="I46" s="234"/>
-      <c r="J46" s="234"/>
+      <c r="B46" s="231"/>
+      <c r="C46" s="231"/>
+      <c r="D46" s="231"/>
+      <c r="E46" s="231"/>
+      <c r="F46" s="231"/>
+      <c r="G46" s="231"/>
+      <c r="H46" s="231"/>
+      <c r="I46" s="231"/>
+      <c r="J46" s="231"/>
     </row>
     <row r="47" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A47" s="234" t="s">
+      <c r="A47" s="231" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="234"/>
-      <c r="C47" s="234"/>
-      <c r="D47" s="234"/>
-      <c r="E47" s="234"/>
-      <c r="F47" s="234"/>
-      <c r="G47" s="234"/>
-      <c r="H47" s="234"/>
-      <c r="I47" s="234"/>
-      <c r="J47" s="234"/>
+      <c r="B47" s="231"/>
+      <c r="C47" s="231"/>
+      <c r="D47" s="231"/>
+      <c r="E47" s="231"/>
+      <c r="F47" s="231"/>
+      <c r="G47" s="231"/>
+      <c r="H47" s="231"/>
+      <c r="I47" s="231"/>
+      <c r="J47" s="231"/>
     </row>
     <row r="48" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A48" s="232" t="s">
+      <c r="A48" s="235" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="232"/>
-      <c r="C48" s="232"/>
-      <c r="D48" s="232"/>
-      <c r="E48" s="232"/>
-      <c r="F48" s="232"/>
-      <c r="G48" s="232"/>
-      <c r="H48" s="232"/>
-      <c r="I48" s="232"/>
-      <c r="J48" s="232"/>
+      <c r="B48" s="235"/>
+      <c r="C48" s="235"/>
+      <c r="D48" s="235"/>
+      <c r="E48" s="235"/>
+      <c r="F48" s="235"/>
+      <c r="G48" s="235"/>
+      <c r="H48" s="235"/>
+      <c r="I48" s="235"/>
+      <c r="J48" s="235"/>
     </row>
     <row r="49" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A49" s="234" t="s">
+      <c r="A49" s="231" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="207"/>
-      <c r="C49" s="207"/>
-      <c r="D49" s="207"/>
-      <c r="E49" s="207"/>
-      <c r="F49" s="207"/>
-      <c r="G49" s="207"/>
-      <c r="H49" s="207"/>
-      <c r="I49" s="207"/>
-      <c r="J49" s="207"/>
+      <c r="B49" s="225"/>
+      <c r="C49" s="225"/>
+      <c r="D49" s="225"/>
+      <c r="E49" s="225"/>
+      <c r="F49" s="225"/>
+      <c r="G49" s="225"/>
+      <c r="H49" s="225"/>
+      <c r="I49" s="225"/>
+      <c r="J49" s="225"/>
     </row>
     <row r="50" spans="1:10" ht="77.25" customHeight="1">
-      <c r="A50" s="234" t="s">
+      <c r="A50" s="231" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="234"/>
-      <c r="C50" s="234"/>
-      <c r="D50" s="234"/>
-      <c r="E50" s="234"/>
-      <c r="F50" s="234"/>
-      <c r="G50" s="234"/>
-      <c r="H50" s="234"/>
-      <c r="I50" s="234"/>
-      <c r="J50" s="234"/>
+      <c r="B50" s="231"/>
+      <c r="C50" s="231"/>
+      <c r="D50" s="231"/>
+      <c r="E50" s="231"/>
+      <c r="F50" s="231"/>
+      <c r="G50" s="231"/>
+      <c r="H50" s="231"/>
+      <c r="I50" s="231"/>
+      <c r="J50" s="231"/>
     </row>
     <row r="51" spans="1:10" ht="63" customHeight="1">
-      <c r="A51" s="234" t="s">
+      <c r="A51" s="231" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="234"/>
-      <c r="C51" s="234"/>
-      <c r="D51" s="234"/>
-      <c r="E51" s="234"/>
-      <c r="F51" s="234"/>
-      <c r="G51" s="234"/>
-      <c r="H51" s="234"/>
-      <c r="I51" s="234"/>
-      <c r="J51" s="234"/>
+      <c r="B51" s="231"/>
+      <c r="C51" s="231"/>
+      <c r="D51" s="231"/>
+      <c r="E51" s="231"/>
+      <c r="F51" s="231"/>
+      <c r="G51" s="231"/>
+      <c r="H51" s="231"/>
+      <c r="I51" s="231"/>
+      <c r="J51" s="231"/>
     </row>
     <row r="52" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A52" s="234" t="s">
+      <c r="A52" s="231" t="s">
         <v>192</v>
       </c>
-      <c r="B52" s="234"/>
-      <c r="C52" s="234"/>
-      <c r="D52" s="234"/>
-      <c r="E52" s="234"/>
-      <c r="F52" s="234"/>
-      <c r="G52" s="234"/>
-      <c r="H52" s="234"/>
-      <c r="I52" s="234"/>
-      <c r="J52" s="234"/>
+      <c r="B52" s="231"/>
+      <c r="C52" s="231"/>
+      <c r="D52" s="231"/>
+      <c r="E52" s="231"/>
+      <c r="F52" s="231"/>
+      <c r="G52" s="231"/>
+      <c r="H52" s="231"/>
+      <c r="I52" s="231"/>
+      <c r="J52" s="231"/>
     </row>
     <row r="53" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A53" s="231" t="s">
+      <c r="A53" s="232" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="232"/>
-      <c r="C53" s="232"/>
-      <c r="D53" s="232"/>
-      <c r="E53" s="232"/>
-      <c r="F53" s="232"/>
-      <c r="G53" s="232"/>
-      <c r="H53" s="232"/>
-      <c r="I53" s="232"/>
-      <c r="J53" s="232"/>
+      <c r="B53" s="235"/>
+      <c r="C53" s="235"/>
+      <c r="D53" s="235"/>
+      <c r="E53" s="235"/>
+      <c r="F53" s="235"/>
+      <c r="G53" s="235"/>
+      <c r="H53" s="235"/>
+      <c r="I53" s="235"/>
+      <c r="J53" s="235"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="240" t="s">
+      <c r="A54" s="251" t="s">
         <v>191</v>
       </c>
-      <c r="B54" s="240"/>
-      <c r="C54" s="240"/>
-      <c r="D54" s="240"/>
-      <c r="E54" s="240"/>
-      <c r="F54" s="240"/>
-      <c r="G54" s="240"/>
-      <c r="H54" s="240"/>
-      <c r="I54" s="240"/>
-      <c r="J54" s="240"/>
+      <c r="B54" s="251"/>
+      <c r="C54" s="251"/>
+      <c r="D54" s="251"/>
+      <c r="E54" s="251"/>
+      <c r="F54" s="251"/>
+      <c r="G54" s="251"/>
+      <c r="H54" s="251"/>
+      <c r="I54" s="251"/>
+      <c r="J54" s="251"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A48:J48"/>
     <mergeCell ref="A46:J46"/>
     <mergeCell ref="A49:J49"/>
     <mergeCell ref="A45:J45"/>
@@ -11780,6 +11767,19 @@
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:H2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
@@ -11812,59 +11812,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="247"/>
-      <c r="J1" s="247"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="243"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="244"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="A2" s="216"/>
+      <c r="A2" s="209"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="219" t="s">
+      <c r="C2" s="212" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="222" t="s">
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="215" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="248" t="s">
+      <c r="J2" s="245" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A3" s="217"/>
+      <c r="A3" s="210"/>
       <c r="B3" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="228" t="s">
+      <c r="C3" s="221" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="229"/>
-      <c r="E3" s="251" t="s">
+      <c r="D3" s="222"/>
+      <c r="E3" s="248" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="252"/>
-      <c r="G3" s="222" t="s">
+      <c r="F3" s="249"/>
+      <c r="G3" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="248"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="249"/>
+      <c r="H3" s="245"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="246"/>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="218"/>
+      <c r="A4" s="211"/>
       <c r="B4" s="23"/>
       <c r="C4" s="5" t="s">
         <v>34</v>
@@ -11884,8 +11884,8 @@
       <c r="H4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="224"/>
-      <c r="J4" s="250"/>
+      <c r="I4" s="217"/>
+      <c r="J4" s="247"/>
     </row>
     <row r="5" spans="1:10" ht="13.15">
       <c r="A5" s="8" t="s">
@@ -12771,46 +12771,46 @@
       <c r="J38" s="13"/>
     </row>
     <row r="39" spans="1:10" ht="81" customHeight="1">
-      <c r="A39" s="242" t="s">
+      <c r="A39" s="250" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="242"/>
-      <c r="C39" s="242"/>
-      <c r="D39" s="242"/>
-      <c r="E39" s="242"/>
-      <c r="F39" s="242"/>
-      <c r="G39" s="242"/>
-      <c r="H39" s="242"/>
-      <c r="I39" s="242"/>
-      <c r="J39" s="242"/>
+      <c r="B39" s="250"/>
+      <c r="C39" s="250"/>
+      <c r="D39" s="250"/>
+      <c r="E39" s="250"/>
+      <c r="F39" s="250"/>
+      <c r="G39" s="250"/>
+      <c r="H39" s="250"/>
+      <c r="I39" s="250"/>
+      <c r="J39" s="250"/>
     </row>
     <row r="40" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A40" s="232" t="s">
+      <c r="A40" s="235" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="232"/>
-      <c r="C40" s="232"/>
-      <c r="D40" s="232"/>
-      <c r="E40" s="232"/>
-      <c r="F40" s="232"/>
-      <c r="G40" s="232"/>
-      <c r="H40" s="232"/>
-      <c r="I40" s="232"/>
-      <c r="J40" s="232"/>
+      <c r="B40" s="235"/>
+      <c r="C40" s="235"/>
+      <c r="D40" s="235"/>
+      <c r="E40" s="235"/>
+      <c r="F40" s="235"/>
+      <c r="G40" s="235"/>
+      <c r="H40" s="235"/>
+      <c r="I40" s="235"/>
+      <c r="J40" s="235"/>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A41" s="232" t="s">
+      <c r="A41" s="235" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="232"/>
-      <c r="C41" s="232"/>
-      <c r="D41" s="232"/>
-      <c r="E41" s="232"/>
-      <c r="F41" s="232"/>
-      <c r="G41" s="232"/>
-      <c r="H41" s="232"/>
-      <c r="I41" s="232"/>
-      <c r="J41" s="232"/>
+      <c r="B41" s="235"/>
+      <c r="C41" s="235"/>
+      <c r="D41" s="235"/>
+      <c r="E41" s="235"/>
+      <c r="F41" s="235"/>
+      <c r="G41" s="235"/>
+      <c r="H41" s="235"/>
+      <c r="I41" s="235"/>
+      <c r="J41" s="235"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1">
       <c r="A42" s="15" t="s">
@@ -12827,116 +12827,116 @@
       <c r="J42" s="14"/>
     </row>
     <row r="43" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A43" s="234" t="s">
+      <c r="A43" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="234"/>
-      <c r="C43" s="234"/>
-      <c r="D43" s="234"/>
-      <c r="E43" s="234"/>
-      <c r="F43" s="234"/>
-      <c r="G43" s="234"/>
-      <c r="H43" s="234"/>
-      <c r="I43" s="234"/>
-      <c r="J43" s="234"/>
+      <c r="B43" s="231"/>
+      <c r="C43" s="231"/>
+      <c r="D43" s="231"/>
+      <c r="E43" s="231"/>
+      <c r="F43" s="231"/>
+      <c r="G43" s="231"/>
+      <c r="H43" s="231"/>
+      <c r="I43" s="231"/>
+      <c r="J43" s="231"/>
     </row>
     <row r="44" spans="1:10" ht="37.5" customHeight="1">
-      <c r="A44" s="234" t="s">
+      <c r="A44" s="231" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="234"/>
-      <c r="C44" s="234"/>
-      <c r="D44" s="234"/>
-      <c r="E44" s="234"/>
-      <c r="F44" s="234"/>
-      <c r="G44" s="234"/>
-      <c r="H44" s="234"/>
-      <c r="I44" s="234"/>
-      <c r="J44" s="234"/>
+      <c r="B44" s="231"/>
+      <c r="C44" s="231"/>
+      <c r="D44" s="231"/>
+      <c r="E44" s="231"/>
+      <c r="F44" s="231"/>
+      <c r="G44" s="231"/>
+      <c r="H44" s="231"/>
+      <c r="I44" s="231"/>
+      <c r="J44" s="231"/>
     </row>
     <row r="45" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A45" s="234" t="s">
+      <c r="A45" s="231" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="234"/>
-      <c r="C45" s="234"/>
-      <c r="D45" s="234"/>
-      <c r="E45" s="234"/>
-      <c r="F45" s="234"/>
-      <c r="G45" s="234"/>
-      <c r="H45" s="234"/>
-      <c r="I45" s="234"/>
-      <c r="J45" s="234"/>
+      <c r="B45" s="231"/>
+      <c r="C45" s="231"/>
+      <c r="D45" s="231"/>
+      <c r="E45" s="231"/>
+      <c r="F45" s="231"/>
+      <c r="G45" s="231"/>
+      <c r="H45" s="231"/>
+      <c r="I45" s="231"/>
+      <c r="J45" s="231"/>
     </row>
     <row r="46" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A46" s="232" t="s">
+      <c r="A46" s="235" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="232"/>
-      <c r="C46" s="232"/>
-      <c r="D46" s="232"/>
-      <c r="E46" s="232"/>
-      <c r="F46" s="232"/>
-      <c r="G46" s="232"/>
-      <c r="H46" s="232"/>
-      <c r="I46" s="232"/>
-      <c r="J46" s="232"/>
+      <c r="B46" s="235"/>
+      <c r="C46" s="235"/>
+      <c r="D46" s="235"/>
+      <c r="E46" s="235"/>
+      <c r="F46" s="235"/>
+      <c r="G46" s="235"/>
+      <c r="H46" s="235"/>
+      <c r="I46" s="235"/>
+      <c r="J46" s="235"/>
     </row>
     <row r="47" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A47" s="234" t="s">
+      <c r="A47" s="231" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="207"/>
-      <c r="C47" s="207"/>
-      <c r="D47" s="207"/>
-      <c r="E47" s="207"/>
-      <c r="F47" s="207"/>
-      <c r="G47" s="207"/>
-      <c r="H47" s="207"/>
-      <c r="I47" s="207"/>
-      <c r="J47" s="207"/>
+      <c r="B47" s="225"/>
+      <c r="C47" s="225"/>
+      <c r="D47" s="225"/>
+      <c r="E47" s="225"/>
+      <c r="F47" s="225"/>
+      <c r="G47" s="225"/>
+      <c r="H47" s="225"/>
+      <c r="I47" s="225"/>
+      <c r="J47" s="225"/>
     </row>
     <row r="48" spans="1:10" ht="77.25" customHeight="1">
-      <c r="A48" s="234" t="s">
+      <c r="A48" s="231" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="234"/>
-      <c r="C48" s="234"/>
-      <c r="D48" s="234"/>
-      <c r="E48" s="234"/>
-      <c r="F48" s="234"/>
-      <c r="G48" s="234"/>
-      <c r="H48" s="234"/>
-      <c r="I48" s="234"/>
-      <c r="J48" s="234"/>
+      <c r="B48" s="231"/>
+      <c r="C48" s="231"/>
+      <c r="D48" s="231"/>
+      <c r="E48" s="231"/>
+      <c r="F48" s="231"/>
+      <c r="G48" s="231"/>
+      <c r="H48" s="231"/>
+      <c r="I48" s="231"/>
+      <c r="J48" s="231"/>
     </row>
     <row r="49" spans="1:10" ht="63" customHeight="1">
-      <c r="A49" s="234" t="s">
+      <c r="A49" s="231" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="234"/>
-      <c r="C49" s="234"/>
-      <c r="D49" s="234"/>
-      <c r="E49" s="234"/>
-      <c r="F49" s="234"/>
-      <c r="G49" s="234"/>
-      <c r="H49" s="234"/>
-      <c r="I49" s="234"/>
-      <c r="J49" s="234"/>
+      <c r="B49" s="231"/>
+      <c r="C49" s="231"/>
+      <c r="D49" s="231"/>
+      <c r="E49" s="231"/>
+      <c r="F49" s="231"/>
+      <c r="G49" s="231"/>
+      <c r="H49" s="231"/>
+      <c r="I49" s="231"/>
+      <c r="J49" s="231"/>
     </row>
     <row r="50" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A50" s="231" t="s">
+      <c r="A50" s="232" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="232"/>
-      <c r="C50" s="232"/>
-      <c r="D50" s="232"/>
-      <c r="E50" s="232"/>
-      <c r="F50" s="232"/>
-      <c r="G50" s="232"/>
-      <c r="H50" s="232"/>
-      <c r="I50" s="232"/>
-      <c r="J50" s="232"/>
+      <c r="B50" s="235"/>
+      <c r="C50" s="235"/>
+      <c r="D50" s="235"/>
+      <c r="E50" s="235"/>
+      <c r="F50" s="235"/>
+      <c r="G50" s="235"/>
+      <c r="H50" s="235"/>
+      <c r="I50" s="235"/>
+      <c r="J50" s="235"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="60"/>
@@ -12952,6 +12952,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A50:J50"/>
     <mergeCell ref="A45:J45"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A4"/>
@@ -12966,11 +12971,6 @@
     <mergeCell ref="A41:J41"/>
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A50:J50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -14102,49 +14102,49 @@
       <c r="K44" s="271"/>
     </row>
     <row r="45" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A45" s="236" t="s">
+      <c r="A45" s="233" t="s">
         <v>210</v>
       </c>
-      <c r="B45" s="236"/>
-      <c r="C45" s="236"/>
-      <c r="D45" s="236"/>
-      <c r="E45" s="236"/>
-      <c r="F45" s="236"/>
-      <c r="G45" s="236"/>
-      <c r="H45" s="236"/>
-      <c r="I45" s="236"/>
-      <c r="J45" s="236"/>
-      <c r="K45" s="236"/>
+      <c r="B45" s="233"/>
+      <c r="C45" s="233"/>
+      <c r="D45" s="233"/>
+      <c r="E45" s="233"/>
+      <c r="F45" s="233"/>
+      <c r="G45" s="233"/>
+      <c r="H45" s="233"/>
+      <c r="I45" s="233"/>
+      <c r="J45" s="233"/>
+      <c r="K45" s="233"/>
     </row>
     <row r="46" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A46" s="236" t="s">
+      <c r="A46" s="233" t="s">
         <v>211</v>
       </c>
-      <c r="B46" s="236"/>
-      <c r="C46" s="236"/>
-      <c r="D46" s="236"/>
-      <c r="E46" s="236"/>
-      <c r="F46" s="236"/>
-      <c r="G46" s="236"/>
-      <c r="H46" s="236"/>
-      <c r="I46" s="236"/>
-      <c r="J46" s="236"/>
-      <c r="K46" s="236"/>
+      <c r="B46" s="233"/>
+      <c r="C46" s="233"/>
+      <c r="D46" s="233"/>
+      <c r="E46" s="233"/>
+      <c r="F46" s="233"/>
+      <c r="G46" s="233"/>
+      <c r="H46" s="233"/>
+      <c r="I46" s="233"/>
+      <c r="J46" s="233"/>
+      <c r="K46" s="233"/>
     </row>
     <row r="47" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A47" s="236" t="s">
+      <c r="A47" s="233" t="s">
         <v>212</v>
       </c>
-      <c r="B47" s="236"/>
-      <c r="C47" s="236"/>
-      <c r="D47" s="236"/>
-      <c r="E47" s="236"/>
-      <c r="F47" s="236"/>
-      <c r="G47" s="236"/>
-      <c r="H47" s="236"/>
-      <c r="I47" s="236"/>
-      <c r="J47" s="236"/>
-      <c r="K47" s="236"/>
+      <c r="B47" s="233"/>
+      <c r="C47" s="233"/>
+      <c r="D47" s="233"/>
+      <c r="E47" s="233"/>
+      <c r="F47" s="233"/>
+      <c r="G47" s="233"/>
+      <c r="H47" s="233"/>
+      <c r="I47" s="233"/>
+      <c r="J47" s="233"/>
+      <c r="K47" s="233"/>
     </row>
     <row r="48" spans="1:11" ht="13.5" customHeight="1"/>
     <row r="49" ht="13.5" customHeight="1"/>
@@ -14190,15 +14190,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="240" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="246"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="243"/>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1">
       <c r="A2" s="64"/>
@@ -14847,15 +14847,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="240" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="246"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="243"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="64"/>
@@ -14870,18 +14870,18 @@
       <c r="F2" s="279" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="287" t="s">
+      <c r="G2" s="286" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="283"/>
+      <c r="B3" s="282"/>
       <c r="C3" s="254"/>
-      <c r="D3" s="284"/>
-      <c r="E3" s="285"/>
-      <c r="F3" s="285"/>
-      <c r="G3" s="288"/>
+      <c r="D3" s="283"/>
+      <c r="E3" s="284"/>
+      <c r="F3" s="284"/>
+      <c r="G3" s="287"/>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1">
       <c r="A4" s="65"/>
@@ -14894,9 +14894,9 @@
       <c r="D4" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="285"/>
-      <c r="F4" s="285"/>
-      <c r="G4" s="288"/>
+      <c r="E4" s="284"/>
+      <c r="F4" s="284"/>
+      <c r="G4" s="287"/>
     </row>
     <row r="5" spans="1:7" ht="12" customHeight="1">
       <c r="A5" s="66" t="s">
@@ -14911,9 +14911,9 @@
       <c r="D5" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="285"/>
-      <c r="F5" s="285"/>
-      <c r="G5" s="288"/>
+      <c r="E5" s="284"/>
+      <c r="F5" s="284"/>
+      <c r="G5" s="287"/>
     </row>
     <row r="6" spans="1:7" ht="12" customHeight="1">
       <c r="A6" s="69"/>
@@ -14924,9 +14924,9 @@
       <c r="D6" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="289"/>
+      <c r="E6" s="285"/>
+      <c r="F6" s="285"/>
+      <c r="G6" s="288"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="71" t="s">
@@ -15576,13 +15576,13 @@
       <c r="G49" s="271"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A50" s="282"/>
-      <c r="B50" s="282"/>
-      <c r="C50" s="282"/>
-      <c r="D50" s="282"/>
-      <c r="E50" s="282"/>
-      <c r="F50" s="282"/>
-      <c r="G50" s="282"/>
+      <c r="A50" s="289"/>
+      <c r="B50" s="289"/>
+      <c r="C50" s="289"/>
+      <c r="D50" s="289"/>
+      <c r="E50" s="289"/>
+      <c r="F50" s="289"/>
+      <c r="G50" s="289"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" customHeight="1">
       <c r="A53" s="78"/>
@@ -15597,12 +15597,6 @@
     <row r="55" spans="1:7" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="G2:G6"/>
     <mergeCell ref="A50:G50"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A41:G44"/>
@@ -15610,6 +15604,12 @@
     <mergeCell ref="A47:G47"/>
     <mergeCell ref="A48:G48"/>
     <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="G2:G6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="71" orientation="landscape" r:id="rId1"/>
@@ -15641,15 +15641,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="240" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="246"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="243"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="64"/>
@@ -15664,18 +15664,18 @@
       <c r="F2" s="279" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="287" t="s">
+      <c r="G2" s="286" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="283"/>
+      <c r="B3" s="282"/>
       <c r="C3" s="254"/>
-      <c r="D3" s="284"/>
-      <c r="E3" s="285"/>
-      <c r="F3" s="285"/>
-      <c r="G3" s="288"/>
+      <c r="D3" s="283"/>
+      <c r="E3" s="284"/>
+      <c r="F3" s="284"/>
+      <c r="G3" s="287"/>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1">
       <c r="A4" s="65"/>
@@ -15688,9 +15688,9 @@
       <c r="D4" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="285"/>
-      <c r="F4" s="285"/>
-      <c r="G4" s="288"/>
+      <c r="E4" s="284"/>
+      <c r="F4" s="284"/>
+      <c r="G4" s="287"/>
     </row>
     <row r="5" spans="1:7" ht="12" customHeight="1">
       <c r="A5" s="66" t="s">
@@ -15705,9 +15705,9 @@
       <c r="D5" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="285"/>
-      <c r="F5" s="285"/>
-      <c r="G5" s="288"/>
+      <c r="E5" s="284"/>
+      <c r="F5" s="284"/>
+      <c r="G5" s="287"/>
     </row>
     <row r="6" spans="1:7" ht="12" customHeight="1">
       <c r="A6" s="69"/>
@@ -15718,9 +15718,9 @@
       <c r="D6" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="289"/>
+      <c r="E6" s="285"/>
+      <c r="F6" s="285"/>
+      <c r="G6" s="288"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="71" t="s">
@@ -16404,74 +16404,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BD3628-6A0A-4B63-A07B-C437B8CF11CE}">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:12" ht="14.25">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="177" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="189"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="179"/>
       <c r="K1" s="147"/>
       <c r="L1" s="147"/>
     </row>
     <row r="2" spans="1:12" ht="13.15">
-      <c r="A2" s="190"/>
+      <c r="A2" s="180"/>
       <c r="B2" s="148"/>
-      <c r="C2" s="193" t="s">
+      <c r="C2" s="183" t="s">
         <v>327</v>
       </c>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="196" t="s">
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="186" t="s">
         <v>328</v>
       </c>
-      <c r="I2" s="196" t="s">
+      <c r="I2" s="186" t="s">
         <v>329</v>
       </c>
-      <c r="J2" s="199" t="s">
+      <c r="J2" s="189" t="s">
         <v>335</v>
       </c>
       <c r="K2" s="147"/>
       <c r="L2" s="147"/>
     </row>
     <row r="3" spans="1:12" ht="34.9">
-      <c r="A3" s="191"/>
+      <c r="A3" s="181"/>
       <c r="B3" s="149" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="150" t="s">
         <v>359</v>
       </c>
-      <c r="D3" s="202" t="s">
+      <c r="D3" s="192" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="203"/>
-      <c r="F3" s="196" t="s">
+      <c r="E3" s="193"/>
+      <c r="F3" s="186" t="s">
         <v>291</v>
       </c>
-      <c r="G3" s="204"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="200"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="190"/>
       <c r="K3" s="147"/>
       <c r="L3" s="147"/>
     </row>
     <row r="4" spans="1:12" ht="51.4">
-      <c r="A4" s="192"/>
+      <c r="A4" s="182"/>
       <c r="B4" s="152"/>
       <c r="C4" s="153"/>
       <c r="D4" s="151" t="s">
@@ -16486,9 +16486,9 @@
       <c r="G4" s="151" t="s">
         <v>333</v>
       </c>
-      <c r="H4" s="198"/>
-      <c r="I4" s="198"/>
-      <c r="J4" s="201"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="191"/>
       <c r="K4" s="147"/>
       <c r="L4" s="154" t="s">
         <v>440</v>
@@ -17771,530 +17771,530 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="13.15">
-      <c r="A45" s="183" t="s">
+      <c r="A45" s="196" t="s">
         <v>408</v>
       </c>
-      <c r="B45" s="183"/>
-      <c r="C45" s="183"/>
-      <c r="D45" s="183"/>
-      <c r="E45" s="183"/>
-      <c r="F45" s="183"/>
-      <c r="G45" s="183"/>
-      <c r="H45" s="183"/>
-      <c r="I45" s="183"/>
-      <c r="J45" s="183"/>
-      <c r="K45" s="183"/>
+      <c r="B45" s="196"/>
+      <c r="C45" s="196"/>
+      <c r="D45" s="196"/>
+      <c r="E45" s="196"/>
+      <c r="F45" s="196"/>
+      <c r="G45" s="196"/>
+      <c r="H45" s="196"/>
+      <c r="I45" s="196"/>
+      <c r="J45" s="196"/>
+      <c r="K45" s="196"/>
       <c r="L45" s="205"/>
     </row>
     <row r="46" spans="1:12" ht="13.15">
-      <c r="A46" s="184" t="s">
+      <c r="A46" s="197" t="s">
         <v>366</v>
       </c>
-      <c r="B46" s="183"/>
-      <c r="C46" s="183"/>
-      <c r="D46" s="183"/>
-      <c r="E46" s="183"/>
-      <c r="F46" s="183"/>
-      <c r="G46" s="183"/>
-      <c r="H46" s="183"/>
-      <c r="I46" s="183"/>
-      <c r="J46" s="183"/>
-      <c r="K46" s="183"/>
+      <c r="B46" s="196"/>
+      <c r="C46" s="196"/>
+      <c r="D46" s="196"/>
+      <c r="E46" s="196"/>
+      <c r="F46" s="196"/>
+      <c r="G46" s="196"/>
+      <c r="H46" s="196"/>
+      <c r="I46" s="196"/>
+      <c r="J46" s="196"/>
+      <c r="K46" s="196"/>
       <c r="L46" s="205"/>
     </row>
     <row r="47" spans="1:12" ht="13.15">
-      <c r="A47" s="185" t="s">
+      <c r="A47" s="198" t="s">
         <v>409</v>
       </c>
-      <c r="B47" s="186"/>
-      <c r="C47" s="186"/>
-      <c r="D47" s="186"/>
-      <c r="E47" s="186"/>
-      <c r="F47" s="186"/>
-      <c r="G47" s="186"/>
-      <c r="H47" s="186"/>
-      <c r="I47" s="186"/>
-      <c r="J47" s="186"/>
+      <c r="B47" s="199"/>
+      <c r="C47" s="199"/>
+      <c r="D47" s="199"/>
+      <c r="E47" s="199"/>
+      <c r="F47" s="199"/>
+      <c r="G47" s="199"/>
+      <c r="H47" s="199"/>
+      <c r="I47" s="199"/>
+      <c r="J47" s="199"/>
       <c r="K47" s="147"/>
       <c r="L47" s="174"/>
     </row>
     <row r="48" spans="1:12" ht="13.15">
-      <c r="A48" s="180" t="s">
+      <c r="A48" s="200" t="s">
         <v>410</v>
       </c>
-      <c r="B48" s="180"/>
-      <c r="C48" s="180"/>
-      <c r="D48" s="180"/>
-      <c r="E48" s="180"/>
-      <c r="F48" s="180"/>
-      <c r="G48" s="180"/>
-      <c r="H48" s="180"/>
-      <c r="I48" s="180"/>
-      <c r="J48" s="180"/>
+      <c r="B48" s="200"/>
+      <c r="C48" s="200"/>
+      <c r="D48" s="200"/>
+      <c r="E48" s="200"/>
+      <c r="F48" s="200"/>
+      <c r="G48" s="200"/>
+      <c r="H48" s="200"/>
+      <c r="I48" s="200"/>
+      <c r="J48" s="200"/>
       <c r="K48" s="147"/>
       <c r="L48" s="175"/>
     </row>
     <row r="49" spans="1:12" ht="13.15">
-      <c r="A49" s="180" t="s">
+      <c r="A49" s="200" t="s">
         <v>411</v>
       </c>
-      <c r="B49" s="180"/>
-      <c r="C49" s="180"/>
-      <c r="D49" s="180"/>
-      <c r="E49" s="180"/>
-      <c r="F49" s="180"/>
-      <c r="G49" s="180"/>
-      <c r="H49" s="180"/>
-      <c r="I49" s="180"/>
-      <c r="J49" s="180"/>
+      <c r="B49" s="200"/>
+      <c r="C49" s="200"/>
+      <c r="D49" s="200"/>
+      <c r="E49" s="200"/>
+      <c r="F49" s="200"/>
+      <c r="G49" s="200"/>
+      <c r="H49" s="200"/>
+      <c r="I49" s="200"/>
+      <c r="J49" s="200"/>
       <c r="K49" s="147"/>
       <c r="L49" s="175"/>
     </row>
     <row r="50" spans="1:12" ht="13.15">
-      <c r="A50" s="180" t="s">
+      <c r="A50" s="200" t="s">
         <v>412</v>
       </c>
-      <c r="B50" s="180"/>
-      <c r="C50" s="180"/>
-      <c r="D50" s="180"/>
-      <c r="E50" s="180"/>
-      <c r="F50" s="180"/>
-      <c r="G50" s="180"/>
-      <c r="H50" s="180"/>
-      <c r="I50" s="180"/>
-      <c r="J50" s="180"/>
+      <c r="B50" s="200"/>
+      <c r="C50" s="200"/>
+      <c r="D50" s="200"/>
+      <c r="E50" s="200"/>
+      <c r="F50" s="200"/>
+      <c r="G50" s="200"/>
+      <c r="H50" s="200"/>
+      <c r="I50" s="200"/>
+      <c r="J50" s="200"/>
       <c r="K50" s="147"/>
       <c r="L50" s="175"/>
     </row>
     <row r="51" spans="1:12" ht="13.15">
-      <c r="A51" s="180" t="s">
+      <c r="A51" s="200" t="s">
         <v>336</v>
       </c>
-      <c r="B51" s="180"/>
-      <c r="C51" s="180"/>
-      <c r="D51" s="180"/>
-      <c r="E51" s="180"/>
-      <c r="F51" s="180"/>
-      <c r="G51" s="180"/>
-      <c r="H51" s="180"/>
-      <c r="I51" s="180"/>
-      <c r="J51" s="180"/>
+      <c r="B51" s="200"/>
+      <c r="C51" s="200"/>
+      <c r="D51" s="200"/>
+      <c r="E51" s="200"/>
+      <c r="F51" s="200"/>
+      <c r="G51" s="200"/>
+      <c r="H51" s="200"/>
+      <c r="I51" s="200"/>
+      <c r="J51" s="200"/>
       <c r="K51" s="147"/>
       <c r="L51" s="175"/>
     </row>
     <row r="52" spans="1:12" ht="13.15">
-      <c r="A52" s="180" t="s">
+      <c r="A52" s="200" t="s">
         <v>413</v>
       </c>
-      <c r="B52" s="180"/>
-      <c r="C52" s="180"/>
-      <c r="D52" s="180"/>
-      <c r="E52" s="180"/>
-      <c r="F52" s="180"/>
-      <c r="G52" s="180"/>
-      <c r="H52" s="180"/>
-      <c r="I52" s="180"/>
-      <c r="J52" s="180"/>
+      <c r="B52" s="200"/>
+      <c r="C52" s="200"/>
+      <c r="D52" s="200"/>
+      <c r="E52" s="200"/>
+      <c r="F52" s="200"/>
+      <c r="G52" s="200"/>
+      <c r="H52" s="200"/>
+      <c r="I52" s="200"/>
+      <c r="J52" s="200"/>
       <c r="K52" s="147"/>
       <c r="L52" s="175"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="181" t="s">
+      <c r="A53" s="201" t="s">
         <v>383</v>
       </c>
-      <c r="B53" s="182"/>
-      <c r="C53" s="182"/>
-      <c r="D53" s="182"/>
-      <c r="E53" s="182"/>
-      <c r="F53" s="182"/>
-      <c r="G53" s="182"/>
-      <c r="H53" s="182"/>
-      <c r="I53" s="182"/>
-      <c r="J53" s="182"/>
+      <c r="B53" s="202"/>
+      <c r="C53" s="202"/>
+      <c r="D53" s="202"/>
+      <c r="E53" s="202"/>
+      <c r="F53" s="202"/>
+      <c r="G53" s="202"/>
+      <c r="H53" s="202"/>
+      <c r="I53" s="202"/>
+      <c r="J53" s="202"/>
       <c r="K53" s="147"/>
       <c r="L53" s="147"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="178" t="s">
+      <c r="A54" s="195" t="s">
         <v>414</v>
       </c>
-      <c r="B54" s="178"/>
-      <c r="C54" s="178"/>
-      <c r="D54" s="178"/>
-      <c r="E54" s="178"/>
-      <c r="F54" s="178"/>
-      <c r="G54" s="178"/>
-      <c r="H54" s="178"/>
-      <c r="I54" s="178"/>
-      <c r="J54" s="178"/>
+      <c r="B54" s="195"/>
+      <c r="C54" s="195"/>
+      <c r="D54" s="195"/>
+      <c r="E54" s="195"/>
+      <c r="F54" s="195"/>
+      <c r="G54" s="195"/>
+      <c r="H54" s="195"/>
+      <c r="I54" s="195"/>
+      <c r="J54" s="195"/>
       <c r="K54" s="147"/>
       <c r="L54" s="147"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="178" t="s">
+      <c r="A55" s="195" t="s">
         <v>415</v>
       </c>
-      <c r="B55" s="178"/>
-      <c r="C55" s="178"/>
-      <c r="D55" s="178"/>
-      <c r="E55" s="178"/>
-      <c r="F55" s="178"/>
-      <c r="G55" s="178"/>
-      <c r="H55" s="178"/>
-      <c r="I55" s="178"/>
-      <c r="J55" s="178"/>
+      <c r="B55" s="195"/>
+      <c r="C55" s="195"/>
+      <c r="D55" s="195"/>
+      <c r="E55" s="195"/>
+      <c r="F55" s="195"/>
+      <c r="G55" s="195"/>
+      <c r="H55" s="195"/>
+      <c r="I55" s="195"/>
+      <c r="J55" s="195"/>
       <c r="K55" s="147"/>
       <c r="L55" s="147"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="178" t="s">
+      <c r="A56" s="195" t="s">
         <v>416</v>
       </c>
-      <c r="B56" s="178"/>
-      <c r="C56" s="178"/>
-      <c r="D56" s="178"/>
-      <c r="E56" s="178"/>
-      <c r="F56" s="178"/>
-      <c r="G56" s="178"/>
-      <c r="H56" s="178"/>
-      <c r="I56" s="178"/>
-      <c r="J56" s="178"/>
+      <c r="B56" s="195"/>
+      <c r="C56" s="195"/>
+      <c r="D56" s="195"/>
+      <c r="E56" s="195"/>
+      <c r="F56" s="195"/>
+      <c r="G56" s="195"/>
+      <c r="H56" s="195"/>
+      <c r="I56" s="195"/>
+      <c r="J56" s="195"/>
       <c r="K56" s="147"/>
       <c r="L56" s="147"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="177" t="s">
+      <c r="A57" s="203" t="s">
         <v>417</v>
       </c>
-      <c r="B57" s="178"/>
-      <c r="C57" s="178"/>
-      <c r="D57" s="178"/>
-      <c r="E57" s="178"/>
-      <c r="F57" s="178"/>
-      <c r="G57" s="178"/>
-      <c r="H57" s="178"/>
-      <c r="I57" s="178"/>
-      <c r="J57" s="178"/>
+      <c r="B57" s="195"/>
+      <c r="C57" s="195"/>
+      <c r="D57" s="195"/>
+      <c r="E57" s="195"/>
+      <c r="F57" s="195"/>
+      <c r="G57" s="195"/>
+      <c r="H57" s="195"/>
+      <c r="I57" s="195"/>
+      <c r="J57" s="195"/>
       <c r="K57" s="147"/>
       <c r="L57" s="147"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="177" t="s">
+      <c r="A58" s="203" t="s">
         <v>418</v>
       </c>
-      <c r="B58" s="178"/>
-      <c r="C58" s="178"/>
-      <c r="D58" s="178"/>
-      <c r="E58" s="178"/>
-      <c r="F58" s="178"/>
-      <c r="G58" s="178"/>
-      <c r="H58" s="178"/>
-      <c r="I58" s="178"/>
-      <c r="J58" s="178"/>
+      <c r="B58" s="195"/>
+      <c r="C58" s="195"/>
+      <c r="D58" s="195"/>
+      <c r="E58" s="195"/>
+      <c r="F58" s="195"/>
+      <c r="G58" s="195"/>
+      <c r="H58" s="195"/>
+      <c r="I58" s="195"/>
+      <c r="J58" s="195"/>
       <c r="K58" s="147"/>
       <c r="L58" s="147"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="177" t="s">
+      <c r="A59" s="203" t="s">
         <v>419</v>
       </c>
-      <c r="B59" s="178"/>
-      <c r="C59" s="178"/>
-      <c r="D59" s="178"/>
-      <c r="E59" s="178"/>
-      <c r="F59" s="178"/>
-      <c r="G59" s="178"/>
-      <c r="H59" s="178"/>
-      <c r="I59" s="178"/>
-      <c r="J59" s="178"/>
+      <c r="B59" s="195"/>
+      <c r="C59" s="195"/>
+      <c r="D59" s="195"/>
+      <c r="E59" s="195"/>
+      <c r="F59" s="195"/>
+      <c r="G59" s="195"/>
+      <c r="H59" s="195"/>
+      <c r="I59" s="195"/>
+      <c r="J59" s="195"/>
       <c r="K59" s="147"/>
       <c r="L59" s="147"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="177" t="s">
+      <c r="A60" s="203" t="s">
         <v>420</v>
       </c>
-      <c r="B60" s="178"/>
-      <c r="C60" s="178"/>
-      <c r="D60" s="178"/>
-      <c r="E60" s="178"/>
-      <c r="F60" s="178"/>
-      <c r="G60" s="178"/>
-      <c r="H60" s="178"/>
-      <c r="I60" s="178"/>
-      <c r="J60" s="178"/>
+      <c r="B60" s="195"/>
+      <c r="C60" s="195"/>
+      <c r="D60" s="195"/>
+      <c r="E60" s="195"/>
+      <c r="F60" s="195"/>
+      <c r="G60" s="195"/>
+      <c r="H60" s="195"/>
+      <c r="I60" s="195"/>
+      <c r="J60" s="195"/>
       <c r="K60" s="147"/>
       <c r="L60" s="147"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="177" t="s">
+      <c r="A61" s="203" t="s">
         <v>421</v>
       </c>
-      <c r="B61" s="178"/>
-      <c r="C61" s="178"/>
-      <c r="D61" s="178"/>
-      <c r="E61" s="178"/>
-      <c r="F61" s="178"/>
-      <c r="G61" s="178"/>
-      <c r="H61" s="178"/>
-      <c r="I61" s="178"/>
-      <c r="J61" s="178"/>
+      <c r="B61" s="195"/>
+      <c r="C61" s="195"/>
+      <c r="D61" s="195"/>
+      <c r="E61" s="195"/>
+      <c r="F61" s="195"/>
+      <c r="G61" s="195"/>
+      <c r="H61" s="195"/>
+      <c r="I61" s="195"/>
+      <c r="J61" s="195"/>
       <c r="K61" s="147"/>
       <c r="L61" s="147"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="177" t="s">
+      <c r="A62" s="203" t="s">
         <v>422</v>
       </c>
-      <c r="B62" s="178"/>
-      <c r="C62" s="178"/>
-      <c r="D62" s="178"/>
-      <c r="E62" s="178"/>
-      <c r="F62" s="178"/>
-      <c r="G62" s="178"/>
-      <c r="H62" s="178"/>
-      <c r="I62" s="178"/>
-      <c r="J62" s="178"/>
+      <c r="B62" s="195"/>
+      <c r="C62" s="195"/>
+      <c r="D62" s="195"/>
+      <c r="E62" s="195"/>
+      <c r="F62" s="195"/>
+      <c r="G62" s="195"/>
+      <c r="H62" s="195"/>
+      <c r="I62" s="195"/>
+      <c r="J62" s="195"/>
       <c r="K62" s="147"/>
       <c r="L62" s="147"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="177" t="s">
+      <c r="A63" s="203" t="s">
         <v>423</v>
       </c>
-      <c r="B63" s="178"/>
-      <c r="C63" s="178"/>
-      <c r="D63" s="178"/>
-      <c r="E63" s="178"/>
-      <c r="F63" s="178"/>
-      <c r="G63" s="178"/>
-      <c r="H63" s="178"/>
-      <c r="I63" s="178"/>
-      <c r="J63" s="178"/>
+      <c r="B63" s="195"/>
+      <c r="C63" s="195"/>
+      <c r="D63" s="195"/>
+      <c r="E63" s="195"/>
+      <c r="F63" s="195"/>
+      <c r="G63" s="195"/>
+      <c r="H63" s="195"/>
+      <c r="I63" s="195"/>
+      <c r="J63" s="195"/>
       <c r="K63" s="147"/>
       <c r="L63" s="147"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="177" t="s">
+      <c r="A64" s="203" t="s">
         <v>424</v>
       </c>
-      <c r="B64" s="178"/>
-      <c r="C64" s="178"/>
-      <c r="D64" s="178"/>
-      <c r="E64" s="178"/>
-      <c r="F64" s="178"/>
-      <c r="G64" s="178"/>
-      <c r="H64" s="178"/>
-      <c r="I64" s="178"/>
-      <c r="J64" s="178"/>
+      <c r="B64" s="195"/>
+      <c r="C64" s="195"/>
+      <c r="D64" s="195"/>
+      <c r="E64" s="195"/>
+      <c r="F64" s="195"/>
+      <c r="G64" s="195"/>
+      <c r="H64" s="195"/>
+      <c r="I64" s="195"/>
+      <c r="J64" s="195"/>
       <c r="K64" s="147"/>
       <c r="L64" s="147"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="177" t="s">
+      <c r="A65" s="203" t="s">
         <v>425</v>
       </c>
-      <c r="B65" s="178"/>
-      <c r="C65" s="178"/>
-      <c r="D65" s="178"/>
-      <c r="E65" s="178"/>
-      <c r="F65" s="178"/>
-      <c r="G65" s="178"/>
-      <c r="H65" s="178"/>
-      <c r="I65" s="178"/>
-      <c r="J65" s="178"/>
+      <c r="B65" s="195"/>
+      <c r="C65" s="195"/>
+      <c r="D65" s="195"/>
+      <c r="E65" s="195"/>
+      <c r="F65" s="195"/>
+      <c r="G65" s="195"/>
+      <c r="H65" s="195"/>
+      <c r="I65" s="195"/>
+      <c r="J65" s="195"/>
       <c r="K65" s="147"/>
       <c r="L65" s="147"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="177" t="s">
+      <c r="A66" s="203" t="s">
         <v>426</v>
       </c>
-      <c r="B66" s="178"/>
-      <c r="C66" s="178"/>
-      <c r="D66" s="178"/>
-      <c r="E66" s="178"/>
-      <c r="F66" s="178"/>
-      <c r="G66" s="178"/>
-      <c r="H66" s="178"/>
-      <c r="I66" s="178"/>
-      <c r="J66" s="178"/>
+      <c r="B66" s="195"/>
+      <c r="C66" s="195"/>
+      <c r="D66" s="195"/>
+      <c r="E66" s="195"/>
+      <c r="F66" s="195"/>
+      <c r="G66" s="195"/>
+      <c r="H66" s="195"/>
+      <c r="I66" s="195"/>
+      <c r="J66" s="195"/>
       <c r="K66" s="147"/>
       <c r="L66" s="147"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="177" t="s">
+      <c r="A67" s="203" t="s">
         <v>427</v>
       </c>
-      <c r="B67" s="178"/>
-      <c r="C67" s="178"/>
-      <c r="D67" s="178"/>
-      <c r="E67" s="178"/>
-      <c r="F67" s="178"/>
-      <c r="G67" s="178"/>
-      <c r="H67" s="178"/>
-      <c r="I67" s="178"/>
-      <c r="J67" s="178"/>
+      <c r="B67" s="195"/>
+      <c r="C67" s="195"/>
+      <c r="D67" s="195"/>
+      <c r="E67" s="195"/>
+      <c r="F67" s="195"/>
+      <c r="G67" s="195"/>
+      <c r="H67" s="195"/>
+      <c r="I67" s="195"/>
+      <c r="J67" s="195"/>
       <c r="K67" s="147"/>
       <c r="L67" s="147"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="177" t="s">
+      <c r="A68" s="203" t="s">
         <v>428</v>
       </c>
-      <c r="B68" s="178"/>
-      <c r="C68" s="178"/>
-      <c r="D68" s="178"/>
-      <c r="E68" s="178"/>
-      <c r="F68" s="178"/>
-      <c r="G68" s="178"/>
-      <c r="H68" s="178"/>
-      <c r="I68" s="178"/>
-      <c r="J68" s="178"/>
+      <c r="B68" s="195"/>
+      <c r="C68" s="195"/>
+      <c r="D68" s="195"/>
+      <c r="E68" s="195"/>
+      <c r="F68" s="195"/>
+      <c r="G68" s="195"/>
+      <c r="H68" s="195"/>
+      <c r="I68" s="195"/>
+      <c r="J68" s="195"/>
       <c r="K68" s="147"/>
       <c r="L68" s="147"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="177" t="s">
+      <c r="A69" s="203" t="s">
         <v>429</v>
       </c>
-      <c r="B69" s="178"/>
-      <c r="C69" s="178"/>
-      <c r="D69" s="178"/>
-      <c r="E69" s="178"/>
-      <c r="F69" s="178"/>
-      <c r="G69" s="178"/>
-      <c r="H69" s="178"/>
-      <c r="I69" s="178"/>
-      <c r="J69" s="178"/>
+      <c r="B69" s="195"/>
+      <c r="C69" s="195"/>
+      <c r="D69" s="195"/>
+      <c r="E69" s="195"/>
+      <c r="F69" s="195"/>
+      <c r="G69" s="195"/>
+      <c r="H69" s="195"/>
+      <c r="I69" s="195"/>
+      <c r="J69" s="195"/>
       <c r="K69" s="147"/>
       <c r="L69" s="147"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="177" t="s">
+      <c r="A70" s="203" t="s">
         <v>430</v>
       </c>
-      <c r="B70" s="178"/>
-      <c r="C70" s="178"/>
-      <c r="D70" s="178"/>
-      <c r="E70" s="178"/>
-      <c r="F70" s="178"/>
-      <c r="G70" s="178"/>
-      <c r="H70" s="178"/>
-      <c r="I70" s="178"/>
-      <c r="J70" s="178"/>
+      <c r="B70" s="195"/>
+      <c r="C70" s="195"/>
+      <c r="D70" s="195"/>
+      <c r="E70" s="195"/>
+      <c r="F70" s="195"/>
+      <c r="G70" s="195"/>
+      <c r="H70" s="195"/>
+      <c r="I70" s="195"/>
+      <c r="J70" s="195"/>
       <c r="K70" s="147"/>
       <c r="L70" s="147"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="177" t="s">
+      <c r="A71" s="203" t="s">
         <v>431</v>
       </c>
-      <c r="B71" s="178"/>
-      <c r="C71" s="178"/>
-      <c r="D71" s="178"/>
-      <c r="E71" s="178"/>
-      <c r="F71" s="178"/>
-      <c r="G71" s="178"/>
-      <c r="H71" s="178"/>
-      <c r="I71" s="178"/>
-      <c r="J71" s="178"/>
+      <c r="B71" s="195"/>
+      <c r="C71" s="195"/>
+      <c r="D71" s="195"/>
+      <c r="E71" s="195"/>
+      <c r="F71" s="195"/>
+      <c r="G71" s="195"/>
+      <c r="H71" s="195"/>
+      <c r="I71" s="195"/>
+      <c r="J71" s="195"/>
       <c r="K71" s="147"/>
       <c r="L71" s="147"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="179" t="s">
+      <c r="A72" s="204" t="s">
         <v>432</v>
       </c>
-      <c r="B72" s="178"/>
-      <c r="C72" s="178"/>
-      <c r="D72" s="178"/>
-      <c r="E72" s="178"/>
-      <c r="F72" s="178"/>
-      <c r="G72" s="178"/>
-      <c r="H72" s="178"/>
-      <c r="I72" s="178"/>
-      <c r="J72" s="178"/>
+      <c r="B72" s="195"/>
+      <c r="C72" s="195"/>
+      <c r="D72" s="195"/>
+      <c r="E72" s="195"/>
+      <c r="F72" s="195"/>
+      <c r="G72" s="195"/>
+      <c r="H72" s="195"/>
+      <c r="I72" s="195"/>
+      <c r="J72" s="195"/>
       <c r="K72" s="147"/>
       <c r="L72" s="147"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="177" t="s">
+      <c r="A73" s="203" t="s">
         <v>433</v>
       </c>
-      <c r="B73" s="178"/>
-      <c r="C73" s="178"/>
-      <c r="D73" s="178"/>
-      <c r="E73" s="178"/>
-      <c r="F73" s="178"/>
-      <c r="G73" s="178"/>
-      <c r="H73" s="178"/>
-      <c r="I73" s="178"/>
-      <c r="J73" s="178"/>
+      <c r="B73" s="195"/>
+      <c r="C73" s="195"/>
+      <c r="D73" s="195"/>
+      <c r="E73" s="195"/>
+      <c r="F73" s="195"/>
+      <c r="G73" s="195"/>
+      <c r="H73" s="195"/>
+      <c r="I73" s="195"/>
+      <c r="J73" s="195"/>
       <c r="K73" s="147"/>
       <c r="L73" s="147"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="177" t="s">
+      <c r="A74" s="203" t="s">
         <v>434</v>
       </c>
-      <c r="B74" s="178"/>
-      <c r="C74" s="178"/>
-      <c r="D74" s="178"/>
-      <c r="E74" s="178"/>
-      <c r="F74" s="178"/>
-      <c r="G74" s="178"/>
-      <c r="H74" s="178"/>
-      <c r="I74" s="178"/>
-      <c r="J74" s="178"/>
+      <c r="B74" s="195"/>
+      <c r="C74" s="195"/>
+      <c r="D74" s="195"/>
+      <c r="E74" s="195"/>
+      <c r="F74" s="195"/>
+      <c r="G74" s="195"/>
+      <c r="H74" s="195"/>
+      <c r="I74" s="195"/>
+      <c r="J74" s="195"/>
       <c r="K74" s="147"/>
       <c r="L74" s="147"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="177" t="s">
+      <c r="A75" s="203" t="s">
         <v>435</v>
       </c>
-      <c r="B75" s="178"/>
-      <c r="C75" s="178"/>
-      <c r="D75" s="178"/>
-      <c r="E75" s="178"/>
-      <c r="F75" s="178"/>
-      <c r="G75" s="178"/>
-      <c r="H75" s="178"/>
-      <c r="I75" s="178"/>
-      <c r="J75" s="178"/>
+      <c r="B75" s="195"/>
+      <c r="C75" s="195"/>
+      <c r="D75" s="195"/>
+      <c r="E75" s="195"/>
+      <c r="F75" s="195"/>
+      <c r="G75" s="195"/>
+      <c r="H75" s="195"/>
+      <c r="I75" s="195"/>
+      <c r="J75" s="195"/>
       <c r="K75" s="147"/>
       <c r="L75" s="147"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="177" t="s">
+      <c r="A76" s="203" t="s">
         <v>436</v>
       </c>
-      <c r="B76" s="178"/>
-      <c r="C76" s="178"/>
-      <c r="D76" s="178"/>
-      <c r="E76" s="178"/>
-      <c r="F76" s="178"/>
-      <c r="G76" s="178"/>
-      <c r="H76" s="178"/>
-      <c r="I76" s="178"/>
-      <c r="J76" s="178"/>
+      <c r="B76" s="195"/>
+      <c r="C76" s="195"/>
+      <c r="D76" s="195"/>
+      <c r="E76" s="195"/>
+      <c r="F76" s="195"/>
+      <c r="G76" s="195"/>
+      <c r="H76" s="195"/>
+      <c r="I76" s="195"/>
+      <c r="J76" s="195"/>
       <c r="K76" s="147"/>
       <c r="L76" s="147"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="177" t="s">
+      <c r="A77" s="203" t="s">
         <v>437</v>
       </c>
-      <c r="B77" s="178"/>
-      <c r="C77" s="178"/>
-      <c r="D77" s="178"/>
-      <c r="E77" s="178"/>
-      <c r="F77" s="178"/>
-      <c r="G77" s="178"/>
-      <c r="H77" s="178"/>
-      <c r="I77" s="178"/>
-      <c r="J77" s="178"/>
+      <c r="B77" s="195"/>
+      <c r="C77" s="195"/>
+      <c r="D77" s="195"/>
+      <c r="E77" s="195"/>
+      <c r="F77" s="195"/>
+      <c r="G77" s="195"/>
+      <c r="H77" s="195"/>
+      <c r="I77" s="195"/>
+      <c r="J77" s="195"/>
       <c r="K77" s="147"/>
       <c r="L77" s="147"/>
     </row>
@@ -18305,15 +18305,26 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A75:J75"/>
-    <mergeCell ref="A76:J76"/>
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A72:J72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A74:J74"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A45:L45"/>
+    <mergeCell ref="A46:L46"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A55:J55"/>
     <mergeCell ref="A68:J68"/>
     <mergeCell ref="A57:J57"/>
     <mergeCell ref="A58:J58"/>
@@ -18326,26 +18337,15 @@
     <mergeCell ref="A65:J65"/>
     <mergeCell ref="A66:J66"/>
     <mergeCell ref="A67:J67"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="A46:L46"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A76:J76"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A74:J74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18373,67 +18373,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="177" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="189"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="179"/>
       <c r="K1" s="176"/>
       <c r="L1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="13.15" customHeight="1">
-      <c r="A2" s="190"/>
+      <c r="A2" s="180"/>
       <c r="B2" s="148"/>
-      <c r="C2" s="193" t="s">
+      <c r="C2" s="183" t="s">
         <v>327</v>
       </c>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="196" t="s">
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="186" t="s">
         <v>328</v>
       </c>
-      <c r="I2" s="196" t="s">
+      <c r="I2" s="186" t="s">
         <v>329</v>
       </c>
-      <c r="J2" s="199" t="s">
+      <c r="J2" s="189" t="s">
         <v>335</v>
       </c>
       <c r="K2" s="176"/>
       <c r="L2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="34.9">
-      <c r="A3" s="191"/>
+      <c r="A3" s="181"/>
       <c r="B3" s="149" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="150" t="s">
         <v>359</v>
       </c>
-      <c r="D3" s="202" t="s">
+      <c r="D3" s="192" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="203"/>
-      <c r="F3" s="196" t="s">
+      <c r="E3" s="193"/>
+      <c r="F3" s="186" t="s">
         <v>291</v>
       </c>
-      <c r="G3" s="204"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="200"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="190"/>
       <c r="K3" s="176"/>
       <c r="L3" s="176"/>
     </row>
     <row r="4" spans="1:12" ht="31.15">
-      <c r="A4" s="192"/>
+      <c r="A4" s="182"/>
       <c r="B4" s="152"/>
       <c r="C4" s="153"/>
       <c r="D4" s="151" t="s">
@@ -18448,9 +18448,9 @@
       <c r="G4" s="151" t="s">
         <v>333</v>
       </c>
-      <c r="H4" s="198"/>
-      <c r="I4" s="198"/>
-      <c r="J4" s="201"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="191"/>
       <c r="K4" s="176"/>
       <c r="L4" s="154" t="s">
         <v>381</v>
@@ -19683,514 +19683,529 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="13.15">
-      <c r="A45" s="183" t="s">
+      <c r="A45" s="196" t="s">
         <v>439</v>
       </c>
-      <c r="B45" s="183"/>
-      <c r="C45" s="183"/>
-      <c r="D45" s="183"/>
-      <c r="E45" s="183"/>
-      <c r="F45" s="183"/>
-      <c r="G45" s="183"/>
-      <c r="H45" s="183"/>
-      <c r="I45" s="183"/>
-      <c r="J45" s="183"/>
-      <c r="K45" s="183"/>
+      <c r="B45" s="196"/>
+      <c r="C45" s="196"/>
+      <c r="D45" s="196"/>
+      <c r="E45" s="196"/>
+      <c r="F45" s="196"/>
+      <c r="G45" s="196"/>
+      <c r="H45" s="196"/>
+      <c r="I45" s="196"/>
+      <c r="J45" s="196"/>
+      <c r="K45" s="196"/>
       <c r="L45" s="205"/>
     </row>
     <row r="46" spans="1:12" ht="13.15">
-      <c r="A46" s="184" t="s">
+      <c r="A46" s="197" t="s">
         <v>366</v>
       </c>
-      <c r="B46" s="183"/>
-      <c r="C46" s="183"/>
-      <c r="D46" s="183"/>
-      <c r="E46" s="183"/>
-      <c r="F46" s="183"/>
-      <c r="G46" s="183"/>
-      <c r="H46" s="183"/>
-      <c r="I46" s="183"/>
-      <c r="J46" s="183"/>
-      <c r="K46" s="183"/>
+      <c r="B46" s="196"/>
+      <c r="C46" s="196"/>
+      <c r="D46" s="196"/>
+      <c r="E46" s="196"/>
+      <c r="F46" s="196"/>
+      <c r="G46" s="196"/>
+      <c r="H46" s="196"/>
+      <c r="I46" s="196"/>
+      <c r="J46" s="196"/>
+      <c r="K46" s="196"/>
       <c r="L46" s="205"/>
     </row>
     <row r="47" spans="1:12" ht="13.15" customHeight="1">
-      <c r="A47" s="185" t="s">
+      <c r="A47" s="198" t="s">
         <v>375</v>
       </c>
-      <c r="B47" s="186"/>
-      <c r="C47" s="186"/>
-      <c r="D47" s="186"/>
-      <c r="E47" s="186"/>
-      <c r="F47" s="186"/>
-      <c r="G47" s="186"/>
-      <c r="H47" s="186"/>
-      <c r="I47" s="186"/>
-      <c r="J47" s="186"/>
+      <c r="B47" s="199"/>
+      <c r="C47" s="199"/>
+      <c r="D47" s="199"/>
+      <c r="E47" s="199"/>
+      <c r="F47" s="199"/>
+      <c r="G47" s="199"/>
+      <c r="H47" s="199"/>
+      <c r="I47" s="199"/>
+      <c r="J47" s="199"/>
       <c r="K47" s="176"/>
       <c r="L47" s="174"/>
     </row>
     <row r="48" spans="1:12" ht="13.15" customHeight="1">
-      <c r="A48" s="180" t="s">
+      <c r="A48" s="200" t="s">
         <v>376</v>
       </c>
-      <c r="B48" s="180"/>
-      <c r="C48" s="180"/>
-      <c r="D48" s="180"/>
-      <c r="E48" s="180"/>
-      <c r="F48" s="180"/>
-      <c r="G48" s="180"/>
-      <c r="H48" s="180"/>
-      <c r="I48" s="180"/>
-      <c r="J48" s="180"/>
+      <c r="B48" s="200"/>
+      <c r="C48" s="200"/>
+      <c r="D48" s="200"/>
+      <c r="E48" s="200"/>
+      <c r="F48" s="200"/>
+      <c r="G48" s="200"/>
+      <c r="H48" s="200"/>
+      <c r="I48" s="200"/>
+      <c r="J48" s="200"/>
       <c r="K48" s="176"/>
       <c r="L48" s="175"/>
     </row>
     <row r="49" spans="1:12" ht="13.15" customHeight="1">
-      <c r="A49" s="180" t="s">
+      <c r="A49" s="200" t="s">
         <v>377</v>
       </c>
-      <c r="B49" s="180"/>
-      <c r="C49" s="180"/>
-      <c r="D49" s="180"/>
-      <c r="E49" s="180"/>
-      <c r="F49" s="180"/>
-      <c r="G49" s="180"/>
-      <c r="H49" s="180"/>
-      <c r="I49" s="180"/>
-      <c r="J49" s="180"/>
+      <c r="B49" s="200"/>
+      <c r="C49" s="200"/>
+      <c r="D49" s="200"/>
+      <c r="E49" s="200"/>
+      <c r="F49" s="200"/>
+      <c r="G49" s="200"/>
+      <c r="H49" s="200"/>
+      <c r="I49" s="200"/>
+      <c r="J49" s="200"/>
       <c r="K49" s="176"/>
       <c r="L49" s="175"/>
     </row>
     <row r="50" spans="1:12" ht="13.15" customHeight="1">
-      <c r="A50" s="180" t="s">
+      <c r="A50" s="200" t="s">
         <v>378</v>
       </c>
-      <c r="B50" s="180"/>
-      <c r="C50" s="180"/>
-      <c r="D50" s="180"/>
-      <c r="E50" s="180"/>
-      <c r="F50" s="180"/>
-      <c r="G50" s="180"/>
-      <c r="H50" s="180"/>
-      <c r="I50" s="180"/>
-      <c r="J50" s="180"/>
+      <c r="B50" s="200"/>
+      <c r="C50" s="200"/>
+      <c r="D50" s="200"/>
+      <c r="E50" s="200"/>
+      <c r="F50" s="200"/>
+      <c r="G50" s="200"/>
+      <c r="H50" s="200"/>
+      <c r="I50" s="200"/>
+      <c r="J50" s="200"/>
       <c r="K50" s="176"/>
       <c r="L50" s="175"/>
     </row>
     <row r="51" spans="1:12" ht="13.15" customHeight="1">
-      <c r="A51" s="180" t="s">
+      <c r="A51" s="200" t="s">
         <v>336</v>
       </c>
-      <c r="B51" s="180"/>
-      <c r="C51" s="180"/>
-      <c r="D51" s="180"/>
-      <c r="E51" s="180"/>
-      <c r="F51" s="180"/>
-      <c r="G51" s="180"/>
-      <c r="H51" s="180"/>
-      <c r="I51" s="180"/>
-      <c r="J51" s="180"/>
+      <c r="B51" s="200"/>
+      <c r="C51" s="200"/>
+      <c r="D51" s="200"/>
+      <c r="E51" s="200"/>
+      <c r="F51" s="200"/>
+      <c r="G51" s="200"/>
+      <c r="H51" s="200"/>
+      <c r="I51" s="200"/>
+      <c r="J51" s="200"/>
       <c r="K51" s="176"/>
       <c r="L51" s="175"/>
     </row>
     <row r="52" spans="1:12" ht="13.15" customHeight="1">
-      <c r="A52" s="180" t="s">
+      <c r="A52" s="200" t="s">
         <v>379</v>
       </c>
-      <c r="B52" s="180"/>
-      <c r="C52" s="180"/>
-      <c r="D52" s="180"/>
-      <c r="E52" s="180"/>
-      <c r="F52" s="180"/>
-      <c r="G52" s="180"/>
-      <c r="H52" s="180"/>
-      <c r="I52" s="180"/>
-      <c r="J52" s="180"/>
+      <c r="B52" s="200"/>
+      <c r="C52" s="200"/>
+      <c r="D52" s="200"/>
+      <c r="E52" s="200"/>
+      <c r="F52" s="200"/>
+      <c r="G52" s="200"/>
+      <c r="H52" s="200"/>
+      <c r="I52" s="200"/>
+      <c r="J52" s="200"/>
       <c r="K52" s="176"/>
       <c r="L52" s="175"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="181" t="s">
+      <c r="A53" s="201" t="s">
         <v>383</v>
       </c>
-      <c r="B53" s="182"/>
-      <c r="C53" s="182"/>
-      <c r="D53" s="182"/>
-      <c r="E53" s="182"/>
-      <c r="F53" s="182"/>
-      <c r="G53" s="182"/>
-      <c r="H53" s="182"/>
-      <c r="I53" s="182"/>
-      <c r="J53" s="182"/>
+      <c r="B53" s="202"/>
+      <c r="C53" s="202"/>
+      <c r="D53" s="202"/>
+      <c r="E53" s="202"/>
+      <c r="F53" s="202"/>
+      <c r="G53" s="202"/>
+      <c r="H53" s="202"/>
+      <c r="I53" s="202"/>
+      <c r="J53" s="202"/>
       <c r="K53" s="176"/>
       <c r="L53" s="176"/>
     </row>
     <row r="54" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A54" s="178" t="s">
+      <c r="A54" s="195" t="s">
         <v>384</v>
       </c>
-      <c r="B54" s="178"/>
-      <c r="C54" s="178"/>
-      <c r="D54" s="178"/>
-      <c r="E54" s="178"/>
-      <c r="F54" s="178"/>
-      <c r="G54" s="178"/>
-      <c r="H54" s="178"/>
-      <c r="I54" s="178"/>
-      <c r="J54" s="178"/>
+      <c r="B54" s="195"/>
+      <c r="C54" s="195"/>
+      <c r="D54" s="195"/>
+      <c r="E54" s="195"/>
+      <c r="F54" s="195"/>
+      <c r="G54" s="195"/>
+      <c r="H54" s="195"/>
+      <c r="I54" s="195"/>
+      <c r="J54" s="195"/>
       <c r="K54" s="176"/>
       <c r="L54" s="176"/>
     </row>
     <row r="55" spans="1:12" ht="41.25" customHeight="1">
-      <c r="A55" s="178" t="s">
+      <c r="A55" s="195" t="s">
         <v>385</v>
       </c>
-      <c r="B55" s="178"/>
-      <c r="C55" s="178"/>
-      <c r="D55" s="178"/>
-      <c r="E55" s="178"/>
-      <c r="F55" s="178"/>
-      <c r="G55" s="178"/>
-      <c r="H55" s="178"/>
-      <c r="I55" s="178"/>
-      <c r="J55" s="178"/>
+      <c r="B55" s="195"/>
+      <c r="C55" s="195"/>
+      <c r="D55" s="195"/>
+      <c r="E55" s="195"/>
+      <c r="F55" s="195"/>
+      <c r="G55" s="195"/>
+      <c r="H55" s="195"/>
+      <c r="I55" s="195"/>
+      <c r="J55" s="195"/>
       <c r="K55" s="176"/>
       <c r="L55" s="176"/>
     </row>
     <row r="56" spans="1:12" ht="77.25" customHeight="1">
-      <c r="A56" s="178" t="s">
+      <c r="A56" s="195" t="s">
         <v>386</v>
       </c>
-      <c r="B56" s="178"/>
-      <c r="C56" s="178"/>
-      <c r="D56" s="178"/>
-      <c r="E56" s="178"/>
-      <c r="F56" s="178"/>
-      <c r="G56" s="178"/>
-      <c r="H56" s="178"/>
-      <c r="I56" s="178"/>
-      <c r="J56" s="178"/>
+      <c r="B56" s="195"/>
+      <c r="C56" s="195"/>
+      <c r="D56" s="195"/>
+      <c r="E56" s="195"/>
+      <c r="F56" s="195"/>
+      <c r="G56" s="195"/>
+      <c r="H56" s="195"/>
+      <c r="I56" s="195"/>
+      <c r="J56" s="195"/>
       <c r="K56" s="176"/>
       <c r="L56" s="176"/>
     </row>
     <row r="57" spans="1:12" ht="102" customHeight="1">
-      <c r="A57" s="177" t="s">
+      <c r="A57" s="203" t="s">
         <v>387</v>
       </c>
-      <c r="B57" s="178"/>
-      <c r="C57" s="178"/>
-      <c r="D57" s="178"/>
-      <c r="E57" s="178"/>
-      <c r="F57" s="178"/>
-      <c r="G57" s="178"/>
-      <c r="H57" s="178"/>
-      <c r="I57" s="178"/>
-      <c r="J57" s="178"/>
+      <c r="B57" s="195"/>
+      <c r="C57" s="195"/>
+      <c r="D57" s="195"/>
+      <c r="E57" s="195"/>
+      <c r="F57" s="195"/>
+      <c r="G57" s="195"/>
+      <c r="H57" s="195"/>
+      <c r="I57" s="195"/>
+      <c r="J57" s="195"/>
       <c r="K57" s="176"/>
       <c r="L57" s="176"/>
     </row>
     <row r="58" spans="1:12" ht="72.599999999999994" customHeight="1">
-      <c r="A58" s="177" t="s">
+      <c r="A58" s="203" t="s">
         <v>388</v>
       </c>
-      <c r="B58" s="178"/>
-      <c r="C58" s="178"/>
-      <c r="D58" s="178"/>
-      <c r="E58" s="178"/>
-      <c r="F58" s="178"/>
-      <c r="G58" s="178"/>
-      <c r="H58" s="178"/>
-      <c r="I58" s="178"/>
-      <c r="J58" s="178"/>
+      <c r="B58" s="195"/>
+      <c r="C58" s="195"/>
+      <c r="D58" s="195"/>
+      <c r="E58" s="195"/>
+      <c r="F58" s="195"/>
+      <c r="G58" s="195"/>
+      <c r="H58" s="195"/>
+      <c r="I58" s="195"/>
+      <c r="J58" s="195"/>
       <c r="K58" s="176"/>
       <c r="L58" s="176"/>
     </row>
     <row r="59" spans="1:12" ht="117.75" customHeight="1">
-      <c r="A59" s="177" t="s">
+      <c r="A59" s="203" t="s">
         <v>389</v>
       </c>
-      <c r="B59" s="178"/>
-      <c r="C59" s="178"/>
-      <c r="D59" s="178"/>
-      <c r="E59" s="178"/>
-      <c r="F59" s="178"/>
-      <c r="G59" s="178"/>
-      <c r="H59" s="178"/>
-      <c r="I59" s="178"/>
-      <c r="J59" s="178"/>
+      <c r="B59" s="195"/>
+      <c r="C59" s="195"/>
+      <c r="D59" s="195"/>
+      <c r="E59" s="195"/>
+      <c r="F59" s="195"/>
+      <c r="G59" s="195"/>
+      <c r="H59" s="195"/>
+      <c r="I59" s="195"/>
+      <c r="J59" s="195"/>
       <c r="K59" s="176"/>
       <c r="L59" s="176"/>
     </row>
     <row r="60" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A60" s="177" t="s">
+      <c r="A60" s="203" t="s">
         <v>390</v>
       </c>
-      <c r="B60" s="178"/>
-      <c r="C60" s="178"/>
-      <c r="D60" s="178"/>
-      <c r="E60" s="178"/>
-      <c r="F60" s="178"/>
-      <c r="G60" s="178"/>
-      <c r="H60" s="178"/>
-      <c r="I60" s="178"/>
-      <c r="J60" s="178"/>
+      <c r="B60" s="195"/>
+      <c r="C60" s="195"/>
+      <c r="D60" s="195"/>
+      <c r="E60" s="195"/>
+      <c r="F60" s="195"/>
+      <c r="G60" s="195"/>
+      <c r="H60" s="195"/>
+      <c r="I60" s="195"/>
+      <c r="J60" s="195"/>
       <c r="K60" s="176"/>
       <c r="L60" s="176"/>
     </row>
     <row r="61" spans="1:12" ht="47.25" customHeight="1">
-      <c r="A61" s="177" t="s">
+      <c r="A61" s="203" t="s">
         <v>391</v>
       </c>
-      <c r="B61" s="178"/>
-      <c r="C61" s="178"/>
-      <c r="D61" s="178"/>
-      <c r="E61" s="178"/>
-      <c r="F61" s="178"/>
-      <c r="G61" s="178"/>
-      <c r="H61" s="178"/>
-      <c r="I61" s="178"/>
-      <c r="J61" s="178"/>
+      <c r="B61" s="195"/>
+      <c r="C61" s="195"/>
+      <c r="D61" s="195"/>
+      <c r="E61" s="195"/>
+      <c r="F61" s="195"/>
+      <c r="G61" s="195"/>
+      <c r="H61" s="195"/>
+      <c r="I61" s="195"/>
+      <c r="J61" s="195"/>
       <c r="K61" s="176"/>
       <c r="L61" s="176"/>
     </row>
     <row r="62" spans="1:12" ht="33" customHeight="1">
-      <c r="A62" s="177" t="s">
+      <c r="A62" s="203" t="s">
         <v>392</v>
       </c>
-      <c r="B62" s="178"/>
-      <c r="C62" s="178"/>
-      <c r="D62" s="178"/>
-      <c r="E62" s="178"/>
-      <c r="F62" s="178"/>
-      <c r="G62" s="178"/>
-      <c r="H62" s="178"/>
-      <c r="I62" s="178"/>
-      <c r="J62" s="178"/>
+      <c r="B62" s="195"/>
+      <c r="C62" s="195"/>
+      <c r="D62" s="195"/>
+      <c r="E62" s="195"/>
+      <c r="F62" s="195"/>
+      <c r="G62" s="195"/>
+      <c r="H62" s="195"/>
+      <c r="I62" s="195"/>
+      <c r="J62" s="195"/>
       <c r="K62" s="176"/>
       <c r="L62" s="176"/>
     </row>
     <row r="63" spans="1:12" ht="78.75" customHeight="1">
-      <c r="A63" s="177" t="s">
+      <c r="A63" s="203" t="s">
         <v>393</v>
       </c>
-      <c r="B63" s="178"/>
-      <c r="C63" s="178"/>
-      <c r="D63" s="178"/>
-      <c r="E63" s="178"/>
-      <c r="F63" s="178"/>
-      <c r="G63" s="178"/>
-      <c r="H63" s="178"/>
-      <c r="I63" s="178"/>
-      <c r="J63" s="178"/>
+      <c r="B63" s="195"/>
+      <c r="C63" s="195"/>
+      <c r="D63" s="195"/>
+      <c r="E63" s="195"/>
+      <c r="F63" s="195"/>
+      <c r="G63" s="195"/>
+      <c r="H63" s="195"/>
+      <c r="I63" s="195"/>
+      <c r="J63" s="195"/>
       <c r="K63" s="176"/>
       <c r="L63" s="176"/>
     </row>
     <row r="64" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A64" s="177" t="s">
+      <c r="A64" s="203" t="s">
         <v>394</v>
       </c>
-      <c r="B64" s="178"/>
-      <c r="C64" s="178"/>
-      <c r="D64" s="178"/>
-      <c r="E64" s="178"/>
-      <c r="F64" s="178"/>
-      <c r="G64" s="178"/>
-      <c r="H64" s="178"/>
-      <c r="I64" s="178"/>
-      <c r="J64" s="178"/>
+      <c r="B64" s="195"/>
+      <c r="C64" s="195"/>
+      <c r="D64" s="195"/>
+      <c r="E64" s="195"/>
+      <c r="F64" s="195"/>
+      <c r="G64" s="195"/>
+      <c r="H64" s="195"/>
+      <c r="I64" s="195"/>
+      <c r="J64" s="195"/>
       <c r="K64" s="176"/>
       <c r="L64" s="176"/>
     </row>
     <row r="65" spans="1:10" ht="81" customHeight="1">
-      <c r="A65" s="177" t="s">
+      <c r="A65" s="203" t="s">
         <v>395</v>
       </c>
-      <c r="B65" s="178"/>
-      <c r="C65" s="178"/>
-      <c r="D65" s="178"/>
-      <c r="E65" s="178"/>
-      <c r="F65" s="178"/>
-      <c r="G65" s="178"/>
-      <c r="H65" s="178"/>
-      <c r="I65" s="178"/>
-      <c r="J65" s="178"/>
+      <c r="B65" s="195"/>
+      <c r="C65" s="195"/>
+      <c r="D65" s="195"/>
+      <c r="E65" s="195"/>
+      <c r="F65" s="195"/>
+      <c r="G65" s="195"/>
+      <c r="H65" s="195"/>
+      <c r="I65" s="195"/>
+      <c r="J65" s="195"/>
     </row>
     <row r="66" spans="1:10" ht="53.25" customHeight="1">
-      <c r="A66" s="177" t="s">
+      <c r="A66" s="203" t="s">
         <v>396</v>
       </c>
-      <c r="B66" s="178"/>
-      <c r="C66" s="178"/>
-      <c r="D66" s="178"/>
-      <c r="E66" s="178"/>
-      <c r="F66" s="178"/>
-      <c r="G66" s="178"/>
-      <c r="H66" s="178"/>
-      <c r="I66" s="178"/>
-      <c r="J66" s="178"/>
+      <c r="B66" s="195"/>
+      <c r="C66" s="195"/>
+      <c r="D66" s="195"/>
+      <c r="E66" s="195"/>
+      <c r="F66" s="195"/>
+      <c r="G66" s="195"/>
+      <c r="H66" s="195"/>
+      <c r="I66" s="195"/>
+      <c r="J66" s="195"/>
     </row>
     <row r="67" spans="1:10" ht="78.75" customHeight="1">
-      <c r="A67" s="177" t="s">
+      <c r="A67" s="203" t="s">
         <v>397</v>
       </c>
-      <c r="B67" s="178"/>
-      <c r="C67" s="178"/>
-      <c r="D67" s="178"/>
-      <c r="E67" s="178"/>
-      <c r="F67" s="178"/>
-      <c r="G67" s="178"/>
-      <c r="H67" s="178"/>
-      <c r="I67" s="178"/>
-      <c r="J67" s="178"/>
+      <c r="B67" s="195"/>
+      <c r="C67" s="195"/>
+      <c r="D67" s="195"/>
+      <c r="E67" s="195"/>
+      <c r="F67" s="195"/>
+      <c r="G67" s="195"/>
+      <c r="H67" s="195"/>
+      <c r="I67" s="195"/>
+      <c r="J67" s="195"/>
     </row>
     <row r="68" spans="1:10" ht="81" customHeight="1">
-      <c r="A68" s="177" t="s">
+      <c r="A68" s="203" t="s">
         <v>398</v>
       </c>
-      <c r="B68" s="178"/>
-      <c r="C68" s="178"/>
-      <c r="D68" s="178"/>
-      <c r="E68" s="178"/>
-      <c r="F68" s="178"/>
-      <c r="G68" s="178"/>
-      <c r="H68" s="178"/>
-      <c r="I68" s="178"/>
-      <c r="J68" s="178"/>
+      <c r="B68" s="195"/>
+      <c r="C68" s="195"/>
+      <c r="D68" s="195"/>
+      <c r="E68" s="195"/>
+      <c r="F68" s="195"/>
+      <c r="G68" s="195"/>
+      <c r="H68" s="195"/>
+      <c r="I68" s="195"/>
+      <c r="J68" s="195"/>
     </row>
     <row r="69" spans="1:10" ht="43.5" customHeight="1">
-      <c r="A69" s="177" t="s">
+      <c r="A69" s="203" t="s">
         <v>399</v>
       </c>
-      <c r="B69" s="178"/>
-      <c r="C69" s="178"/>
-      <c r="D69" s="178"/>
-      <c r="E69" s="178"/>
-      <c r="F69" s="178"/>
-      <c r="G69" s="178"/>
-      <c r="H69" s="178"/>
-      <c r="I69" s="178"/>
-      <c r="J69" s="178"/>
+      <c r="B69" s="195"/>
+      <c r="C69" s="195"/>
+      <c r="D69" s="195"/>
+      <c r="E69" s="195"/>
+      <c r="F69" s="195"/>
+      <c r="G69" s="195"/>
+      <c r="H69" s="195"/>
+      <c r="I69" s="195"/>
+      <c r="J69" s="195"/>
     </row>
     <row r="70" spans="1:10" ht="30" customHeight="1">
-      <c r="A70" s="177" t="s">
+      <c r="A70" s="203" t="s">
         <v>400</v>
       </c>
-      <c r="B70" s="178"/>
-      <c r="C70" s="178"/>
-      <c r="D70" s="178"/>
-      <c r="E70" s="178"/>
-      <c r="F70" s="178"/>
-      <c r="G70" s="178"/>
-      <c r="H70" s="178"/>
-      <c r="I70" s="178"/>
-      <c r="J70" s="178"/>
+      <c r="B70" s="195"/>
+      <c r="C70" s="195"/>
+      <c r="D70" s="195"/>
+      <c r="E70" s="195"/>
+      <c r="F70" s="195"/>
+      <c r="G70" s="195"/>
+      <c r="H70" s="195"/>
+      <c r="I70" s="195"/>
+      <c r="J70" s="195"/>
     </row>
     <row r="71" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A71" s="177" t="s">
+      <c r="A71" s="203" t="s">
         <v>401</v>
       </c>
-      <c r="B71" s="178"/>
-      <c r="C71" s="178"/>
-      <c r="D71" s="178"/>
-      <c r="E71" s="178"/>
-      <c r="F71" s="178"/>
-      <c r="G71" s="178"/>
-      <c r="H71" s="178"/>
-      <c r="I71" s="178"/>
-      <c r="J71" s="178"/>
+      <c r="B71" s="195"/>
+      <c r="C71" s="195"/>
+      <c r="D71" s="195"/>
+      <c r="E71" s="195"/>
+      <c r="F71" s="195"/>
+      <c r="G71" s="195"/>
+      <c r="H71" s="195"/>
+      <c r="I71" s="195"/>
+      <c r="J71" s="195"/>
     </row>
     <row r="72" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A72" s="177" t="s">
+      <c r="A72" s="203" t="s">
         <v>402</v>
       </c>
-      <c r="B72" s="178"/>
-      <c r="C72" s="178"/>
-      <c r="D72" s="178"/>
-      <c r="E72" s="178"/>
-      <c r="F72" s="178"/>
-      <c r="G72" s="178"/>
-      <c r="H72" s="178"/>
-      <c r="I72" s="178"/>
-      <c r="J72" s="178"/>
+      <c r="B72" s="195"/>
+      <c r="C72" s="195"/>
+      <c r="D72" s="195"/>
+      <c r="E72" s="195"/>
+      <c r="F72" s="195"/>
+      <c r="G72" s="195"/>
+      <c r="H72" s="195"/>
+      <c r="I72" s="195"/>
+      <c r="J72" s="195"/>
     </row>
     <row r="73" spans="1:10" ht="76.5" customHeight="1">
-      <c r="A73" s="177" t="s">
+      <c r="A73" s="203" t="s">
         <v>403</v>
       </c>
-      <c r="B73" s="178"/>
-      <c r="C73" s="178"/>
-      <c r="D73" s="178"/>
-      <c r="E73" s="178"/>
-      <c r="F73" s="178"/>
-      <c r="G73" s="178"/>
-      <c r="H73" s="178"/>
-      <c r="I73" s="178"/>
-      <c r="J73" s="178"/>
+      <c r="B73" s="195"/>
+      <c r="C73" s="195"/>
+      <c r="D73" s="195"/>
+      <c r="E73" s="195"/>
+      <c r="F73" s="195"/>
+      <c r="G73" s="195"/>
+      <c r="H73" s="195"/>
+      <c r="I73" s="195"/>
+      <c r="J73" s="195"/>
     </row>
     <row r="74" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A74" s="177" t="s">
+      <c r="A74" s="203" t="s">
         <v>404</v>
       </c>
-      <c r="B74" s="178"/>
-      <c r="C74" s="178"/>
-      <c r="D74" s="178"/>
-      <c r="E74" s="178"/>
-      <c r="F74" s="178"/>
-      <c r="G74" s="178"/>
-      <c r="H74" s="178"/>
-      <c r="I74" s="178"/>
-      <c r="J74" s="178"/>
+      <c r="B74" s="195"/>
+      <c r="C74" s="195"/>
+      <c r="D74" s="195"/>
+      <c r="E74" s="195"/>
+      <c r="F74" s="195"/>
+      <c r="G74" s="195"/>
+      <c r="H74" s="195"/>
+      <c r="I74" s="195"/>
+      <c r="J74" s="195"/>
     </row>
     <row r="75" spans="1:10" ht="48" customHeight="1">
-      <c r="A75" s="177" t="s">
+      <c r="A75" s="203" t="s">
         <v>405</v>
       </c>
-      <c r="B75" s="178"/>
-      <c r="C75" s="178"/>
-      <c r="D75" s="178"/>
-      <c r="E75" s="178"/>
-      <c r="F75" s="178"/>
-      <c r="G75" s="178"/>
-      <c r="H75" s="178"/>
-      <c r="I75" s="178"/>
-      <c r="J75" s="178"/>
+      <c r="B75" s="195"/>
+      <c r="C75" s="195"/>
+      <c r="D75" s="195"/>
+      <c r="E75" s="195"/>
+      <c r="F75" s="195"/>
+      <c r="G75" s="195"/>
+      <c r="H75" s="195"/>
+      <c r="I75" s="195"/>
+      <c r="J75" s="195"/>
     </row>
     <row r="76" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A76" s="177" t="s">
+      <c r="A76" s="203" t="s">
         <v>406</v>
       </c>
-      <c r="B76" s="178"/>
-      <c r="C76" s="178"/>
-      <c r="D76" s="178"/>
-      <c r="E76" s="178"/>
-      <c r="F76" s="178"/>
-      <c r="G76" s="178"/>
-      <c r="H76" s="178"/>
-      <c r="I76" s="178"/>
-      <c r="J76" s="178"/>
+      <c r="B76" s="195"/>
+      <c r="C76" s="195"/>
+      <c r="D76" s="195"/>
+      <c r="E76" s="195"/>
+      <c r="F76" s="195"/>
+      <c r="G76" s="195"/>
+      <c r="H76" s="195"/>
+      <c r="I76" s="195"/>
+      <c r="J76" s="195"/>
     </row>
     <row r="77" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A77" s="177" t="s">
+      <c r="A77" s="203" t="s">
         <v>407</v>
       </c>
-      <c r="B77" s="178"/>
-      <c r="C77" s="178"/>
-      <c r="D77" s="178"/>
-      <c r="E77" s="178"/>
-      <c r="F77" s="178"/>
-      <c r="G77" s="178"/>
-      <c r="H77" s="178"/>
-      <c r="I77" s="178"/>
-      <c r="J77" s="178"/>
+      <c r="B77" s="195"/>
+      <c r="C77" s="195"/>
+      <c r="D77" s="195"/>
+      <c r="E77" s="195"/>
+      <c r="F77" s="195"/>
+      <c r="G77" s="195"/>
+      <c r="H77" s="195"/>
+      <c r="I77" s="195"/>
+      <c r="J77" s="195"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="A45:L45"/>
     <mergeCell ref="A46:L46"/>
     <mergeCell ref="A47:J47"/>
@@ -20207,26 +20222,11 @@
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A53:J53"/>
     <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A68:J68"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="A72:J72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20254,61 +20254,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.25">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="206" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="215"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="208"/>
     </row>
     <row r="2" spans="1:12" ht="13.15">
-      <c r="A2" s="216"/>
+      <c r="A2" s="209"/>
       <c r="B2" s="122"/>
-      <c r="C2" s="219" t="s">
+      <c r="C2" s="212" t="s">
         <v>327</v>
       </c>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="222" t="s">
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="215" t="s">
         <v>328</v>
       </c>
-      <c r="I2" s="222" t="s">
+      <c r="I2" s="215" t="s">
         <v>329</v>
       </c>
-      <c r="J2" s="225" t="s">
+      <c r="J2" s="218" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="34.9">
-      <c r="A3" s="217"/>
+      <c r="A3" s="210"/>
       <c r="B3" s="121" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="117" t="s">
         <v>359</v>
       </c>
-      <c r="D3" s="228" t="s">
+      <c r="D3" s="221" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="229"/>
-      <c r="F3" s="222" t="s">
+      <c r="E3" s="222"/>
+      <c r="F3" s="215" t="s">
         <v>291</v>
       </c>
-      <c r="G3" s="230"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="226"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="219"/>
     </row>
     <row r="4" spans="1:12" ht="21">
-      <c r="A4" s="218"/>
+      <c r="A4" s="211"/>
       <c r="B4" s="123"/>
       <c r="C4" s="7"/>
       <c r="D4" s="17" t="s">
@@ -20323,9 +20323,9 @@
       <c r="G4" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="H4" s="224"/>
-      <c r="I4" s="224"/>
-      <c r="J4" s="227"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="217"/>
+      <c r="J4" s="220"/>
       <c r="L4" s="128" t="s">
         <v>370</v>
       </c>
@@ -21563,140 +21563,140 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="13.15">
-      <c r="A45" s="208" t="s">
+      <c r="A45" s="226" t="s">
         <v>373</v>
       </c>
-      <c r="B45" s="208"/>
-      <c r="C45" s="208"/>
-      <c r="D45" s="208"/>
-      <c r="E45" s="208"/>
-      <c r="F45" s="208"/>
-      <c r="G45" s="208"/>
-      <c r="H45" s="208"/>
-      <c r="I45" s="208"/>
-      <c r="J45" s="208"/>
-      <c r="K45" s="208"/>
-      <c r="L45" s="209"/>
+      <c r="B45" s="226"/>
+      <c r="C45" s="226"/>
+      <c r="D45" s="226"/>
+      <c r="E45" s="226"/>
+      <c r="F45" s="226"/>
+      <c r="G45" s="226"/>
+      <c r="H45" s="226"/>
+      <c r="I45" s="226"/>
+      <c r="J45" s="226"/>
+      <c r="K45" s="226"/>
+      <c r="L45" s="227"/>
     </row>
     <row r="46" spans="1:12" ht="13.15">
-      <c r="A46" s="210" t="s">
+      <c r="A46" s="228" t="s">
         <v>366</v>
       </c>
-      <c r="B46" s="208"/>
-      <c r="C46" s="208"/>
-      <c r="D46" s="208"/>
-      <c r="E46" s="208"/>
-      <c r="F46" s="208"/>
-      <c r="G46" s="208"/>
-      <c r="H46" s="208"/>
-      <c r="I46" s="208"/>
-      <c r="J46" s="208"/>
-      <c r="K46" s="208"/>
-      <c r="L46" s="209"/>
+      <c r="B46" s="226"/>
+      <c r="C46" s="226"/>
+      <c r="D46" s="226"/>
+      <c r="E46" s="226"/>
+      <c r="F46" s="226"/>
+      <c r="G46" s="226"/>
+      <c r="H46" s="226"/>
+      <c r="I46" s="226"/>
+      <c r="J46" s="226"/>
+      <c r="K46" s="226"/>
+      <c r="L46" s="227"/>
     </row>
     <row r="47" spans="1:12" ht="153.94999999999999" customHeight="1">
-      <c r="A47" s="211" t="s">
+      <c r="A47" s="229" t="s">
         <v>375</v>
       </c>
-      <c r="B47" s="212"/>
-      <c r="C47" s="212"/>
-      <c r="D47" s="212"/>
-      <c r="E47" s="212"/>
-      <c r="F47" s="212"/>
-      <c r="G47" s="212"/>
-      <c r="H47" s="212"/>
-      <c r="I47" s="212"/>
-      <c r="J47" s="212"/>
+      <c r="B47" s="230"/>
+      <c r="C47" s="230"/>
+      <c r="D47" s="230"/>
+      <c r="E47" s="230"/>
+      <c r="F47" s="230"/>
+      <c r="G47" s="230"/>
+      <c r="H47" s="230"/>
+      <c r="I47" s="230"/>
+      <c r="J47" s="230"/>
       <c r="L47" s="132"/>
     </row>
     <row r="48" spans="1:12" ht="29.1" customHeight="1">
-      <c r="A48" s="207" t="s">
+      <c r="A48" s="225" t="s">
         <v>376</v>
       </c>
-      <c r="B48" s="207"/>
-      <c r="C48" s="207"/>
-      <c r="D48" s="207"/>
-      <c r="E48" s="207"/>
-      <c r="F48" s="207"/>
-      <c r="G48" s="207"/>
-      <c r="H48" s="207"/>
-      <c r="I48" s="207"/>
-      <c r="J48" s="207"/>
+      <c r="B48" s="225"/>
+      <c r="C48" s="225"/>
+      <c r="D48" s="225"/>
+      <c r="E48" s="225"/>
+      <c r="F48" s="225"/>
+      <c r="G48" s="225"/>
+      <c r="H48" s="225"/>
+      <c r="I48" s="225"/>
+      <c r="J48" s="225"/>
       <c r="L48" s="146"/>
     </row>
     <row r="49" spans="1:12" ht="29.1" customHeight="1">
-      <c r="A49" s="207" t="s">
+      <c r="A49" s="225" t="s">
         <v>377</v>
       </c>
-      <c r="B49" s="207"/>
-      <c r="C49" s="207"/>
-      <c r="D49" s="207"/>
-      <c r="E49" s="207"/>
-      <c r="F49" s="207"/>
-      <c r="G49" s="207"/>
-      <c r="H49" s="207"/>
-      <c r="I49" s="207"/>
-      <c r="J49" s="207"/>
+      <c r="B49" s="225"/>
+      <c r="C49" s="225"/>
+      <c r="D49" s="225"/>
+      <c r="E49" s="225"/>
+      <c r="F49" s="225"/>
+      <c r="G49" s="225"/>
+      <c r="H49" s="225"/>
+      <c r="I49" s="225"/>
+      <c r="J49" s="225"/>
       <c r="L49" s="146"/>
     </row>
     <row r="50" spans="1:12" ht="18" customHeight="1">
-      <c r="A50" s="207" t="s">
+      <c r="A50" s="225" t="s">
         <v>378</v>
       </c>
-      <c r="B50" s="207"/>
-      <c r="C50" s="207"/>
-      <c r="D50" s="207"/>
-      <c r="E50" s="207"/>
-      <c r="F50" s="207"/>
-      <c r="G50" s="207"/>
-      <c r="H50" s="207"/>
-      <c r="I50" s="207"/>
-      <c r="J50" s="207"/>
+      <c r="B50" s="225"/>
+      <c r="C50" s="225"/>
+      <c r="D50" s="225"/>
+      <c r="E50" s="225"/>
+      <c r="F50" s="225"/>
+      <c r="G50" s="225"/>
+      <c r="H50" s="225"/>
+      <c r="I50" s="225"/>
+      <c r="J50" s="225"/>
       <c r="L50" s="146"/>
     </row>
     <row r="51" spans="1:12" ht="18" customHeight="1">
-      <c r="A51" s="207" t="s">
+      <c r="A51" s="225" t="s">
         <v>336</v>
       </c>
-      <c r="B51" s="207"/>
-      <c r="C51" s="207"/>
-      <c r="D51" s="207"/>
-      <c r="E51" s="207"/>
-      <c r="F51" s="207"/>
-      <c r="G51" s="207"/>
-      <c r="H51" s="207"/>
-      <c r="I51" s="207"/>
-      <c r="J51" s="207"/>
+      <c r="B51" s="225"/>
+      <c r="C51" s="225"/>
+      <c r="D51" s="225"/>
+      <c r="E51" s="225"/>
+      <c r="F51" s="225"/>
+      <c r="G51" s="225"/>
+      <c r="H51" s="225"/>
+      <c r="I51" s="225"/>
+      <c r="J51" s="225"/>
       <c r="L51" s="146"/>
     </row>
     <row r="52" spans="1:12" ht="42" customHeight="1">
-      <c r="A52" s="207" t="s">
+      <c r="A52" s="225" t="s">
         <v>379</v>
       </c>
-      <c r="B52" s="207"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="207"/>
-      <c r="E52" s="207"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="207"/>
-      <c r="H52" s="207"/>
-      <c r="I52" s="207"/>
-      <c r="J52" s="207"/>
+      <c r="B52" s="225"/>
+      <c r="C52" s="225"/>
+      <c r="D52" s="225"/>
+      <c r="E52" s="225"/>
+      <c r="F52" s="225"/>
+      <c r="G52" s="225"/>
+      <c r="H52" s="225"/>
+      <c r="I52" s="225"/>
+      <c r="J52" s="225"/>
       <c r="L52" s="146"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="206" t="s">
+      <c r="A53" s="224" t="s">
         <v>380</v>
       </c>
-      <c r="B53" s="206"/>
-      <c r="C53" s="206"/>
-      <c r="D53" s="206"/>
-      <c r="E53" s="206"/>
-      <c r="F53" s="206"/>
-      <c r="G53" s="206"/>
-      <c r="H53" s="206"/>
-      <c r="I53" s="206"/>
-      <c r="J53" s="206"/>
+      <c r="B53" s="224"/>
+      <c r="C53" s="224"/>
+      <c r="D53" s="224"/>
+      <c r="E53" s="224"/>
+      <c r="F53" s="224"/>
+      <c r="G53" s="224"/>
+      <c r="H53" s="224"/>
+      <c r="I53" s="224"/>
+      <c r="J53" s="224"/>
     </row>
     <row r="54" spans="1:12" ht="28.5" customHeight="1">
       <c r="A54" s="138"/>
@@ -21976,14 +21976,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="A53:J53"/>
     <mergeCell ref="A49:J49"/>
     <mergeCell ref="A50:J50"/>
@@ -21993,6 +21985,14 @@
     <mergeCell ref="A52:J52"/>
     <mergeCell ref="A51:J51"/>
     <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A53:J53" r:id="rId1" location="boxsection-d1e25511" display="* Country notes: " xr:uid="{F86694E5-4C12-4655-A117-80FA7D075AC1}"/>
@@ -22018,61 +22018,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.25">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="206" t="s">
         <v>361</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="215"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="208"/>
     </row>
     <row r="2" spans="1:12" ht="13.15">
-      <c r="A2" s="216"/>
+      <c r="A2" s="209"/>
       <c r="B2" s="122"/>
-      <c r="C2" s="219" t="s">
+      <c r="C2" s="212" t="s">
         <v>327</v>
       </c>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="222" t="s">
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="215" t="s">
         <v>328</v>
       </c>
-      <c r="I2" s="222" t="s">
+      <c r="I2" s="215" t="s">
         <v>329</v>
       </c>
-      <c r="J2" s="225" t="s">
+      <c r="J2" s="218" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="34.9">
-      <c r="A3" s="217"/>
+      <c r="A3" s="210"/>
       <c r="B3" s="121" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="117" t="s">
         <v>359</v>
       </c>
-      <c r="D3" s="228" t="s">
+      <c r="D3" s="221" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="229"/>
-      <c r="F3" s="222" t="s">
+      <c r="E3" s="222"/>
+      <c r="F3" s="215" t="s">
         <v>291</v>
       </c>
-      <c r="G3" s="230"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="226"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="219"/>
     </row>
     <row r="4" spans="1:12" ht="21">
-      <c r="A4" s="218"/>
+      <c r="A4" s="211"/>
       <c r="B4" s="123"/>
       <c r="C4" s="7"/>
       <c r="D4" s="17" t="s">
@@ -22087,9 +22087,9 @@
       <c r="G4" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="H4" s="224"/>
-      <c r="I4" s="224"/>
-      <c r="J4" s="227"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="217"/>
+      <c r="J4" s="220"/>
       <c r="L4" s="128" t="s">
         <v>363</v>
       </c>
@@ -23306,31 +23306,31 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="13.15">
-      <c r="A44" s="211" t="s">
+      <c r="A44" s="229" t="s">
         <v>365</v>
       </c>
-      <c r="B44" s="212"/>
-      <c r="C44" s="212"/>
-      <c r="D44" s="212"/>
-      <c r="E44" s="212"/>
-      <c r="F44" s="212"/>
-      <c r="G44" s="212"/>
-      <c r="H44" s="212"/>
-      <c r="I44" s="212"/>
-      <c r="J44" s="212"/>
+      <c r="B44" s="230"/>
+      <c r="C44" s="230"/>
+      <c r="D44" s="230"/>
+      <c r="E44" s="230"/>
+      <c r="F44" s="230"/>
+      <c r="G44" s="230"/>
+      <c r="H44" s="230"/>
+      <c r="I44" s="230"/>
+      <c r="J44" s="230"/>
       <c r="L44" s="132"/>
     </row>
     <row r="45" spans="1:12" ht="13.15">
-      <c r="A45" s="208"/>
-      <c r="B45" s="208"/>
-      <c r="C45" s="208"/>
-      <c r="D45" s="208"/>
-      <c r="E45" s="208"/>
-      <c r="F45" s="208"/>
-      <c r="G45" s="208"/>
-      <c r="H45" s="208"/>
-      <c r="I45" s="208"/>
-      <c r="J45" s="208"/>
+      <c r="A45" s="226"/>
+      <c r="B45" s="226"/>
+      <c r="C45" s="226"/>
+      <c r="D45" s="226"/>
+      <c r="E45" s="226"/>
+      <c r="F45" s="226"/>
+      <c r="G45" s="226"/>
+      <c r="H45" s="226"/>
+      <c r="I45" s="226"/>
+      <c r="J45" s="226"/>
       <c r="L45" s="129"/>
     </row>
     <row r="46" spans="1:12" ht="13.15">
@@ -23345,341 +23345,319 @@
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="13.15">
-      <c r="A47" s="233"/>
-      <c r="B47" s="233"/>
-      <c r="C47" s="233"/>
-      <c r="D47" s="233"/>
-      <c r="E47" s="233"/>
-      <c r="F47" s="233"/>
-      <c r="G47" s="233"/>
-      <c r="H47" s="233"/>
-      <c r="I47" s="233"/>
-      <c r="J47" s="233"/>
+      <c r="A47" s="237"/>
+      <c r="B47" s="237"/>
+      <c r="C47" s="237"/>
+      <c r="D47" s="237"/>
+      <c r="E47" s="237"/>
+      <c r="F47" s="237"/>
+      <c r="G47" s="237"/>
+      <c r="H47" s="237"/>
+      <c r="I47" s="237"/>
+      <c r="J47" s="237"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="231"/>
-      <c r="B48" s="232"/>
-      <c r="C48" s="232"/>
-      <c r="D48" s="232"/>
-      <c r="E48" s="232"/>
-      <c r="F48" s="232"/>
-      <c r="G48" s="232"/>
-      <c r="H48" s="232"/>
-      <c r="I48" s="232"/>
-      <c r="J48" s="232"/>
+      <c r="A48" s="232"/>
+      <c r="B48" s="235"/>
+      <c r="C48" s="235"/>
+      <c r="D48" s="235"/>
+      <c r="E48" s="235"/>
+      <c r="F48" s="235"/>
+      <c r="G48" s="235"/>
+      <c r="H48" s="235"/>
+      <c r="I48" s="235"/>
+      <c r="J48" s="235"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="231"/>
-      <c r="B49" s="232"/>
-      <c r="C49" s="232"/>
-      <c r="D49" s="232"/>
-      <c r="E49" s="232"/>
-      <c r="F49" s="232"/>
-      <c r="G49" s="232"/>
-      <c r="H49" s="232"/>
-      <c r="I49" s="232"/>
-      <c r="J49" s="232"/>
+      <c r="A49" s="232"/>
+      <c r="B49" s="235"/>
+      <c r="C49" s="235"/>
+      <c r="D49" s="235"/>
+      <c r="E49" s="235"/>
+      <c r="F49" s="235"/>
+      <c r="G49" s="235"/>
+      <c r="H49" s="235"/>
+      <c r="I49" s="235"/>
+      <c r="J49" s="235"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="231"/>
-      <c r="B50" s="232"/>
-      <c r="C50" s="232"/>
-      <c r="D50" s="232"/>
-      <c r="E50" s="232"/>
-      <c r="F50" s="232"/>
-      <c r="G50" s="232"/>
-      <c r="H50" s="232"/>
-      <c r="I50" s="232"/>
-      <c r="J50" s="232"/>
+      <c r="A50" s="232"/>
+      <c r="B50" s="235"/>
+      <c r="C50" s="235"/>
+      <c r="D50" s="235"/>
+      <c r="E50" s="235"/>
+      <c r="F50" s="235"/>
+      <c r="G50" s="235"/>
+      <c r="H50" s="235"/>
+      <c r="I50" s="235"/>
+      <c r="J50" s="235"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="231"/>
-      <c r="B51" s="232"/>
-      <c r="C51" s="232"/>
-      <c r="D51" s="232"/>
-      <c r="E51" s="232"/>
-      <c r="F51" s="232"/>
-      <c r="G51" s="232"/>
-      <c r="H51" s="232"/>
-      <c r="I51" s="232"/>
-      <c r="J51" s="232"/>
+      <c r="A51" s="232"/>
+      <c r="B51" s="235"/>
+      <c r="C51" s="235"/>
+      <c r="D51" s="235"/>
+      <c r="E51" s="235"/>
+      <c r="F51" s="235"/>
+      <c r="G51" s="235"/>
+      <c r="H51" s="235"/>
+      <c r="I51" s="235"/>
+      <c r="J51" s="235"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="231"/>
-      <c r="B52" s="232"/>
-      <c r="C52" s="232"/>
-      <c r="D52" s="232"/>
-      <c r="E52" s="232"/>
-      <c r="F52" s="232"/>
-      <c r="G52" s="232"/>
-      <c r="H52" s="232"/>
-      <c r="I52" s="232"/>
-      <c r="J52" s="232"/>
+      <c r="A52" s="232"/>
+      <c r="B52" s="235"/>
+      <c r="C52" s="235"/>
+      <c r="D52" s="235"/>
+      <c r="E52" s="235"/>
+      <c r="F52" s="235"/>
+      <c r="G52" s="235"/>
+      <c r="H52" s="235"/>
+      <c r="I52" s="235"/>
+      <c r="J52" s="235"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="235"/>
-      <c r="B53" s="235"/>
-      <c r="C53" s="235"/>
-      <c r="D53" s="235"/>
-      <c r="E53" s="235"/>
-      <c r="F53" s="235"/>
-      <c r="G53" s="235"/>
-      <c r="H53" s="235"/>
-      <c r="I53" s="235"/>
-      <c r="J53" s="235"/>
+      <c r="A53" s="236"/>
+      <c r="B53" s="236"/>
+      <c r="C53" s="236"/>
+      <c r="D53" s="236"/>
+      <c r="E53" s="236"/>
+      <c r="F53" s="236"/>
+      <c r="G53" s="236"/>
+      <c r="H53" s="236"/>
+      <c r="I53" s="236"/>
+      <c r="J53" s="236"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="234"/>
-      <c r="B54" s="234"/>
-      <c r="C54" s="234"/>
-      <c r="D54" s="234"/>
-      <c r="E54" s="234"/>
-      <c r="F54" s="234"/>
-      <c r="G54" s="234"/>
-      <c r="H54" s="234"/>
-      <c r="I54" s="234"/>
-      <c r="J54" s="234"/>
+      <c r="A54" s="231"/>
+      <c r="B54" s="231"/>
+      <c r="C54" s="231"/>
+      <c r="D54" s="231"/>
+      <c r="E54" s="231"/>
+      <c r="F54" s="231"/>
+      <c r="G54" s="231"/>
+      <c r="H54" s="231"/>
+      <c r="I54" s="231"/>
+      <c r="J54" s="231"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="234"/>
-      <c r="B55" s="234"/>
-      <c r="C55" s="234"/>
-      <c r="D55" s="234"/>
-      <c r="E55" s="234"/>
-      <c r="F55" s="234"/>
-      <c r="G55" s="234"/>
-      <c r="H55" s="234"/>
-      <c r="I55" s="234"/>
-      <c r="J55" s="234"/>
+      <c r="A55" s="231"/>
+      <c r="B55" s="231"/>
+      <c r="C55" s="231"/>
+      <c r="D55" s="231"/>
+      <c r="E55" s="231"/>
+      <c r="F55" s="231"/>
+      <c r="G55" s="231"/>
+      <c r="H55" s="231"/>
+      <c r="I55" s="231"/>
+      <c r="J55" s="231"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="234"/>
-      <c r="B56" s="234"/>
-      <c r="C56" s="234"/>
-      <c r="D56" s="234"/>
-      <c r="E56" s="234"/>
-      <c r="F56" s="234"/>
-      <c r="G56" s="234"/>
-      <c r="H56" s="234"/>
-      <c r="I56" s="234"/>
-      <c r="J56" s="234"/>
+      <c r="A56" s="231"/>
+      <c r="B56" s="231"/>
+      <c r="C56" s="231"/>
+      <c r="D56" s="231"/>
+      <c r="E56" s="231"/>
+      <c r="F56" s="231"/>
+      <c r="G56" s="231"/>
+      <c r="H56" s="231"/>
+      <c r="I56" s="231"/>
+      <c r="J56" s="231"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="234"/>
-      <c r="B57" s="234"/>
-      <c r="C57" s="234"/>
-      <c r="D57" s="234"/>
-      <c r="E57" s="234"/>
-      <c r="F57" s="234"/>
-      <c r="G57" s="234"/>
-      <c r="H57" s="234"/>
-      <c r="I57" s="234"/>
-      <c r="J57" s="234"/>
+      <c r="A57" s="231"/>
+      <c r="B57" s="231"/>
+      <c r="C57" s="231"/>
+      <c r="D57" s="231"/>
+      <c r="E57" s="231"/>
+      <c r="F57" s="231"/>
+      <c r="G57" s="231"/>
+      <c r="H57" s="231"/>
+      <c r="I57" s="231"/>
+      <c r="J57" s="231"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="234"/>
-      <c r="B58" s="234"/>
-      <c r="C58" s="234"/>
-      <c r="D58" s="234"/>
-      <c r="E58" s="234"/>
-      <c r="F58" s="234"/>
-      <c r="G58" s="234"/>
-      <c r="H58" s="234"/>
-      <c r="I58" s="234"/>
-      <c r="J58" s="234"/>
+      <c r="A58" s="231"/>
+      <c r="B58" s="231"/>
+      <c r="C58" s="231"/>
+      <c r="D58" s="231"/>
+      <c r="E58" s="231"/>
+      <c r="F58" s="231"/>
+      <c r="G58" s="231"/>
+      <c r="H58" s="231"/>
+      <c r="I58" s="231"/>
+      <c r="J58" s="231"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="234"/>
-      <c r="B59" s="234"/>
-      <c r="C59" s="234"/>
-      <c r="D59" s="234"/>
-      <c r="E59" s="234"/>
-      <c r="F59" s="234"/>
-      <c r="G59" s="234"/>
-      <c r="H59" s="234"/>
-      <c r="I59" s="234"/>
-      <c r="J59" s="234"/>
+      <c r="A59" s="231"/>
+      <c r="B59" s="231"/>
+      <c r="C59" s="231"/>
+      <c r="D59" s="231"/>
+      <c r="E59" s="231"/>
+      <c r="F59" s="231"/>
+      <c r="G59" s="231"/>
+      <c r="H59" s="231"/>
+      <c r="I59" s="231"/>
+      <c r="J59" s="231"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="234"/>
-      <c r="B60" s="234"/>
-      <c r="C60" s="234"/>
-      <c r="D60" s="234"/>
-      <c r="E60" s="234"/>
-      <c r="F60" s="234"/>
-      <c r="G60" s="234"/>
-      <c r="H60" s="234"/>
-      <c r="I60" s="234"/>
-      <c r="J60" s="234"/>
+      <c r="A60" s="231"/>
+      <c r="B60" s="231"/>
+      <c r="C60" s="231"/>
+      <c r="D60" s="231"/>
+      <c r="E60" s="231"/>
+      <c r="F60" s="231"/>
+      <c r="G60" s="231"/>
+      <c r="H60" s="231"/>
+      <c r="I60" s="231"/>
+      <c r="J60" s="231"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="234"/>
-      <c r="B61" s="234"/>
-      <c r="C61" s="234"/>
-      <c r="D61" s="234"/>
-      <c r="E61" s="234"/>
-      <c r="F61" s="234"/>
-      <c r="G61" s="234"/>
-      <c r="H61" s="234"/>
-      <c r="I61" s="234"/>
-      <c r="J61" s="234"/>
+      <c r="A61" s="231"/>
+      <c r="B61" s="231"/>
+      <c r="C61" s="231"/>
+      <c r="D61" s="231"/>
+      <c r="E61" s="231"/>
+      <c r="F61" s="231"/>
+      <c r="G61" s="231"/>
+      <c r="H61" s="231"/>
+      <c r="I61" s="231"/>
+      <c r="J61" s="231"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="234"/>
-      <c r="B62" s="234"/>
-      <c r="C62" s="234"/>
-      <c r="D62" s="234"/>
-      <c r="E62" s="234"/>
-      <c r="F62" s="234"/>
-      <c r="G62" s="234"/>
-      <c r="H62" s="234"/>
-      <c r="I62" s="234"/>
-      <c r="J62" s="234"/>
+      <c r="A62" s="231"/>
+      <c r="B62" s="231"/>
+      <c r="C62" s="231"/>
+      <c r="D62" s="231"/>
+      <c r="E62" s="231"/>
+      <c r="F62" s="231"/>
+      <c r="G62" s="231"/>
+      <c r="H62" s="231"/>
+      <c r="I62" s="231"/>
+      <c r="J62" s="231"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="234"/>
-      <c r="B63" s="234"/>
-      <c r="C63" s="234"/>
-      <c r="D63" s="234"/>
-      <c r="E63" s="234"/>
-      <c r="F63" s="234"/>
-      <c r="G63" s="234"/>
-      <c r="H63" s="234"/>
-      <c r="I63" s="234"/>
-      <c r="J63" s="234"/>
+      <c r="A63" s="231"/>
+      <c r="B63" s="231"/>
+      <c r="C63" s="231"/>
+      <c r="D63" s="231"/>
+      <c r="E63" s="231"/>
+      <c r="F63" s="231"/>
+      <c r="G63" s="231"/>
+      <c r="H63" s="231"/>
+      <c r="I63" s="231"/>
+      <c r="J63" s="231"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="231"/>
-      <c r="B64" s="231"/>
-      <c r="C64" s="231"/>
-      <c r="D64" s="231"/>
-      <c r="E64" s="231"/>
-      <c r="F64" s="231"/>
-      <c r="G64" s="231"/>
-      <c r="H64" s="231"/>
-      <c r="I64" s="231"/>
-      <c r="J64" s="231"/>
+      <c r="A64" s="232"/>
+      <c r="B64" s="232"/>
+      <c r="C64" s="232"/>
+      <c r="D64" s="232"/>
+      <c r="E64" s="232"/>
+      <c r="F64" s="232"/>
+      <c r="G64" s="232"/>
+      <c r="H64" s="232"/>
+      <c r="I64" s="232"/>
+      <c r="J64" s="232"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="234"/>
-      <c r="B65" s="234"/>
-      <c r="C65" s="234"/>
-      <c r="D65" s="234"/>
-      <c r="E65" s="234"/>
-      <c r="F65" s="234"/>
-      <c r="G65" s="234"/>
-      <c r="H65" s="234"/>
-      <c r="I65" s="234"/>
-      <c r="J65" s="234"/>
+      <c r="A65" s="231"/>
+      <c r="B65" s="231"/>
+      <c r="C65" s="231"/>
+      <c r="D65" s="231"/>
+      <c r="E65" s="231"/>
+      <c r="F65" s="231"/>
+      <c r="G65" s="231"/>
+      <c r="H65" s="231"/>
+      <c r="I65" s="231"/>
+      <c r="J65" s="231"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="237"/>
-      <c r="B66" s="237"/>
-      <c r="C66" s="237"/>
-      <c r="D66" s="237"/>
-      <c r="E66" s="237"/>
-      <c r="F66" s="237"/>
-      <c r="G66" s="237"/>
-      <c r="H66" s="237"/>
-      <c r="I66" s="237"/>
-      <c r="J66" s="237"/>
+      <c r="A66" s="234"/>
+      <c r="B66" s="234"/>
+      <c r="C66" s="234"/>
+      <c r="D66" s="234"/>
+      <c r="E66" s="234"/>
+      <c r="F66" s="234"/>
+      <c r="G66" s="234"/>
+      <c r="H66" s="234"/>
+      <c r="I66" s="234"/>
+      <c r="J66" s="234"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="234"/>
-      <c r="B67" s="234"/>
-      <c r="C67" s="234"/>
-      <c r="D67" s="234"/>
-      <c r="E67" s="234"/>
-      <c r="F67" s="234"/>
-      <c r="G67" s="234"/>
-      <c r="H67" s="234"/>
-      <c r="I67" s="234"/>
-      <c r="J67" s="234"/>
+      <c r="A67" s="231"/>
+      <c r="B67" s="231"/>
+      <c r="C67" s="231"/>
+      <c r="D67" s="231"/>
+      <c r="E67" s="231"/>
+      <c r="F67" s="231"/>
+      <c r="G67" s="231"/>
+      <c r="H67" s="231"/>
+      <c r="I67" s="231"/>
+      <c r="J67" s="231"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="234"/>
-      <c r="B68" s="234"/>
-      <c r="C68" s="234"/>
-      <c r="D68" s="234"/>
-      <c r="E68" s="234"/>
-      <c r="F68" s="234"/>
-      <c r="G68" s="234"/>
-      <c r="H68" s="234"/>
-      <c r="I68" s="234"/>
-      <c r="J68" s="234"/>
+      <c r="A68" s="231"/>
+      <c r="B68" s="231"/>
+      <c r="C68" s="231"/>
+      <c r="D68" s="231"/>
+      <c r="E68" s="231"/>
+      <c r="F68" s="231"/>
+      <c r="G68" s="231"/>
+      <c r="H68" s="231"/>
+      <c r="I68" s="231"/>
+      <c r="J68" s="231"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="234"/>
-      <c r="B69" s="234"/>
-      <c r="C69" s="234"/>
-      <c r="D69" s="234"/>
-      <c r="E69" s="234"/>
-      <c r="F69" s="234"/>
-      <c r="G69" s="234"/>
-      <c r="H69" s="234"/>
-      <c r="I69" s="234"/>
-      <c r="J69" s="234"/>
+      <c r="A69" s="231"/>
+      <c r="B69" s="231"/>
+      <c r="C69" s="231"/>
+      <c r="D69" s="231"/>
+      <c r="E69" s="231"/>
+      <c r="F69" s="231"/>
+      <c r="G69" s="231"/>
+      <c r="H69" s="231"/>
+      <c r="I69" s="231"/>
+      <c r="J69" s="231"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="231"/>
-      <c r="B70" s="231"/>
-      <c r="C70" s="231"/>
-      <c r="D70" s="231"/>
-      <c r="E70" s="231"/>
-      <c r="F70" s="231"/>
-      <c r="G70" s="231"/>
-      <c r="H70" s="231"/>
-      <c r="I70" s="231"/>
-      <c r="J70" s="231"/>
+      <c r="A70" s="232"/>
+      <c r="B70" s="232"/>
+      <c r="C70" s="232"/>
+      <c r="D70" s="232"/>
+      <c r="E70" s="232"/>
+      <c r="F70" s="232"/>
+      <c r="G70" s="232"/>
+      <c r="H70" s="232"/>
+      <c r="I70" s="232"/>
+      <c r="J70" s="232"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="231"/>
-      <c r="B71" s="231"/>
-      <c r="C71" s="231"/>
-      <c r="D71" s="231"/>
-      <c r="E71" s="231"/>
-      <c r="F71" s="231"/>
-      <c r="G71" s="231"/>
-      <c r="H71" s="231"/>
-      <c r="I71" s="231"/>
-      <c r="J71" s="231"/>
+      <c r="A71" s="232"/>
+      <c r="B71" s="232"/>
+      <c r="C71" s="232"/>
+      <c r="D71" s="232"/>
+      <c r="E71" s="232"/>
+      <c r="F71" s="232"/>
+      <c r="G71" s="232"/>
+      <c r="H71" s="232"/>
+      <c r="I71" s="232"/>
+      <c r="J71" s="232"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="236"/>
-      <c r="B72" s="231"/>
-      <c r="C72" s="231"/>
-      <c r="D72" s="231"/>
-      <c r="E72" s="231"/>
-      <c r="F72" s="231"/>
-      <c r="G72" s="231"/>
-      <c r="H72" s="231"/>
-      <c r="I72" s="231"/>
-      <c r="J72" s="231"/>
+      <c r="A72" s="233"/>
+      <c r="B72" s="232"/>
+      <c r="C72" s="232"/>
+      <c r="D72" s="232"/>
+      <c r="E72" s="232"/>
+      <c r="F72" s="232"/>
+      <c r="G72" s="232"/>
+      <c r="H72" s="232"/>
+      <c r="I72" s="232"/>
+      <c r="J72" s="232"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A72:J72"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="A68:J68"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="A61:J61"/>
     <mergeCell ref="A50:J50"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A4"/>
@@ -23694,6 +23672,28 @@
     <mergeCell ref="A47:J47"/>
     <mergeCell ref="A48:J48"/>
     <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="A68:J68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23723,61 +23723,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="206" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="215"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="208"/>
     </row>
     <row r="2" spans="1:14" ht="13.15">
-      <c r="A2" s="216"/>
+      <c r="A2" s="209"/>
       <c r="B2" s="122"/>
-      <c r="C2" s="219" t="s">
+      <c r="C2" s="212" t="s">
         <v>327</v>
       </c>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="222" t="s">
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="215" t="s">
         <v>328</v>
       </c>
-      <c r="I2" s="222" t="s">
+      <c r="I2" s="215" t="s">
         <v>329</v>
       </c>
-      <c r="J2" s="225" t="s">
+      <c r="J2" s="218" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="23.25">
-      <c r="A3" s="217"/>
+      <c r="A3" s="210"/>
       <c r="B3" s="121" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="117" t="s">
         <v>359</v>
       </c>
-      <c r="D3" s="228" t="s">
+      <c r="D3" s="221" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="229"/>
-      <c r="F3" s="222" t="s">
+      <c r="E3" s="222"/>
+      <c r="F3" s="215" t="s">
         <v>291</v>
       </c>
-      <c r="G3" s="230"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="226"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="219"/>
     </row>
     <row r="4" spans="1:14" ht="21">
-      <c r="A4" s="218"/>
+      <c r="A4" s="211"/>
       <c r="B4" s="123"/>
       <c r="C4" s="7"/>
       <c r="D4" s="17" t="s">
@@ -23792,9 +23792,9 @@
       <c r="G4" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="H4" s="224"/>
-      <c r="I4" s="224"/>
-      <c r="J4" s="227"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="217"/>
+      <c r="J4" s="220"/>
       <c r="L4" s="128" t="s">
         <v>326</v>
       </c>
@@ -25020,33 +25020,33 @@
       <c r="N42" s="111"/>
     </row>
     <row r="43" spans="1:14" ht="13.15">
-      <c r="A43" s="212" t="s">
+      <c r="A43" s="230" t="s">
         <v>321</v>
       </c>
-      <c r="B43" s="212"/>
-      <c r="C43" s="212"/>
-      <c r="D43" s="212"/>
-      <c r="E43" s="212"/>
-      <c r="F43" s="212"/>
-      <c r="G43" s="212"/>
-      <c r="H43" s="212"/>
-      <c r="I43" s="212"/>
-      <c r="J43" s="212"/>
+      <c r="B43" s="230"/>
+      <c r="C43" s="230"/>
+      <c r="D43" s="230"/>
+      <c r="E43" s="230"/>
+      <c r="F43" s="230"/>
+      <c r="G43" s="230"/>
+      <c r="H43" s="230"/>
+      <c r="I43" s="230"/>
+      <c r="J43" s="230"/>
       <c r="L43" s="133"/>
     </row>
     <row r="44" spans="1:14" ht="13.15">
-      <c r="A44" s="208" t="s">
+      <c r="A44" s="226" t="s">
         <v>319</v>
       </c>
-      <c r="B44" s="208"/>
-      <c r="C44" s="208"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="208"/>
-      <c r="F44" s="208"/>
-      <c r="G44" s="208"/>
-      <c r="H44" s="208"/>
-      <c r="I44" s="208"/>
-      <c r="J44" s="208"/>
+      <c r="B44" s="226"/>
+      <c r="C44" s="226"/>
+      <c r="D44" s="226"/>
+      <c r="E44" s="226"/>
+      <c r="F44" s="226"/>
+      <c r="G44" s="226"/>
+      <c r="H44" s="226"/>
+      <c r="I44" s="226"/>
+      <c r="J44" s="226"/>
       <c r="L44" s="129"/>
     </row>
     <row r="45" spans="1:14" ht="13.15">
@@ -25063,371 +25063,393 @@
       <c r="I45" s="13"/>
     </row>
     <row r="46" spans="1:14" ht="13.15">
-      <c r="A46" s="233" t="s">
+      <c r="A46" s="237" t="s">
         <v>330</v>
       </c>
-      <c r="B46" s="233"/>
-      <c r="C46" s="233"/>
-      <c r="D46" s="233"/>
-      <c r="E46" s="233"/>
-      <c r="F46" s="233"/>
-      <c r="G46" s="233"/>
-      <c r="H46" s="233"/>
-      <c r="I46" s="233"/>
-      <c r="J46" s="233"/>
+      <c r="B46" s="237"/>
+      <c r="C46" s="237"/>
+      <c r="D46" s="237"/>
+      <c r="E46" s="237"/>
+      <c r="F46" s="237"/>
+      <c r="G46" s="237"/>
+      <c r="H46" s="237"/>
+      <c r="I46" s="237"/>
+      <c r="J46" s="237"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="231" t="s">
+      <c r="A47" s="232" t="s">
         <v>331</v>
       </c>
-      <c r="B47" s="232"/>
-      <c r="C47" s="232"/>
-      <c r="D47" s="232"/>
-      <c r="E47" s="232"/>
-      <c r="F47" s="232"/>
-      <c r="G47" s="232"/>
-      <c r="H47" s="232"/>
-      <c r="I47" s="232"/>
-      <c r="J47" s="232"/>
+      <c r="B47" s="235"/>
+      <c r="C47" s="235"/>
+      <c r="D47" s="235"/>
+      <c r="E47" s="235"/>
+      <c r="F47" s="235"/>
+      <c r="G47" s="235"/>
+      <c r="H47" s="235"/>
+      <c r="I47" s="235"/>
+      <c r="J47" s="235"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="231" t="s">
+      <c r="A48" s="232" t="s">
         <v>332</v>
       </c>
-      <c r="B48" s="232"/>
-      <c r="C48" s="232"/>
-      <c r="D48" s="232"/>
-      <c r="E48" s="232"/>
-      <c r="F48" s="232"/>
-      <c r="G48" s="232"/>
-      <c r="H48" s="232"/>
-      <c r="I48" s="232"/>
-      <c r="J48" s="232"/>
+      <c r="B48" s="235"/>
+      <c r="C48" s="235"/>
+      <c r="D48" s="235"/>
+      <c r="E48" s="235"/>
+      <c r="F48" s="235"/>
+      <c r="G48" s="235"/>
+      <c r="H48" s="235"/>
+      <c r="I48" s="235"/>
+      <c r="J48" s="235"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="231" t="s">
+      <c r="A49" s="232" t="s">
         <v>334</v>
       </c>
-      <c r="B49" s="232"/>
-      <c r="C49" s="232"/>
-      <c r="D49" s="232"/>
-      <c r="E49" s="232"/>
-      <c r="F49" s="232"/>
-      <c r="G49" s="232"/>
-      <c r="H49" s="232"/>
-      <c r="I49" s="232"/>
-      <c r="J49" s="232"/>
+      <c r="B49" s="235"/>
+      <c r="C49" s="235"/>
+      <c r="D49" s="235"/>
+      <c r="E49" s="235"/>
+      <c r="F49" s="235"/>
+      <c r="G49" s="235"/>
+      <c r="H49" s="235"/>
+      <c r="I49" s="235"/>
+      <c r="J49" s="235"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="231" t="s">
+      <c r="A50" s="232" t="s">
         <v>336</v>
       </c>
-      <c r="B50" s="232"/>
-      <c r="C50" s="232"/>
-      <c r="D50" s="232"/>
-      <c r="E50" s="232"/>
-      <c r="F50" s="232"/>
-      <c r="G50" s="232"/>
-      <c r="H50" s="232"/>
-      <c r="I50" s="232"/>
-      <c r="J50" s="232"/>
+      <c r="B50" s="235"/>
+      <c r="C50" s="235"/>
+      <c r="D50" s="235"/>
+      <c r="E50" s="235"/>
+      <c r="F50" s="235"/>
+      <c r="G50" s="235"/>
+      <c r="H50" s="235"/>
+      <c r="I50" s="235"/>
+      <c r="J50" s="235"/>
     </row>
     <row r="51" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A51" s="231" t="s">
+      <c r="A51" s="232" t="s">
         <v>337</v>
       </c>
-      <c r="B51" s="232"/>
-      <c r="C51" s="232"/>
-      <c r="D51" s="232"/>
-      <c r="E51" s="232"/>
-      <c r="F51" s="232"/>
-      <c r="G51" s="232"/>
-      <c r="H51" s="232"/>
-      <c r="I51" s="232"/>
-      <c r="J51" s="232"/>
+      <c r="B51" s="235"/>
+      <c r="C51" s="235"/>
+      <c r="D51" s="235"/>
+      <c r="E51" s="235"/>
+      <c r="F51" s="235"/>
+      <c r="G51" s="235"/>
+      <c r="H51" s="235"/>
+      <c r="I51" s="235"/>
+      <c r="J51" s="235"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="235" t="s">
+      <c r="A52" s="236" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="235"/>
-      <c r="C52" s="235"/>
-      <c r="D52" s="235"/>
-      <c r="E52" s="235"/>
-      <c r="F52" s="235"/>
-      <c r="G52" s="235"/>
-      <c r="H52" s="235"/>
-      <c r="I52" s="235"/>
-      <c r="J52" s="235"/>
+      <c r="B52" s="236"/>
+      <c r="C52" s="236"/>
+      <c r="D52" s="236"/>
+      <c r="E52" s="236"/>
+      <c r="F52" s="236"/>
+      <c r="G52" s="236"/>
+      <c r="H52" s="236"/>
+      <c r="I52" s="236"/>
+      <c r="J52" s="236"/>
     </row>
     <row r="53" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A53" s="234" t="s">
+      <c r="A53" s="231" t="s">
         <v>290</v>
       </c>
-      <c r="B53" s="234"/>
-      <c r="C53" s="234"/>
-      <c r="D53" s="234"/>
-      <c r="E53" s="234"/>
-      <c r="F53" s="234"/>
-      <c r="G53" s="234"/>
-      <c r="H53" s="234"/>
-      <c r="I53" s="234"/>
-      <c r="J53" s="234"/>
+      <c r="B53" s="231"/>
+      <c r="C53" s="231"/>
+      <c r="D53" s="231"/>
+      <c r="E53" s="231"/>
+      <c r="F53" s="231"/>
+      <c r="G53" s="231"/>
+      <c r="H53" s="231"/>
+      <c r="I53" s="231"/>
+      <c r="J53" s="231"/>
     </row>
     <row r="54" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A54" s="234" t="s">
+      <c r="A54" s="231" t="s">
         <v>271</v>
       </c>
-      <c r="B54" s="234"/>
-      <c r="C54" s="234"/>
-      <c r="D54" s="234"/>
-      <c r="E54" s="234"/>
-      <c r="F54" s="234"/>
-      <c r="G54" s="234"/>
-      <c r="H54" s="234"/>
-      <c r="I54" s="234"/>
-      <c r="J54" s="234"/>
+      <c r="B54" s="231"/>
+      <c r="C54" s="231"/>
+      <c r="D54" s="231"/>
+      <c r="E54" s="231"/>
+      <c r="F54" s="231"/>
+      <c r="G54" s="231"/>
+      <c r="H54" s="231"/>
+      <c r="I54" s="231"/>
+      <c r="J54" s="231"/>
     </row>
     <row r="55" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A55" s="234" t="s">
+      <c r="A55" s="231" t="s">
         <v>282</v>
       </c>
-      <c r="B55" s="234"/>
-      <c r="C55" s="234"/>
-      <c r="D55" s="234"/>
-      <c r="E55" s="234"/>
-      <c r="F55" s="234"/>
-      <c r="G55" s="234"/>
-      <c r="H55" s="234"/>
-      <c r="I55" s="234"/>
-      <c r="J55" s="234"/>
+      <c r="B55" s="231"/>
+      <c r="C55" s="231"/>
+      <c r="D55" s="231"/>
+      <c r="E55" s="231"/>
+      <c r="F55" s="231"/>
+      <c r="G55" s="231"/>
+      <c r="H55" s="231"/>
+      <c r="I55" s="231"/>
+      <c r="J55" s="231"/>
     </row>
     <row r="56" spans="1:10" ht="36" customHeight="1">
-      <c r="A56" s="234" t="s">
+      <c r="A56" s="231" t="s">
         <v>283</v>
       </c>
-      <c r="B56" s="234"/>
-      <c r="C56" s="234"/>
-      <c r="D56" s="234"/>
-      <c r="E56" s="234"/>
-      <c r="F56" s="234"/>
-      <c r="G56" s="234"/>
-      <c r="H56" s="234"/>
-      <c r="I56" s="234"/>
-      <c r="J56" s="234"/>
+      <c r="B56" s="231"/>
+      <c r="C56" s="231"/>
+      <c r="D56" s="231"/>
+      <c r="E56" s="231"/>
+      <c r="F56" s="231"/>
+      <c r="G56" s="231"/>
+      <c r="H56" s="231"/>
+      <c r="I56" s="231"/>
+      <c r="J56" s="231"/>
     </row>
     <row r="57" spans="1:10" ht="24" customHeight="1">
-      <c r="A57" s="234" t="s">
+      <c r="A57" s="231" t="s">
         <v>270</v>
       </c>
-      <c r="B57" s="234"/>
-      <c r="C57" s="234"/>
-      <c r="D57" s="234"/>
-      <c r="E57" s="234"/>
-      <c r="F57" s="234"/>
-      <c r="G57" s="234"/>
-      <c r="H57" s="234"/>
-      <c r="I57" s="234"/>
-      <c r="J57" s="234"/>
+      <c r="B57" s="231"/>
+      <c r="C57" s="231"/>
+      <c r="D57" s="231"/>
+      <c r="E57" s="231"/>
+      <c r="F57" s="231"/>
+      <c r="G57" s="231"/>
+      <c r="H57" s="231"/>
+      <c r="I57" s="231"/>
+      <c r="J57" s="231"/>
     </row>
     <row r="58" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A58" s="234" t="s">
+      <c r="A58" s="231" t="s">
         <v>284</v>
       </c>
-      <c r="B58" s="234"/>
-      <c r="C58" s="234"/>
-      <c r="D58" s="234"/>
-      <c r="E58" s="234"/>
-      <c r="F58" s="234"/>
-      <c r="G58" s="234"/>
-      <c r="H58" s="234"/>
-      <c r="I58" s="234"/>
-      <c r="J58" s="234"/>
+      <c r="B58" s="231"/>
+      <c r="C58" s="231"/>
+      <c r="D58" s="231"/>
+      <c r="E58" s="231"/>
+      <c r="F58" s="231"/>
+      <c r="G58" s="231"/>
+      <c r="H58" s="231"/>
+      <c r="I58" s="231"/>
+      <c r="J58" s="231"/>
     </row>
     <row r="59" spans="1:10" ht="24" customHeight="1">
-      <c r="A59" s="234" t="s">
+      <c r="A59" s="231" t="s">
         <v>285</v>
       </c>
-      <c r="B59" s="234"/>
-      <c r="C59" s="234"/>
-      <c r="D59" s="234"/>
-      <c r="E59" s="234"/>
-      <c r="F59" s="234"/>
-      <c r="G59" s="234"/>
-      <c r="H59" s="234"/>
-      <c r="I59" s="234"/>
-      <c r="J59" s="234"/>
+      <c r="B59" s="231"/>
+      <c r="C59" s="231"/>
+      <c r="D59" s="231"/>
+      <c r="E59" s="231"/>
+      <c r="F59" s="231"/>
+      <c r="G59" s="231"/>
+      <c r="H59" s="231"/>
+      <c r="I59" s="231"/>
+      <c r="J59" s="231"/>
     </row>
     <row r="60" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A60" s="234" t="s">
+      <c r="A60" s="231" t="s">
         <v>272</v>
       </c>
-      <c r="B60" s="234"/>
-      <c r="C60" s="234"/>
-      <c r="D60" s="234"/>
-      <c r="E60" s="234"/>
-      <c r="F60" s="234"/>
-      <c r="G60" s="234"/>
-      <c r="H60" s="234"/>
-      <c r="I60" s="234"/>
-      <c r="J60" s="234"/>
+      <c r="B60" s="231"/>
+      <c r="C60" s="231"/>
+      <c r="D60" s="231"/>
+      <c r="E60" s="231"/>
+      <c r="F60" s="231"/>
+      <c r="G60" s="231"/>
+      <c r="H60" s="231"/>
+      <c r="I60" s="231"/>
+      <c r="J60" s="231"/>
     </row>
     <row r="61" spans="1:10" ht="10.5" customHeight="1">
-      <c r="A61" s="234" t="s">
+      <c r="A61" s="231" t="s">
         <v>286</v>
       </c>
-      <c r="B61" s="234"/>
-      <c r="C61" s="234"/>
-      <c r="D61" s="234"/>
-      <c r="E61" s="234"/>
-      <c r="F61" s="234"/>
-      <c r="G61" s="234"/>
-      <c r="H61" s="234"/>
-      <c r="I61" s="234"/>
-      <c r="J61" s="234"/>
+      <c r="B61" s="231"/>
+      <c r="C61" s="231"/>
+      <c r="D61" s="231"/>
+      <c r="E61" s="231"/>
+      <c r="F61" s="231"/>
+      <c r="G61" s="231"/>
+      <c r="H61" s="231"/>
+      <c r="I61" s="231"/>
+      <c r="J61" s="231"/>
     </row>
     <row r="62" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A62" s="234" t="s">
+      <c r="A62" s="231" t="s">
         <v>293</v>
       </c>
-      <c r="B62" s="234"/>
-      <c r="C62" s="234"/>
-      <c r="D62" s="234"/>
-      <c r="E62" s="234"/>
-      <c r="F62" s="234"/>
-      <c r="G62" s="234"/>
-      <c r="H62" s="234"/>
-      <c r="I62" s="234"/>
-      <c r="J62" s="234"/>
+      <c r="B62" s="231"/>
+      <c r="C62" s="231"/>
+      <c r="D62" s="231"/>
+      <c r="E62" s="231"/>
+      <c r="F62" s="231"/>
+      <c r="G62" s="231"/>
+      <c r="H62" s="231"/>
+      <c r="I62" s="231"/>
+      <c r="J62" s="231"/>
     </row>
     <row r="63" spans="1:10" ht="46.5" customHeight="1">
-      <c r="A63" s="231" t="s">
+      <c r="A63" s="232" t="s">
         <v>287</v>
       </c>
-      <c r="B63" s="231"/>
-      <c r="C63" s="231"/>
-      <c r="D63" s="231"/>
-      <c r="E63" s="231"/>
-      <c r="F63" s="231"/>
-      <c r="G63" s="231"/>
-      <c r="H63" s="231"/>
-      <c r="I63" s="231"/>
-      <c r="J63" s="231"/>
+      <c r="B63" s="232"/>
+      <c r="C63" s="232"/>
+      <c r="D63" s="232"/>
+      <c r="E63" s="232"/>
+      <c r="F63" s="232"/>
+      <c r="G63" s="232"/>
+      <c r="H63" s="232"/>
+      <c r="I63" s="232"/>
+      <c r="J63" s="232"/>
     </row>
     <row r="64" spans="1:10" ht="75" customHeight="1">
-      <c r="A64" s="234" t="s">
+      <c r="A64" s="231" t="s">
         <v>360</v>
       </c>
-      <c r="B64" s="234"/>
-      <c r="C64" s="234"/>
-      <c r="D64" s="234"/>
-      <c r="E64" s="234"/>
-      <c r="F64" s="234"/>
-      <c r="G64" s="234"/>
-      <c r="H64" s="234"/>
-      <c r="I64" s="234"/>
-      <c r="J64" s="234"/>
+      <c r="B64" s="231"/>
+      <c r="C64" s="231"/>
+      <c r="D64" s="231"/>
+      <c r="E64" s="231"/>
+      <c r="F64" s="231"/>
+      <c r="G64" s="231"/>
+      <c r="H64" s="231"/>
+      <c r="I64" s="231"/>
+      <c r="J64" s="231"/>
     </row>
     <row r="65" spans="1:10" ht="96" customHeight="1">
-      <c r="A65" s="237" t="s">
+      <c r="A65" s="234" t="s">
         <v>289</v>
       </c>
-      <c r="B65" s="237"/>
-      <c r="C65" s="237"/>
-      <c r="D65" s="237"/>
-      <c r="E65" s="237"/>
-      <c r="F65" s="237"/>
-      <c r="G65" s="237"/>
-      <c r="H65" s="237"/>
-      <c r="I65" s="237"/>
-      <c r="J65" s="237"/>
+      <c r="B65" s="234"/>
+      <c r="C65" s="234"/>
+      <c r="D65" s="234"/>
+      <c r="E65" s="234"/>
+      <c r="F65" s="234"/>
+      <c r="G65" s="234"/>
+      <c r="H65" s="234"/>
+      <c r="I65" s="234"/>
+      <c r="J65" s="234"/>
     </row>
     <row r="66" spans="1:10" ht="52.5" customHeight="1">
-      <c r="A66" s="234" t="s">
+      <c r="A66" s="231" t="s">
         <v>273</v>
       </c>
-      <c r="B66" s="234"/>
-      <c r="C66" s="234"/>
-      <c r="D66" s="234"/>
-      <c r="E66" s="234"/>
-      <c r="F66" s="234"/>
-      <c r="G66" s="234"/>
-      <c r="H66" s="234"/>
-      <c r="I66" s="234"/>
-      <c r="J66" s="234"/>
+      <c r="B66" s="231"/>
+      <c r="C66" s="231"/>
+      <c r="D66" s="231"/>
+      <c r="E66" s="231"/>
+      <c r="F66" s="231"/>
+      <c r="G66" s="231"/>
+      <c r="H66" s="231"/>
+      <c r="I66" s="231"/>
+      <c r="J66" s="231"/>
     </row>
     <row r="67" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A67" s="234" t="s">
+      <c r="A67" s="231" t="s">
         <v>295</v>
       </c>
-      <c r="B67" s="234"/>
-      <c r="C67" s="234"/>
-      <c r="D67" s="234"/>
-      <c r="E67" s="234"/>
-      <c r="F67" s="234"/>
-      <c r="G67" s="234"/>
-      <c r="H67" s="234"/>
-      <c r="I67" s="234"/>
-      <c r="J67" s="234"/>
+      <c r="B67" s="231"/>
+      <c r="C67" s="231"/>
+      <c r="D67" s="231"/>
+      <c r="E67" s="231"/>
+      <c r="F67" s="231"/>
+      <c r="G67" s="231"/>
+      <c r="H67" s="231"/>
+      <c r="I67" s="231"/>
+      <c r="J67" s="231"/>
     </row>
     <row r="68" spans="1:10" ht="40.5" customHeight="1">
-      <c r="A68" s="234" t="s">
+      <c r="A68" s="231" t="s">
         <v>322</v>
       </c>
-      <c r="B68" s="234"/>
-      <c r="C68" s="234"/>
-      <c r="D68" s="234"/>
-      <c r="E68" s="234"/>
-      <c r="F68" s="234"/>
-      <c r="G68" s="234"/>
-      <c r="H68" s="234"/>
-      <c r="I68" s="234"/>
-      <c r="J68" s="234"/>
+      <c r="B68" s="231"/>
+      <c r="C68" s="231"/>
+      <c r="D68" s="231"/>
+      <c r="E68" s="231"/>
+      <c r="F68" s="231"/>
+      <c r="G68" s="231"/>
+      <c r="H68" s="231"/>
+      <c r="I68" s="231"/>
+      <c r="J68" s="231"/>
     </row>
     <row r="69" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A69" s="231" t="s">
+      <c r="A69" s="232" t="s">
         <v>274</v>
       </c>
-      <c r="B69" s="231"/>
-      <c r="C69" s="231"/>
-      <c r="D69" s="231"/>
-      <c r="E69" s="231"/>
-      <c r="F69" s="231"/>
-      <c r="G69" s="231"/>
-      <c r="H69" s="231"/>
-      <c r="I69" s="231"/>
-      <c r="J69" s="231"/>
+      <c r="B69" s="232"/>
+      <c r="C69" s="232"/>
+      <c r="D69" s="232"/>
+      <c r="E69" s="232"/>
+      <c r="F69" s="232"/>
+      <c r="G69" s="232"/>
+      <c r="H69" s="232"/>
+      <c r="I69" s="232"/>
+      <c r="J69" s="232"/>
     </row>
     <row r="70" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A70" s="231" t="s">
+      <c r="A70" s="232" t="s">
         <v>323</v>
       </c>
-      <c r="B70" s="231"/>
-      <c r="C70" s="231"/>
-      <c r="D70" s="231"/>
-      <c r="E70" s="231"/>
-      <c r="F70" s="231"/>
-      <c r="G70" s="231"/>
-      <c r="H70" s="231"/>
-      <c r="I70" s="231"/>
-      <c r="J70" s="231"/>
+      <c r="B70" s="232"/>
+      <c r="C70" s="232"/>
+      <c r="D70" s="232"/>
+      <c r="E70" s="232"/>
+      <c r="F70" s="232"/>
+      <c r="G70" s="232"/>
+      <c r="H70" s="232"/>
+      <c r="I70" s="232"/>
+      <c r="J70" s="232"/>
     </row>
     <row r="71" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A71" s="236" t="s">
+      <c r="A71" s="233" t="s">
         <v>296</v>
       </c>
-      <c r="B71" s="231"/>
-      <c r="C71" s="231"/>
-      <c r="D71" s="231"/>
-      <c r="E71" s="231"/>
-      <c r="F71" s="231"/>
-      <c r="G71" s="231"/>
-      <c r="H71" s="231"/>
-      <c r="I71" s="231"/>
-      <c r="J71" s="231"/>
+      <c r="B71" s="232"/>
+      <c r="C71" s="232"/>
+      <c r="D71" s="232"/>
+      <c r="E71" s="232"/>
+      <c r="F71" s="232"/>
+      <c r="G71" s="232"/>
+      <c r="H71" s="232"/>
+      <c r="I71" s="232"/>
+      <c r="J71" s="232"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="A60:J60"/>
     <mergeCell ref="A49:J49"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A4"/>
@@ -25442,28 +25464,6 @@
     <mergeCell ref="A46:J46"/>
     <mergeCell ref="A47:J47"/>
     <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="A68:J68"/>
-    <mergeCell ref="A70:J70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25496,61 +25496,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="206" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="215"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="208"/>
     </row>
     <row r="2" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A2" s="216"/>
+      <c r="A2" s="209"/>
       <c r="B2" s="122"/>
-      <c r="C2" s="219" t="s">
+      <c r="C2" s="212" t="s">
         <v>255</v>
       </c>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="222" t="s">
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="215" t="s">
         <v>280</v>
       </c>
-      <c r="I2" s="222" t="s">
+      <c r="I2" s="215" t="s">
         <v>253</v>
       </c>
-      <c r="J2" s="225" t="s">
+      <c r="J2" s="218" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="36" customHeight="1">
-      <c r="A3" s="217"/>
+      <c r="A3" s="210"/>
       <c r="B3" s="121" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="117" t="s">
         <v>275</v>
       </c>
-      <c r="D3" s="228" t="s">
+      <c r="D3" s="221" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="229"/>
-      <c r="F3" s="222" t="s">
+      <c r="E3" s="222"/>
+      <c r="F3" s="215" t="s">
         <v>291</v>
       </c>
-      <c r="G3" s="230"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="226"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="219"/>
     </row>
     <row r="4" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A4" s="218"/>
+      <c r="A4" s="211"/>
       <c r="B4" s="123"/>
       <c r="C4" s="7"/>
       <c r="D4" s="17" t="s">
@@ -25565,9 +25565,9 @@
       <c r="G4" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="H4" s="224"/>
-      <c r="I4" s="224"/>
-      <c r="J4" s="227"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="217"/>
+      <c r="J4" s="220"/>
       <c r="L4" s="128" t="s">
         <v>301</v>
       </c>
@@ -26742,34 +26742,34 @@
       <c r="M41" s="49"/>
     </row>
     <row r="42" spans="1:13" ht="13.15">
-      <c r="A42" s="212" t="s">
+      <c r="A42" s="230" t="s">
         <v>281</v>
       </c>
-      <c r="B42" s="212"/>
-      <c r="C42" s="212"/>
-      <c r="D42" s="212"/>
-      <c r="E42" s="212"/>
-      <c r="F42" s="212"/>
-      <c r="G42" s="212"/>
-      <c r="H42" s="212"/>
-      <c r="I42" s="212"/>
-      <c r="J42" s="212"/>
+      <c r="B42" s="230"/>
+      <c r="C42" s="230"/>
+      <c r="D42" s="230"/>
+      <c r="E42" s="230"/>
+      <c r="F42" s="230"/>
+      <c r="G42" s="230"/>
+      <c r="H42" s="230"/>
+      <c r="I42" s="230"/>
+      <c r="J42" s="230"/>
       <c r="L42" s="129"/>
       <c r="M42" s="129"/>
     </row>
     <row r="43" spans="1:13" ht="13.15">
-      <c r="A43" s="208" t="s">
+      <c r="A43" s="226" t="s">
         <v>319</v>
       </c>
-      <c r="B43" s="208"/>
-      <c r="C43" s="208"/>
-      <c r="D43" s="208"/>
-      <c r="E43" s="208"/>
-      <c r="F43" s="208"/>
-      <c r="G43" s="208"/>
-      <c r="H43" s="208"/>
-      <c r="I43" s="208"/>
-      <c r="J43" s="208"/>
+      <c r="B43" s="226"/>
+      <c r="C43" s="226"/>
+      <c r="D43" s="226"/>
+      <c r="E43" s="226"/>
+      <c r="F43" s="226"/>
+      <c r="G43" s="226"/>
+      <c r="H43" s="226"/>
+      <c r="I43" s="226"/>
+      <c r="J43" s="226"/>
       <c r="L43" s="129"/>
       <c r="M43" s="129"/>
     </row>
@@ -26787,326 +26787,326 @@
       <c r="I44" s="13"/>
     </row>
     <row r="45" spans="1:13" ht="133.5" customHeight="1">
-      <c r="A45" s="233" t="s">
+      <c r="A45" s="237" t="s">
         <v>297</v>
       </c>
-      <c r="B45" s="233"/>
-      <c r="C45" s="233"/>
-      <c r="D45" s="233"/>
-      <c r="E45" s="233"/>
-      <c r="F45" s="233"/>
-      <c r="G45" s="233"/>
-      <c r="H45" s="233"/>
-      <c r="I45" s="233"/>
-      <c r="J45" s="233"/>
+      <c r="B45" s="237"/>
+      <c r="C45" s="237"/>
+      <c r="D45" s="237"/>
+      <c r="E45" s="237"/>
+      <c r="F45" s="237"/>
+      <c r="G45" s="237"/>
+      <c r="H45" s="237"/>
+      <c r="I45" s="237"/>
+      <c r="J45" s="237"/>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1">
-      <c r="A46" s="232" t="s">
+      <c r="A46" s="235" t="s">
         <v>258</v>
       </c>
-      <c r="B46" s="232"/>
-      <c r="C46" s="232"/>
-      <c r="D46" s="232"/>
-      <c r="E46" s="232"/>
-      <c r="F46" s="232"/>
-      <c r="G46" s="232"/>
-      <c r="H46" s="232"/>
-      <c r="I46" s="232"/>
-      <c r="J46" s="232"/>
+      <c r="B46" s="235"/>
+      <c r="C46" s="235"/>
+      <c r="D46" s="235"/>
+      <c r="E46" s="235"/>
+      <c r="F46" s="235"/>
+      <c r="G46" s="235"/>
+      <c r="H46" s="235"/>
+      <c r="I46" s="235"/>
+      <c r="J46" s="235"/>
     </row>
     <row r="47" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A47" s="232" t="s">
+      <c r="A47" s="235" t="s">
         <v>259</v>
       </c>
-      <c r="B47" s="232"/>
-      <c r="C47" s="232"/>
-      <c r="D47" s="232"/>
-      <c r="E47" s="232"/>
-      <c r="F47" s="232"/>
-      <c r="G47" s="232"/>
-      <c r="H47" s="232"/>
-      <c r="I47" s="232"/>
-      <c r="J47" s="232"/>
+      <c r="B47" s="235"/>
+      <c r="C47" s="235"/>
+      <c r="D47" s="235"/>
+      <c r="E47" s="235"/>
+      <c r="F47" s="235"/>
+      <c r="G47" s="235"/>
+      <c r="H47" s="235"/>
+      <c r="I47" s="235"/>
+      <c r="J47" s="235"/>
     </row>
     <row r="48" spans="1:13" ht="27" customHeight="1">
-      <c r="A48" s="231" t="s">
+      <c r="A48" s="232" t="s">
         <v>302</v>
       </c>
-      <c r="B48" s="232"/>
-      <c r="C48" s="232"/>
-      <c r="D48" s="232"/>
-      <c r="E48" s="232"/>
-      <c r="F48" s="232"/>
-      <c r="G48" s="232"/>
-      <c r="H48" s="232"/>
-      <c r="I48" s="232"/>
-      <c r="J48" s="232"/>
+      <c r="B48" s="235"/>
+      <c r="C48" s="235"/>
+      <c r="D48" s="235"/>
+      <c r="E48" s="235"/>
+      <c r="F48" s="235"/>
+      <c r="G48" s="235"/>
+      <c r="H48" s="235"/>
+      <c r="I48" s="235"/>
+      <c r="J48" s="235"/>
     </row>
     <row r="49" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A49" s="231" t="s">
+      <c r="A49" s="232" t="s">
         <v>298</v>
       </c>
-      <c r="B49" s="232"/>
-      <c r="C49" s="232"/>
-      <c r="D49" s="232"/>
-      <c r="E49" s="232"/>
-      <c r="F49" s="232"/>
-      <c r="G49" s="232"/>
-      <c r="H49" s="232"/>
-      <c r="I49" s="232"/>
-      <c r="J49" s="232"/>
+      <c r="B49" s="235"/>
+      <c r="C49" s="235"/>
+      <c r="D49" s="235"/>
+      <c r="E49" s="235"/>
+      <c r="F49" s="235"/>
+      <c r="G49" s="235"/>
+      <c r="H49" s="235"/>
+      <c r="I49" s="235"/>
+      <c r="J49" s="235"/>
     </row>
     <row r="50" spans="1:10" ht="42" customHeight="1">
-      <c r="A50" s="236" t="s">
+      <c r="A50" s="233" t="s">
         <v>299</v>
       </c>
-      <c r="B50" s="236"/>
-      <c r="C50" s="236"/>
-      <c r="D50" s="236"/>
-      <c r="E50" s="236"/>
-      <c r="F50" s="236"/>
-      <c r="G50" s="236"/>
-      <c r="H50" s="236"/>
-      <c r="I50" s="236"/>
-      <c r="J50" s="236"/>
+      <c r="B50" s="233"/>
+      <c r="C50" s="233"/>
+      <c r="D50" s="233"/>
+      <c r="E50" s="233"/>
+      <c r="F50" s="233"/>
+      <c r="G50" s="233"/>
+      <c r="H50" s="233"/>
+      <c r="I50" s="233"/>
+      <c r="J50" s="233"/>
     </row>
     <row r="51" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A51" s="235" t="s">
+      <c r="A51" s="236" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="235"/>
-      <c r="C51" s="235"/>
-      <c r="D51" s="235"/>
-      <c r="E51" s="235"/>
-      <c r="F51" s="235"/>
-      <c r="G51" s="235"/>
-      <c r="H51" s="235"/>
-      <c r="I51" s="235"/>
-      <c r="J51" s="235"/>
+      <c r="B51" s="236"/>
+      <c r="C51" s="236"/>
+      <c r="D51" s="236"/>
+      <c r="E51" s="236"/>
+      <c r="F51" s="236"/>
+      <c r="G51" s="236"/>
+      <c r="H51" s="236"/>
+      <c r="I51" s="236"/>
+      <c r="J51" s="236"/>
     </row>
     <row r="52" spans="1:10" ht="27" customHeight="1">
-      <c r="A52" s="234" t="s">
+      <c r="A52" s="231" t="s">
         <v>290</v>
       </c>
-      <c r="B52" s="234"/>
-      <c r="C52" s="234"/>
-      <c r="D52" s="234"/>
-      <c r="E52" s="234"/>
-      <c r="F52" s="234"/>
-      <c r="G52" s="234"/>
-      <c r="H52" s="234"/>
-      <c r="I52" s="234"/>
-      <c r="J52" s="234"/>
+      <c r="B52" s="231"/>
+      <c r="C52" s="231"/>
+      <c r="D52" s="231"/>
+      <c r="E52" s="231"/>
+      <c r="F52" s="231"/>
+      <c r="G52" s="231"/>
+      <c r="H52" s="231"/>
+      <c r="I52" s="231"/>
+      <c r="J52" s="231"/>
     </row>
     <row r="53" spans="1:10" ht="39" customHeight="1">
-      <c r="A53" s="234" t="s">
+      <c r="A53" s="231" t="s">
         <v>271</v>
       </c>
-      <c r="B53" s="234"/>
-      <c r="C53" s="234"/>
-      <c r="D53" s="234"/>
-      <c r="E53" s="234"/>
-      <c r="F53" s="234"/>
-      <c r="G53" s="234"/>
-      <c r="H53" s="234"/>
-      <c r="I53" s="234"/>
-      <c r="J53" s="234"/>
+      <c r="B53" s="231"/>
+      <c r="C53" s="231"/>
+      <c r="D53" s="231"/>
+      <c r="E53" s="231"/>
+      <c r="F53" s="231"/>
+      <c r="G53" s="231"/>
+      <c r="H53" s="231"/>
+      <c r="I53" s="231"/>
+      <c r="J53" s="231"/>
     </row>
     <row r="54" spans="1:10" ht="66.75" customHeight="1">
-      <c r="A54" s="234" t="s">
+      <c r="A54" s="231" t="s">
         <v>282</v>
       </c>
-      <c r="B54" s="234"/>
-      <c r="C54" s="234"/>
-      <c r="D54" s="234"/>
-      <c r="E54" s="234"/>
-      <c r="F54" s="234"/>
-      <c r="G54" s="234"/>
-      <c r="H54" s="234"/>
-      <c r="I54" s="234"/>
-      <c r="J54" s="234"/>
+      <c r="B54" s="231"/>
+      <c r="C54" s="231"/>
+      <c r="D54" s="231"/>
+      <c r="E54" s="231"/>
+      <c r="F54" s="231"/>
+      <c r="G54" s="231"/>
+      <c r="H54" s="231"/>
+      <c r="I54" s="231"/>
+      <c r="J54" s="231"/>
     </row>
     <row r="55" spans="1:10" ht="61.5" customHeight="1">
-      <c r="A55" s="234" t="s">
+      <c r="A55" s="231" t="s">
         <v>283</v>
       </c>
-      <c r="B55" s="234"/>
-      <c r="C55" s="234"/>
-      <c r="D55" s="234"/>
-      <c r="E55" s="234"/>
-      <c r="F55" s="234"/>
-      <c r="G55" s="234"/>
-      <c r="H55" s="234"/>
-      <c r="I55" s="234"/>
-      <c r="J55" s="234"/>
+      <c r="B55" s="231"/>
+      <c r="C55" s="231"/>
+      <c r="D55" s="231"/>
+      <c r="E55" s="231"/>
+      <c r="F55" s="231"/>
+      <c r="G55" s="231"/>
+      <c r="H55" s="231"/>
+      <c r="I55" s="231"/>
+      <c r="J55" s="231"/>
     </row>
     <row r="56" spans="1:10" ht="42.75" customHeight="1">
-      <c r="A56" s="234" t="s">
+      <c r="A56" s="231" t="s">
         <v>270</v>
       </c>
-      <c r="B56" s="234"/>
-      <c r="C56" s="234"/>
-      <c r="D56" s="234"/>
-      <c r="E56" s="234"/>
-      <c r="F56" s="234"/>
-      <c r="G56" s="234"/>
-      <c r="H56" s="234"/>
-      <c r="I56" s="234"/>
-      <c r="J56" s="234"/>
+      <c r="B56" s="231"/>
+      <c r="C56" s="231"/>
+      <c r="D56" s="231"/>
+      <c r="E56" s="231"/>
+      <c r="F56" s="231"/>
+      <c r="G56" s="231"/>
+      <c r="H56" s="231"/>
+      <c r="I56" s="231"/>
+      <c r="J56" s="231"/>
     </row>
     <row r="57" spans="1:10" ht="30" customHeight="1">
-      <c r="A57" s="234" t="s">
+      <c r="A57" s="231" t="s">
         <v>284</v>
       </c>
-      <c r="B57" s="234"/>
-      <c r="C57" s="234"/>
-      <c r="D57" s="234"/>
-      <c r="E57" s="234"/>
-      <c r="F57" s="234"/>
-      <c r="G57" s="234"/>
-      <c r="H57" s="234"/>
-      <c r="I57" s="234"/>
-      <c r="J57" s="234"/>
+      <c r="B57" s="231"/>
+      <c r="C57" s="231"/>
+      <c r="D57" s="231"/>
+      <c r="E57" s="231"/>
+      <c r="F57" s="231"/>
+      <c r="G57" s="231"/>
+      <c r="H57" s="231"/>
+      <c r="I57" s="231"/>
+      <c r="J57" s="231"/>
     </row>
     <row r="58" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A58" s="234" t="s">
+      <c r="A58" s="231" t="s">
         <v>285</v>
       </c>
-      <c r="B58" s="234"/>
-      <c r="C58" s="234"/>
-      <c r="D58" s="234"/>
-      <c r="E58" s="234"/>
-      <c r="F58" s="234"/>
-      <c r="G58" s="234"/>
-      <c r="H58" s="234"/>
-      <c r="I58" s="234"/>
-      <c r="J58" s="234"/>
+      <c r="B58" s="231"/>
+      <c r="C58" s="231"/>
+      <c r="D58" s="231"/>
+      <c r="E58" s="231"/>
+      <c r="F58" s="231"/>
+      <c r="G58" s="231"/>
+      <c r="H58" s="231"/>
+      <c r="I58" s="231"/>
+      <c r="J58" s="231"/>
     </row>
     <row r="59" spans="1:10" ht="30.75" customHeight="1">
-      <c r="A59" s="234" t="s">
+      <c r="A59" s="231" t="s">
         <v>272</v>
       </c>
-      <c r="B59" s="234"/>
-      <c r="C59" s="234"/>
-      <c r="D59" s="234"/>
-      <c r="E59" s="234"/>
-      <c r="F59" s="234"/>
-      <c r="G59" s="234"/>
-      <c r="H59" s="234"/>
-      <c r="I59" s="234"/>
-      <c r="J59" s="234"/>
+      <c r="B59" s="231"/>
+      <c r="C59" s="231"/>
+      <c r="D59" s="231"/>
+      <c r="E59" s="231"/>
+      <c r="F59" s="231"/>
+      <c r="G59" s="231"/>
+      <c r="H59" s="231"/>
+      <c r="I59" s="231"/>
+      <c r="J59" s="231"/>
     </row>
     <row r="60" spans="1:10" ht="18" customHeight="1">
-      <c r="A60" s="234" t="s">
+      <c r="A60" s="231" t="s">
         <v>286</v>
       </c>
-      <c r="B60" s="234"/>
-      <c r="C60" s="234"/>
-      <c r="D60" s="234"/>
-      <c r="E60" s="234"/>
-      <c r="F60" s="234"/>
-      <c r="G60" s="234"/>
-      <c r="H60" s="234"/>
-      <c r="I60" s="234"/>
-      <c r="J60" s="234"/>
+      <c r="B60" s="231"/>
+      <c r="C60" s="231"/>
+      <c r="D60" s="231"/>
+      <c r="E60" s="231"/>
+      <c r="F60" s="231"/>
+      <c r="G60" s="231"/>
+      <c r="H60" s="231"/>
+      <c r="I60" s="231"/>
+      <c r="J60" s="231"/>
     </row>
     <row r="61" spans="1:10" ht="51" customHeight="1">
-      <c r="A61" s="234" t="s">
+      <c r="A61" s="231" t="s">
         <v>293</v>
       </c>
-      <c r="B61" s="234"/>
-      <c r="C61" s="234"/>
-      <c r="D61" s="234"/>
-      <c r="E61" s="234"/>
-      <c r="F61" s="234"/>
-      <c r="G61" s="234"/>
-      <c r="H61" s="234"/>
-      <c r="I61" s="234"/>
-      <c r="J61" s="234"/>
+      <c r="B61" s="231"/>
+      <c r="C61" s="231"/>
+      <c r="D61" s="231"/>
+      <c r="E61" s="231"/>
+      <c r="F61" s="231"/>
+      <c r="G61" s="231"/>
+      <c r="H61" s="231"/>
+      <c r="I61" s="231"/>
+      <c r="J61" s="231"/>
     </row>
     <row r="62" spans="1:10" ht="88.5" customHeight="1">
-      <c r="A62" s="231" t="s">
+      <c r="A62" s="232" t="s">
         <v>287</v>
       </c>
-      <c r="B62" s="231"/>
-      <c r="C62" s="231"/>
-      <c r="D62" s="231"/>
-      <c r="E62" s="231"/>
-      <c r="F62" s="231"/>
-      <c r="G62" s="231"/>
-      <c r="H62" s="231"/>
-      <c r="I62" s="231"/>
-      <c r="J62" s="231"/>
+      <c r="B62" s="232"/>
+      <c r="C62" s="232"/>
+      <c r="D62" s="232"/>
+      <c r="E62" s="232"/>
+      <c r="F62" s="232"/>
+      <c r="G62" s="232"/>
+      <c r="H62" s="232"/>
+      <c r="I62" s="232"/>
+      <c r="J62" s="232"/>
     </row>
     <row r="63" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A63" s="234" t="s">
+      <c r="A63" s="231" t="s">
         <v>288</v>
       </c>
-      <c r="B63" s="234"/>
-      <c r="C63" s="234"/>
-      <c r="D63" s="234"/>
-      <c r="E63" s="234"/>
-      <c r="F63" s="234"/>
-      <c r="G63" s="234"/>
-      <c r="H63" s="234"/>
-      <c r="I63" s="234"/>
-      <c r="J63" s="234"/>
+      <c r="B63" s="231"/>
+      <c r="C63" s="231"/>
+      <c r="D63" s="231"/>
+      <c r="E63" s="231"/>
+      <c r="F63" s="231"/>
+      <c r="G63" s="231"/>
+      <c r="H63" s="231"/>
+      <c r="I63" s="231"/>
+      <c r="J63" s="231"/>
     </row>
     <row r="64" spans="1:10" ht="110.25" customHeight="1">
-      <c r="A64" s="237" t="s">
+      <c r="A64" s="234" t="s">
         <v>289</v>
       </c>
-      <c r="B64" s="237"/>
-      <c r="C64" s="237"/>
-      <c r="D64" s="237"/>
-      <c r="E64" s="237"/>
-      <c r="F64" s="237"/>
-      <c r="G64" s="237"/>
-      <c r="H64" s="237"/>
-      <c r="I64" s="237"/>
-      <c r="J64" s="237"/>
+      <c r="B64" s="234"/>
+      <c r="C64" s="234"/>
+      <c r="D64" s="234"/>
+      <c r="E64" s="234"/>
+      <c r="F64" s="234"/>
+      <c r="G64" s="234"/>
+      <c r="H64" s="234"/>
+      <c r="I64" s="234"/>
+      <c r="J64" s="234"/>
     </row>
     <row r="65" spans="1:10" ht="51" customHeight="1">
-      <c r="A65" s="234" t="s">
+      <c r="A65" s="231" t="s">
         <v>273</v>
       </c>
-      <c r="B65" s="234"/>
-      <c r="C65" s="234"/>
-      <c r="D65" s="234"/>
-      <c r="E65" s="234"/>
-      <c r="F65" s="234"/>
-      <c r="G65" s="234"/>
-      <c r="H65" s="234"/>
-      <c r="I65" s="234"/>
-      <c r="J65" s="234"/>
+      <c r="B65" s="231"/>
+      <c r="C65" s="231"/>
+      <c r="D65" s="231"/>
+      <c r="E65" s="231"/>
+      <c r="F65" s="231"/>
+      <c r="G65" s="231"/>
+      <c r="H65" s="231"/>
+      <c r="I65" s="231"/>
+      <c r="J65" s="231"/>
     </row>
     <row r="66" spans="1:10" ht="18" customHeight="1">
-      <c r="A66" s="234" t="s">
+      <c r="A66" s="231" t="s">
         <v>295</v>
       </c>
-      <c r="B66" s="234"/>
-      <c r="C66" s="234"/>
-      <c r="D66" s="234"/>
-      <c r="E66" s="234"/>
-      <c r="F66" s="234"/>
-      <c r="G66" s="234"/>
-      <c r="H66" s="234"/>
-      <c r="I66" s="234"/>
-      <c r="J66" s="234"/>
+      <c r="B66" s="231"/>
+      <c r="C66" s="231"/>
+      <c r="D66" s="231"/>
+      <c r="E66" s="231"/>
+      <c r="F66" s="231"/>
+      <c r="G66" s="231"/>
+      <c r="H66" s="231"/>
+      <c r="I66" s="231"/>
+      <c r="J66" s="231"/>
     </row>
     <row r="67" spans="1:10" ht="27" customHeight="1">
-      <c r="A67" s="231" t="s">
+      <c r="A67" s="232" t="s">
         <v>274</v>
       </c>
-      <c r="B67" s="231"/>
-      <c r="C67" s="231"/>
-      <c r="D67" s="231"/>
-      <c r="E67" s="231"/>
-      <c r="F67" s="231"/>
-      <c r="G67" s="231"/>
-      <c r="H67" s="231"/>
-      <c r="I67" s="231"/>
-      <c r="J67" s="231"/>
+      <c r="B67" s="232"/>
+      <c r="C67" s="232"/>
+      <c r="D67" s="232"/>
+      <c r="E67" s="232"/>
+      <c r="F67" s="232"/>
+      <c r="G67" s="232"/>
+      <c r="H67" s="232"/>
+      <c r="I67" s="232"/>
+      <c r="J67" s="232"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="238" t="s">
@@ -27124,6 +27124,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A47:J47"/>
     <mergeCell ref="A68:J68"/>
     <mergeCell ref="A66:J66"/>
     <mergeCell ref="A67:J67"/>
@@ -27140,24 +27158,6 @@
     <mergeCell ref="A54:J54"/>
     <mergeCell ref="A65:J65"/>
     <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A56:J56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" orientation="portrait" r:id="rId1"/>
@@ -27193,59 +27193,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="240" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="247"/>
-      <c r="J1" s="247"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="243"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="244"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="A2" s="216"/>
+      <c r="A2" s="209"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="219" t="s">
+      <c r="C2" s="212" t="s">
         <v>255</v>
       </c>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="222" t="s">
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="215" t="s">
         <v>254</v>
       </c>
-      <c r="J2" s="248" t="s">
+      <c r="J2" s="245" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A3" s="217"/>
+      <c r="A3" s="210"/>
       <c r="B3" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="228" t="s">
+      <c r="C3" s="221" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="229"/>
-      <c r="E3" s="251" t="s">
+      <c r="D3" s="222"/>
+      <c r="E3" s="248" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="252"/>
-      <c r="G3" s="222" t="s">
+      <c r="F3" s="249"/>
+      <c r="G3" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="248"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="249"/>
+      <c r="H3" s="245"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="246"/>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="218"/>
+      <c r="A4" s="211"/>
       <c r="B4" s="23"/>
       <c r="C4" s="5" t="s">
         <v>34</v>
@@ -27265,8 +27265,8 @@
       <c r="H4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="224"/>
-      <c r="J4" s="250"/>
+      <c r="I4" s="217"/>
+      <c r="J4" s="247"/>
     </row>
     <row r="5" spans="1:10" ht="13.15">
       <c r="A5" s="8" t="s">
@@ -28180,60 +28180,60 @@
       <c r="J39" s="13"/>
     </row>
     <row r="40" spans="1:10" ht="107.25" customHeight="1">
-      <c r="A40" s="233" t="s">
+      <c r="A40" s="237" t="s">
         <v>252</v>
       </c>
-      <c r="B40" s="242"/>
-      <c r="C40" s="242"/>
-      <c r="D40" s="242"/>
-      <c r="E40" s="242"/>
-      <c r="F40" s="242"/>
-      <c r="G40" s="242"/>
-      <c r="H40" s="242"/>
-      <c r="I40" s="242"/>
-      <c r="J40" s="242"/>
+      <c r="B40" s="250"/>
+      <c r="C40" s="250"/>
+      <c r="D40" s="250"/>
+      <c r="E40" s="250"/>
+      <c r="F40" s="250"/>
+      <c r="G40" s="250"/>
+      <c r="H40" s="250"/>
+      <c r="I40" s="250"/>
+      <c r="J40" s="250"/>
     </row>
     <row r="41" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A41" s="232" t="s">
+      <c r="A41" s="235" t="s">
         <v>251</v>
       </c>
-      <c r="B41" s="232"/>
-      <c r="C41" s="232"/>
-      <c r="D41" s="232"/>
-      <c r="E41" s="232"/>
-      <c r="F41" s="232"/>
-      <c r="G41" s="232"/>
-      <c r="H41" s="232"/>
-      <c r="I41" s="232"/>
-      <c r="J41" s="232"/>
+      <c r="B41" s="235"/>
+      <c r="C41" s="235"/>
+      <c r="D41" s="235"/>
+      <c r="E41" s="235"/>
+      <c r="F41" s="235"/>
+      <c r="G41" s="235"/>
+      <c r="H41" s="235"/>
+      <c r="I41" s="235"/>
+      <c r="J41" s="235"/>
     </row>
     <row r="42" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A42" s="232" t="s">
+      <c r="A42" s="235" t="s">
         <v>250</v>
       </c>
-      <c r="B42" s="232"/>
-      <c r="C42" s="232"/>
-      <c r="D42" s="232"/>
-      <c r="E42" s="232"/>
-      <c r="F42" s="232"/>
-      <c r="G42" s="232"/>
-      <c r="H42" s="232"/>
-      <c r="I42" s="232"/>
-      <c r="J42" s="232"/>
+      <c r="B42" s="235"/>
+      <c r="C42" s="235"/>
+      <c r="D42" s="235"/>
+      <c r="E42" s="235"/>
+      <c r="F42" s="235"/>
+      <c r="G42" s="235"/>
+      <c r="H42" s="235"/>
+      <c r="I42" s="235"/>
+      <c r="J42" s="235"/>
     </row>
     <row r="43" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A43" s="232" t="s">
+      <c r="A43" s="235" t="s">
         <v>249</v>
       </c>
-      <c r="B43" s="232"/>
-      <c r="C43" s="232"/>
-      <c r="D43" s="232"/>
-      <c r="E43" s="232"/>
-      <c r="F43" s="232"/>
-      <c r="G43" s="232"/>
-      <c r="H43" s="232"/>
-      <c r="I43" s="232"/>
-      <c r="J43" s="232"/>
+      <c r="B43" s="235"/>
+      <c r="C43" s="235"/>
+      <c r="D43" s="235"/>
+      <c r="E43" s="235"/>
+      <c r="F43" s="235"/>
+      <c r="G43" s="235"/>
+      <c r="H43" s="235"/>
+      <c r="I43" s="235"/>
+      <c r="J43" s="235"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1">
       <c r="A44" s="15" t="s">
@@ -28250,239 +28250,239 @@
       <c r="J44" s="14"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A45" s="234" t="s">
+      <c r="A45" s="231" t="s">
         <v>248</v>
       </c>
-      <c r="B45" s="234"/>
-      <c r="C45" s="234"/>
-      <c r="D45" s="234"/>
-      <c r="E45" s="234"/>
-      <c r="F45" s="234"/>
-      <c r="G45" s="234"/>
-      <c r="H45" s="234"/>
-      <c r="I45" s="234"/>
-      <c r="J45" s="234"/>
+      <c r="B45" s="231"/>
+      <c r="C45" s="231"/>
+      <c r="D45" s="231"/>
+      <c r="E45" s="231"/>
+      <c r="F45" s="231"/>
+      <c r="G45" s="231"/>
+      <c r="H45" s="231"/>
+      <c r="I45" s="231"/>
+      <c r="J45" s="231"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A46" s="234" t="s">
+      <c r="A46" s="231" t="s">
         <v>247</v>
       </c>
-      <c r="B46" s="234"/>
-      <c r="C46" s="234"/>
-      <c r="D46" s="234"/>
-      <c r="E46" s="234"/>
-      <c r="F46" s="234"/>
-      <c r="G46" s="234"/>
-      <c r="H46" s="234"/>
-      <c r="I46" s="234"/>
-      <c r="J46" s="234"/>
+      <c r="B46" s="231"/>
+      <c r="C46" s="231"/>
+      <c r="D46" s="231"/>
+      <c r="E46" s="231"/>
+      <c r="F46" s="231"/>
+      <c r="G46" s="231"/>
+      <c r="H46" s="231"/>
+      <c r="I46" s="231"/>
+      <c r="J46" s="231"/>
     </row>
     <row r="47" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A47" s="234" t="s">
+      <c r="A47" s="231" t="s">
         <v>237</v>
       </c>
-      <c r="B47" s="234"/>
-      <c r="C47" s="234"/>
-      <c r="D47" s="234"/>
-      <c r="E47" s="234"/>
-      <c r="F47" s="234"/>
-      <c r="G47" s="234"/>
-      <c r="H47" s="234"/>
-      <c r="I47" s="234"/>
-      <c r="J47" s="234"/>
+      <c r="B47" s="231"/>
+      <c r="C47" s="231"/>
+      <c r="D47" s="231"/>
+      <c r="E47" s="231"/>
+      <c r="F47" s="231"/>
+      <c r="G47" s="231"/>
+      <c r="H47" s="231"/>
+      <c r="I47" s="231"/>
+      <c r="J47" s="231"/>
     </row>
     <row r="48" spans="1:10" ht="66" customHeight="1">
-      <c r="A48" s="234" t="s">
+      <c r="A48" s="231" t="s">
         <v>236</v>
       </c>
-      <c r="B48" s="234"/>
-      <c r="C48" s="234"/>
-      <c r="D48" s="234"/>
-      <c r="E48" s="234"/>
-      <c r="F48" s="234"/>
-      <c r="G48" s="234"/>
-      <c r="H48" s="234"/>
-      <c r="I48" s="234"/>
-      <c r="J48" s="234"/>
+      <c r="B48" s="231"/>
+      <c r="C48" s="231"/>
+      <c r="D48" s="231"/>
+      <c r="E48" s="231"/>
+      <c r="F48" s="231"/>
+      <c r="G48" s="231"/>
+      <c r="H48" s="231"/>
+      <c r="I48" s="231"/>
+      <c r="J48" s="231"/>
     </row>
     <row r="49" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A49" s="234" t="s">
+      <c r="A49" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="234"/>
-      <c r="C49" s="234"/>
-      <c r="D49" s="234"/>
-      <c r="E49" s="234"/>
-      <c r="F49" s="234"/>
-      <c r="G49" s="234"/>
-      <c r="H49" s="234"/>
-      <c r="I49" s="234"/>
-      <c r="J49" s="234"/>
+      <c r="B49" s="231"/>
+      <c r="C49" s="231"/>
+      <c r="D49" s="231"/>
+      <c r="E49" s="231"/>
+      <c r="F49" s="231"/>
+      <c r="G49" s="231"/>
+      <c r="H49" s="231"/>
+      <c r="I49" s="231"/>
+      <c r="J49" s="231"/>
     </row>
     <row r="50" spans="1:10" ht="37.5" customHeight="1">
-      <c r="A50" s="234" t="s">
+      <c r="A50" s="231" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="234"/>
-      <c r="C50" s="234"/>
-      <c r="D50" s="234"/>
-      <c r="E50" s="234"/>
-      <c r="F50" s="234"/>
-      <c r="G50" s="234"/>
-      <c r="H50" s="234"/>
-      <c r="I50" s="234"/>
-      <c r="J50" s="234"/>
+      <c r="B50" s="231"/>
+      <c r="C50" s="231"/>
+      <c r="D50" s="231"/>
+      <c r="E50" s="231"/>
+      <c r="F50" s="231"/>
+      <c r="G50" s="231"/>
+      <c r="H50" s="231"/>
+      <c r="I50" s="231"/>
+      <c r="J50" s="231"/>
     </row>
     <row r="51" spans="1:10" ht="15" customHeight="1">
-      <c r="A51" s="234" t="s">
+      <c r="A51" s="231" t="s">
         <v>235</v>
       </c>
-      <c r="B51" s="234"/>
-      <c r="C51" s="234"/>
-      <c r="D51" s="234"/>
-      <c r="E51" s="234"/>
-      <c r="F51" s="234"/>
-      <c r="G51" s="234"/>
-      <c r="H51" s="234"/>
-      <c r="I51" s="234"/>
-      <c r="J51" s="234"/>
+      <c r="B51" s="231"/>
+      <c r="C51" s="231"/>
+      <c r="D51" s="231"/>
+      <c r="E51" s="231"/>
+      <c r="F51" s="231"/>
+      <c r="G51" s="231"/>
+      <c r="H51" s="231"/>
+      <c r="I51" s="231"/>
+      <c r="J51" s="231"/>
     </row>
     <row r="52" spans="1:10" ht="43.5" customHeight="1">
-      <c r="A52" s="234" t="s">
+      <c r="A52" s="231" t="s">
         <v>234</v>
       </c>
-      <c r="B52" s="234"/>
-      <c r="C52" s="234"/>
-      <c r="D52" s="234"/>
-      <c r="E52" s="234"/>
-      <c r="F52" s="234"/>
-      <c r="G52" s="234"/>
-      <c r="H52" s="234"/>
-      <c r="I52" s="234"/>
-      <c r="J52" s="234"/>
+      <c r="B52" s="231"/>
+      <c r="C52" s="231"/>
+      <c r="D52" s="231"/>
+      <c r="E52" s="231"/>
+      <c r="F52" s="231"/>
+      <c r="G52" s="231"/>
+      <c r="H52" s="231"/>
+      <c r="I52" s="231"/>
+      <c r="J52" s="231"/>
     </row>
     <row r="53" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A53" s="232" t="s">
+      <c r="A53" s="235" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="232"/>
-      <c r="C53" s="232"/>
-      <c r="D53" s="232"/>
-      <c r="E53" s="232"/>
-      <c r="F53" s="232"/>
-      <c r="G53" s="232"/>
-      <c r="H53" s="232"/>
-      <c r="I53" s="232"/>
-      <c r="J53" s="232"/>
+      <c r="B53" s="235"/>
+      <c r="C53" s="235"/>
+      <c r="D53" s="235"/>
+      <c r="E53" s="235"/>
+      <c r="F53" s="235"/>
+      <c r="G53" s="235"/>
+      <c r="H53" s="235"/>
+      <c r="I53" s="235"/>
+      <c r="J53" s="235"/>
     </row>
     <row r="54" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A54" s="234" t="s">
+      <c r="A54" s="231" t="s">
         <v>233</v>
       </c>
-      <c r="B54" s="207"/>
-      <c r="C54" s="207"/>
-      <c r="D54" s="207"/>
-      <c r="E54" s="207"/>
-      <c r="F54" s="207"/>
-      <c r="G54" s="207"/>
-      <c r="H54" s="207"/>
-      <c r="I54" s="207"/>
-      <c r="J54" s="207"/>
+      <c r="B54" s="225"/>
+      <c r="C54" s="225"/>
+      <c r="D54" s="225"/>
+      <c r="E54" s="225"/>
+      <c r="F54" s="225"/>
+      <c r="G54" s="225"/>
+      <c r="H54" s="225"/>
+      <c r="I54" s="225"/>
+      <c r="J54" s="225"/>
     </row>
     <row r="55" spans="1:10" ht="114" customHeight="1">
-      <c r="A55" s="237" t="s">
+      <c r="A55" s="234" t="s">
         <v>246</v>
       </c>
-      <c r="B55" s="241"/>
-      <c r="C55" s="241"/>
-      <c r="D55" s="241"/>
-      <c r="E55" s="241"/>
-      <c r="F55" s="241"/>
-      <c r="G55" s="241"/>
-      <c r="H55" s="241"/>
-      <c r="I55" s="241"/>
-      <c r="J55" s="241"/>
+      <c r="B55" s="252"/>
+      <c r="C55" s="252"/>
+      <c r="D55" s="252"/>
+      <c r="E55" s="252"/>
+      <c r="F55" s="252"/>
+      <c r="G55" s="252"/>
+      <c r="H55" s="252"/>
+      <c r="I55" s="252"/>
+      <c r="J55" s="252"/>
     </row>
     <row r="56" spans="1:10" ht="63" customHeight="1">
-      <c r="A56" s="234" t="s">
+      <c r="A56" s="231" t="s">
         <v>232</v>
       </c>
-      <c r="B56" s="234"/>
-      <c r="C56" s="234"/>
-      <c r="D56" s="234"/>
-      <c r="E56" s="234"/>
-      <c r="F56" s="234"/>
-      <c r="G56" s="234"/>
-      <c r="H56" s="234"/>
-      <c r="I56" s="234"/>
-      <c r="J56" s="234"/>
+      <c r="B56" s="231"/>
+      <c r="C56" s="231"/>
+      <c r="D56" s="231"/>
+      <c r="E56" s="231"/>
+      <c r="F56" s="231"/>
+      <c r="G56" s="231"/>
+      <c r="H56" s="231"/>
+      <c r="I56" s="231"/>
+      <c r="J56" s="231"/>
     </row>
     <row r="57" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A57" s="234" t="s">
+      <c r="A57" s="231" t="s">
         <v>192</v>
       </c>
-      <c r="B57" s="234"/>
-      <c r="C57" s="234"/>
-      <c r="D57" s="234"/>
-      <c r="E57" s="234"/>
-      <c r="F57" s="234"/>
-      <c r="G57" s="234"/>
-      <c r="H57" s="234"/>
-      <c r="I57" s="234"/>
-      <c r="J57" s="234"/>
+      <c r="B57" s="231"/>
+      <c r="C57" s="231"/>
+      <c r="D57" s="231"/>
+      <c r="E57" s="231"/>
+      <c r="F57" s="231"/>
+      <c r="G57" s="231"/>
+      <c r="H57" s="231"/>
+      <c r="I57" s="231"/>
+      <c r="J57" s="231"/>
     </row>
     <row r="58" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A58" s="231" t="s">
+      <c r="A58" s="232" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="232"/>
-      <c r="C58" s="232"/>
-      <c r="D58" s="232"/>
-      <c r="E58" s="232"/>
-      <c r="F58" s="232"/>
-      <c r="G58" s="232"/>
-      <c r="H58" s="232"/>
-      <c r="I58" s="232"/>
-      <c r="J58" s="232"/>
+      <c r="B58" s="235"/>
+      <c r="C58" s="235"/>
+      <c r="D58" s="235"/>
+      <c r="E58" s="235"/>
+      <c r="F58" s="235"/>
+      <c r="G58" s="235"/>
+      <c r="H58" s="235"/>
+      <c r="I58" s="235"/>
+      <c r="J58" s="235"/>
     </row>
     <row r="59" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A59" s="231" t="s">
+      <c r="A59" s="232" t="s">
         <v>245</v>
       </c>
-      <c r="B59" s="231"/>
-      <c r="C59" s="231"/>
-      <c r="D59" s="231"/>
-      <c r="E59" s="231"/>
-      <c r="F59" s="231"/>
-      <c r="G59" s="231"/>
-      <c r="H59" s="231"/>
-      <c r="I59" s="231"/>
-      <c r="J59" s="231"/>
+      <c r="B59" s="232"/>
+      <c r="C59" s="232"/>
+      <c r="D59" s="232"/>
+      <c r="E59" s="232"/>
+      <c r="F59" s="232"/>
+      <c r="G59" s="232"/>
+      <c r="H59" s="232"/>
+      <c r="I59" s="232"/>
+      <c r="J59" s="232"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="240" t="s">
+      <c r="A60" s="251" t="s">
         <v>244</v>
       </c>
-      <c r="B60" s="240"/>
-      <c r="C60" s="240"/>
-      <c r="D60" s="240"/>
-      <c r="E60" s="240"/>
-      <c r="F60" s="240"/>
-      <c r="G60" s="240"/>
-      <c r="H60" s="240"/>
-      <c r="I60" s="240"/>
-      <c r="J60" s="240"/>
+      <c r="B60" s="251"/>
+      <c r="C60" s="251"/>
+      <c r="D60" s="251"/>
+      <c r="E60" s="251"/>
+      <c r="F60" s="251"/>
+      <c r="G60" s="251"/>
+      <c r="H60" s="251"/>
+      <c r="I60" s="251"/>
+      <c r="J60" s="251"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A58:J58"/>
     <mergeCell ref="A52:J52"/>
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="A41:J41"/>
@@ -28495,14 +28495,14 @@
     <mergeCell ref="A49:J49"/>
     <mergeCell ref="A50:J50"/>
     <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
@@ -28529,18 +28529,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="247"/>
-      <c r="J1" s="247"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="243"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="244"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -28549,18 +28549,18 @@
     <row r="2" spans="1:15">
       <c r="A2" s="107"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="219" t="s">
+      <c r="C2" s="212" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="222" t="s">
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="215" t="s">
         <v>231</v>
       </c>
-      <c r="J2" s="248" t="s">
+      <c r="J2" s="245" t="s">
         <v>55</v>
       </c>
       <c r="K2" s="1"/>
@@ -28575,20 +28575,20 @@
       <c r="B3" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="228" t="s">
+      <c r="C3" s="221" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="229"/>
-      <c r="E3" s="251" t="s">
+      <c r="D3" s="222"/>
+      <c r="E3" s="248" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="252"/>
-      <c r="G3" s="222" t="s">
+      <c r="F3" s="249"/>
+      <c r="G3" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="248"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="249"/>
+      <c r="H3" s="245"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="246"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -28615,8 +28615,8 @@
       <c r="H4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="224"/>
-      <c r="J4" s="250"/>
+      <c r="I4" s="217"/>
+      <c r="J4" s="247"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -29774,72 +29774,72 @@
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:15" ht="122.25" customHeight="1">
-      <c r="A40" s="233" t="s">
+      <c r="A40" s="237" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="242"/>
-      <c r="C40" s="242"/>
-      <c r="D40" s="242"/>
-      <c r="E40" s="242"/>
-      <c r="F40" s="242"/>
-      <c r="G40" s="242"/>
-      <c r="H40" s="242"/>
-      <c r="I40" s="242"/>
-      <c r="J40" s="242"/>
+      <c r="B40" s="250"/>
+      <c r="C40" s="250"/>
+      <c r="D40" s="250"/>
+      <c r="E40" s="250"/>
+      <c r="F40" s="250"/>
+      <c r="G40" s="250"/>
+      <c r="H40" s="250"/>
+      <c r="I40" s="250"/>
+      <c r="J40" s="250"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="1:15" ht="27.75" customHeight="1">
-      <c r="A41" s="232" t="s">
+      <c r="A41" s="235" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="232"/>
-      <c r="C41" s="232"/>
-      <c r="D41" s="232"/>
-      <c r="E41" s="232"/>
-      <c r="F41" s="232"/>
-      <c r="G41" s="232"/>
-      <c r="H41" s="232"/>
-      <c r="I41" s="232"/>
-      <c r="J41" s="232"/>
+      <c r="B41" s="235"/>
+      <c r="C41" s="235"/>
+      <c r="D41" s="235"/>
+      <c r="E41" s="235"/>
+      <c r="F41" s="235"/>
+      <c r="G41" s="235"/>
+      <c r="H41" s="235"/>
+      <c r="I41" s="235"/>
+      <c r="J41" s="235"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:15" ht="27" customHeight="1">
-      <c r="A42" s="232" t="s">
+      <c r="A42" s="235" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="232"/>
-      <c r="C42" s="232"/>
-      <c r="D42" s="232"/>
-      <c r="E42" s="232"/>
-      <c r="F42" s="232"/>
-      <c r="G42" s="232"/>
-      <c r="H42" s="232"/>
-      <c r="I42" s="232"/>
-      <c r="J42" s="232"/>
+      <c r="B42" s="235"/>
+      <c r="C42" s="235"/>
+      <c r="D42" s="235"/>
+      <c r="E42" s="235"/>
+      <c r="F42" s="235"/>
+      <c r="G42" s="235"/>
+      <c r="H42" s="235"/>
+      <c r="I42" s="235"/>
+      <c r="J42" s="235"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
     <row r="43" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A43" s="232" t="s">
+      <c r="A43" s="235" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="232"/>
-      <c r="C43" s="232"/>
-      <c r="D43" s="232"/>
-      <c r="E43" s="232"/>
-      <c r="F43" s="232"/>
-      <c r="G43" s="232"/>
-      <c r="H43" s="232"/>
-      <c r="I43" s="232"/>
-      <c r="J43" s="232"/>
+      <c r="B43" s="235"/>
+      <c r="C43" s="235"/>
+      <c r="D43" s="235"/>
+      <c r="E43" s="235"/>
+      <c r="F43" s="235"/>
+      <c r="G43" s="235"/>
+      <c r="H43" s="235"/>
+      <c r="I43" s="235"/>
+      <c r="J43" s="235"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -29864,180 +29864,180 @@
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="1:15" ht="27" customHeight="1">
-      <c r="A45" s="234" t="s">
+      <c r="A45" s="231" t="s">
         <v>225</v>
       </c>
-      <c r="B45" s="234"/>
-      <c r="C45" s="234"/>
-      <c r="D45" s="234"/>
-      <c r="E45" s="234"/>
-      <c r="F45" s="234"/>
-      <c r="G45" s="234"/>
-      <c r="H45" s="234"/>
-      <c r="I45" s="234"/>
-      <c r="J45" s="234"/>
+      <c r="B45" s="231"/>
+      <c r="C45" s="231"/>
+      <c r="D45" s="231"/>
+      <c r="E45" s="231"/>
+      <c r="F45" s="231"/>
+      <c r="G45" s="231"/>
+      <c r="H45" s="231"/>
+      <c r="I45" s="231"/>
+      <c r="J45" s="231"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
     <row r="46" spans="1:15" ht="41.25" customHeight="1">
-      <c r="A46" s="234" t="s">
+      <c r="A46" s="231" t="s">
         <v>226</v>
       </c>
-      <c r="B46" s="234"/>
-      <c r="C46" s="234"/>
-      <c r="D46" s="234"/>
-      <c r="E46" s="234"/>
-      <c r="F46" s="234"/>
-      <c r="G46" s="234"/>
-      <c r="H46" s="234"/>
-      <c r="I46" s="234"/>
-      <c r="J46" s="234"/>
+      <c r="B46" s="231"/>
+      <c r="C46" s="231"/>
+      <c r="D46" s="231"/>
+      <c r="E46" s="231"/>
+      <c r="F46" s="231"/>
+      <c r="G46" s="231"/>
+      <c r="H46" s="231"/>
+      <c r="I46" s="231"/>
+      <c r="J46" s="231"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
     <row r="47" spans="1:15" ht="74.25" customHeight="1">
-      <c r="A47" s="234" t="s">
+      <c r="A47" s="231" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="234"/>
-      <c r="C47" s="234"/>
-      <c r="D47" s="234"/>
-      <c r="E47" s="234"/>
-      <c r="F47" s="234"/>
-      <c r="G47" s="234"/>
-      <c r="H47" s="234"/>
-      <c r="I47" s="234"/>
-      <c r="J47" s="234"/>
+      <c r="B47" s="231"/>
+      <c r="C47" s="231"/>
+      <c r="D47" s="231"/>
+      <c r="E47" s="231"/>
+      <c r="F47" s="231"/>
+      <c r="G47" s="231"/>
+      <c r="H47" s="231"/>
+      <c r="I47" s="231"/>
+      <c r="J47" s="231"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
     <row r="48" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A48" s="234" t="s">
+      <c r="A48" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="234"/>
-      <c r="C48" s="234"/>
-      <c r="D48" s="234"/>
-      <c r="E48" s="234"/>
-      <c r="F48" s="234"/>
-      <c r="G48" s="234"/>
-      <c r="H48" s="234"/>
-      <c r="I48" s="234"/>
-      <c r="J48" s="234"/>
+      <c r="B48" s="231"/>
+      <c r="C48" s="231"/>
+      <c r="D48" s="231"/>
+      <c r="E48" s="231"/>
+      <c r="F48" s="231"/>
+      <c r="G48" s="231"/>
+      <c r="H48" s="231"/>
+      <c r="I48" s="231"/>
+      <c r="J48" s="231"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
     <row r="49" spans="1:14" ht="42" customHeight="1">
-      <c r="A49" s="234" t="s">
+      <c r="A49" s="231" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="234"/>
-      <c r="C49" s="234"/>
-      <c r="D49" s="234"/>
-      <c r="E49" s="234"/>
-      <c r="F49" s="234"/>
-      <c r="G49" s="234"/>
-      <c r="H49" s="234"/>
-      <c r="I49" s="234"/>
-      <c r="J49" s="234"/>
+      <c r="B49" s="231"/>
+      <c r="C49" s="231"/>
+      <c r="D49" s="231"/>
+      <c r="E49" s="231"/>
+      <c r="F49" s="231"/>
+      <c r="G49" s="231"/>
+      <c r="H49" s="231"/>
+      <c r="I49" s="231"/>
+      <c r="J49" s="231"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
     <row r="50" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A50" s="231" t="s">
+      <c r="A50" s="232" t="s">
         <v>228</v>
       </c>
-      <c r="B50" s="234"/>
-      <c r="C50" s="234"/>
-      <c r="D50" s="234"/>
-      <c r="E50" s="234"/>
-      <c r="F50" s="234"/>
-      <c r="G50" s="234"/>
-      <c r="H50" s="234"/>
-      <c r="I50" s="234"/>
-      <c r="J50" s="234"/>
+      <c r="B50" s="231"/>
+      <c r="C50" s="231"/>
+      <c r="D50" s="231"/>
+      <c r="E50" s="231"/>
+      <c r="F50" s="231"/>
+      <c r="G50" s="231"/>
+      <c r="H50" s="231"/>
+      <c r="I50" s="231"/>
+      <c r="J50" s="231"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
     <row r="51" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A51" s="234" t="s">
+      <c r="A51" s="231" t="s">
         <v>230</v>
       </c>
-      <c r="B51" s="234"/>
-      <c r="C51" s="234"/>
-      <c r="D51" s="234"/>
-      <c r="E51" s="234"/>
-      <c r="F51" s="234"/>
-      <c r="G51" s="234"/>
-      <c r="H51" s="234"/>
-      <c r="I51" s="234"/>
-      <c r="J51" s="234"/>
+      <c r="B51" s="231"/>
+      <c r="C51" s="231"/>
+      <c r="D51" s="231"/>
+      <c r="E51" s="231"/>
+      <c r="F51" s="231"/>
+      <c r="G51" s="231"/>
+      <c r="H51" s="231"/>
+      <c r="I51" s="231"/>
+      <c r="J51" s="231"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
     <row r="52" spans="1:14" ht="33" customHeight="1">
-      <c r="A52" s="232" t="s">
+      <c r="A52" s="235" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="232"/>
-      <c r="C52" s="232"/>
-      <c r="D52" s="232"/>
-      <c r="E52" s="232"/>
-      <c r="F52" s="232"/>
-      <c r="G52" s="232"/>
-      <c r="H52" s="232"/>
-      <c r="I52" s="232"/>
-      <c r="J52" s="232"/>
+      <c r="B52" s="235"/>
+      <c r="C52" s="235"/>
+      <c r="D52" s="235"/>
+      <c r="E52" s="235"/>
+      <c r="F52" s="235"/>
+      <c r="G52" s="235"/>
+      <c r="H52" s="235"/>
+      <c r="I52" s="235"/>
+      <c r="J52" s="235"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="61.5" customHeight="1">
-      <c r="A53" s="234" t="s">
+      <c r="A53" s="231" t="s">
         <v>224</v>
       </c>
-      <c r="B53" s="207"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="207"/>
-      <c r="E53" s="207"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="207"/>
-      <c r="H53" s="207"/>
-      <c r="I53" s="207"/>
-      <c r="J53" s="207"/>
+      <c r="B53" s="225"/>
+      <c r="C53" s="225"/>
+      <c r="D53" s="225"/>
+      <c r="E53" s="225"/>
+      <c r="F53" s="225"/>
+      <c r="G53" s="225"/>
+      <c r="H53" s="225"/>
+      <c r="I53" s="225"/>
+      <c r="J53" s="225"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
     <row r="54" spans="1:14" ht="75.75" customHeight="1">
-      <c r="A54" s="234" t="s">
+      <c r="A54" s="231" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="234"/>
-      <c r="C54" s="234"/>
-      <c r="D54" s="234"/>
-      <c r="E54" s="234"/>
-      <c r="F54" s="234"/>
-      <c r="G54" s="234"/>
-      <c r="H54" s="234"/>
-      <c r="I54" s="234"/>
-      <c r="J54" s="234"/>
+      <c r="B54" s="231"/>
+      <c r="C54" s="231"/>
+      <c r="D54" s="231"/>
+      <c r="E54" s="231"/>
+      <c r="F54" s="231"/>
+      <c r="G54" s="231"/>
+      <c r="H54" s="231"/>
+      <c r="I54" s="231"/>
+      <c r="J54" s="231"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -30062,90 +30062,90 @@
       <c r="N55" s="1"/>
     </row>
     <row r="56" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A56" s="234" t="s">
+      <c r="A56" s="231" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="234"/>
-      <c r="C56" s="234"/>
-      <c r="D56" s="234"/>
-      <c r="E56" s="234"/>
-      <c r="F56" s="234"/>
-      <c r="G56" s="234"/>
-      <c r="H56" s="234"/>
-      <c r="I56" s="234"/>
-      <c r="J56" s="234"/>
+      <c r="B56" s="231"/>
+      <c r="C56" s="231"/>
+      <c r="D56" s="231"/>
+      <c r="E56" s="231"/>
+      <c r="F56" s="231"/>
+      <c r="G56" s="231"/>
+      <c r="H56" s="231"/>
+      <c r="I56" s="231"/>
+      <c r="J56" s="231"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
     <row r="57" spans="1:14" ht="26.25" customHeight="1">
-      <c r="A57" s="231" t="s">
+      <c r="A57" s="232" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="232"/>
-      <c r="C57" s="232"/>
-      <c r="D57" s="232"/>
-      <c r="E57" s="232"/>
-      <c r="F57" s="232"/>
-      <c r="G57" s="232"/>
-      <c r="H57" s="232"/>
-      <c r="I57" s="232"/>
-      <c r="J57" s="232"/>
+      <c r="B57" s="235"/>
+      <c r="C57" s="235"/>
+      <c r="D57" s="235"/>
+      <c r="E57" s="235"/>
+      <c r="F57" s="235"/>
+      <c r="G57" s="235"/>
+      <c r="H57" s="235"/>
+      <c r="I57" s="235"/>
+      <c r="J57" s="235"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
     <row r="58" spans="1:14" ht="18" customHeight="1">
-      <c r="A58" s="231" t="s">
+      <c r="A58" s="232" t="s">
         <v>227</v>
       </c>
-      <c r="B58" s="231"/>
-      <c r="C58" s="231"/>
-      <c r="D58" s="231"/>
-      <c r="E58" s="231"/>
-      <c r="F58" s="231"/>
-      <c r="G58" s="231"/>
-      <c r="H58" s="231"/>
-      <c r="I58" s="231"/>
-      <c r="J58" s="231"/>
+      <c r="B58" s="232"/>
+      <c r="C58" s="232"/>
+      <c r="D58" s="232"/>
+      <c r="E58" s="232"/>
+      <c r="F58" s="232"/>
+      <c r="G58" s="232"/>
+      <c r="H58" s="232"/>
+      <c r="I58" s="232"/>
+      <c r="J58" s="232"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
     <row r="59" spans="1:14" ht="18" customHeight="1">
-      <c r="A59" s="231" t="s">
+      <c r="A59" s="232" t="s">
         <v>229</v>
       </c>
-      <c r="B59" s="231"/>
-      <c r="C59" s="231"/>
-      <c r="D59" s="231"/>
-      <c r="E59" s="231"/>
-      <c r="F59" s="231"/>
-      <c r="G59" s="231"/>
-      <c r="H59" s="231"/>
-      <c r="I59" s="231"/>
-      <c r="J59" s="231"/>
+      <c r="B59" s="232"/>
+      <c r="C59" s="232"/>
+      <c r="D59" s="232"/>
+      <c r="E59" s="232"/>
+      <c r="F59" s="232"/>
+      <c r="G59" s="232"/>
+      <c r="H59" s="232"/>
+      <c r="I59" s="232"/>
+      <c r="J59" s="232"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
     <row r="60" spans="1:14" ht="42" customHeight="1">
-      <c r="A60" s="231" t="s">
+      <c r="A60" s="232" t="s">
         <v>215</v>
       </c>
-      <c r="B60" s="240"/>
-      <c r="C60" s="240"/>
-      <c r="D60" s="240"/>
-      <c r="E60" s="240"/>
-      <c r="F60" s="240"/>
-      <c r="G60" s="240"/>
-      <c r="H60" s="240"/>
-      <c r="I60" s="240"/>
-      <c r="J60" s="240"/>
+      <c r="B60" s="251"/>
+      <c r="C60" s="251"/>
+      <c r="D60" s="251"/>
+      <c r="E60" s="251"/>
+      <c r="F60" s="251"/>
+      <c r="G60" s="251"/>
+      <c r="H60" s="251"/>
+      <c r="I60" s="251"/>
+      <c r="J60" s="251"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -30185,13 +30185,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A60:J60"/>
     <mergeCell ref="A54:J54"/>
     <mergeCell ref="A55:J55"/>
     <mergeCell ref="A40:J40"/>
@@ -30207,11 +30205,13 @@
     <mergeCell ref="A51:J51"/>
     <mergeCell ref="A52:J52"/>
     <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
